--- a/ORCL.xlsx
+++ b/ORCL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509D2952-4898-48C0-AEEE-A06511DF03D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B484F4-39FD-44E4-936A-0EA5F3ED3451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37000" yWindow="4170" windowWidth="32770" windowHeight="15380" tabRatio="319" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39430" yWindow="1720" windowWidth="26400" windowHeight="18030" tabRatio="319" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
     Guidance: 8-10%</t>
       </text>
     </comment>
-    <comment ref="AJ34" authorId="1" shapeId="0" xr:uid="{A4A66BCC-1D5A-42FB-AF87-0976A774FC6D}">
+    <comment ref="AL34" authorId="1" shapeId="0" xr:uid="{A4A66BCC-1D5A-42FB-AF87-0976A774FC6D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="123">
   <si>
     <t>Price</t>
   </si>
@@ -435,6 +435,9 @@
   </si>
   <si>
     <t>Q125</t>
+  </si>
+  <si>
+    <t>FQ126</t>
   </si>
 </sst>
 </file>
@@ -632,13 +635,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>7350</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>53578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>7350</xdr:colOff>
       <xdr:row>86</xdr:row>
       <xdr:rowOff>50213</xdr:rowOff>
@@ -989,7 +992,7 @@
   <threadedComment ref="X34" dT="2024-09-11T18:30:08.76" personId="{7216FEC0-B7FB-466B-9D42-622825855BC7}" id="{91674395-ECF1-496E-8E8E-18027BB9B0AB}">
     <text>Guidance: 8-10%</text>
   </threadedComment>
-  <threadedComment ref="AJ34" dT="2024-09-11T18:29:26.52" personId="{7216FEC0-B7FB-466B-9D42-622825855BC7}" id="{A4A66BCC-1D5A-42FB-AF87-0976A774FC6D}">
+  <threadedComment ref="AL34" dT="2024-09-11T18:29:26.52" personId="{7216FEC0-B7FB-466B-9D42-622825855BC7}" id="{A4A66BCC-1D5A-42FB-AF87-0976A774FC6D}">
     <text>Q125 guidance: DD revenue growth</text>
   </threadedComment>
   <threadedComment ref="V80" dT="2024-09-11T18:53:29.19" personId="{7216FEC0-B7FB-466B-9D42-622825855BC7}" id="{DF3A69DD-1198-42A5-A83A-5484CF412A11}">
@@ -1002,7 +1005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AD04C5-FAB4-8B42-B6A2-F2686B3BB573}">
   <dimension ref="B2:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1106,13 +1109,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284BEAAF-34CF-A143-8837-7F659B2590CD}">
-  <dimension ref="A1:DZ83"/>
+  <dimension ref="A1:EB83"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AF12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="R64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="Z70" sqref="Z70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1121,21 +1124,21 @@
     <col min="2" max="2" width="17.453125" style="1" customWidth="1"/>
     <col min="3" max="8" width="9" style="4" customWidth="1"/>
     <col min="9" max="16" width="9.7265625" style="4" customWidth="1"/>
-    <col min="17" max="28" width="9" style="4" customWidth="1"/>
-    <col min="29" max="29" width="8.54296875" style="1"/>
-    <col min="30" max="31" width="8.54296875" style="4"/>
-    <col min="32" max="33" width="9.54296875" style="4" customWidth="1"/>
-    <col min="34" max="43" width="8.54296875" style="1"/>
-    <col min="44" max="44" width="9.26953125" style="1" customWidth="1"/>
-    <col min="45" max="16384" width="8.54296875" style="1"/>
+    <col min="17" max="30" width="9" style="4" customWidth="1"/>
+    <col min="31" max="31" width="8.54296875" style="1"/>
+    <col min="32" max="33" width="8.54296875" style="4"/>
+    <col min="34" max="35" width="9.54296875" style="4" customWidth="1"/>
+    <col min="36" max="45" width="8.54296875" style="1"/>
+    <col min="46" max="46" width="9.26953125" style="1" customWidth="1"/>
+    <col min="47" max="16384" width="8.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:41" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -1211,59 +1214,64 @@
         <f>+V2+365</f>
         <v>45807</v>
       </c>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12">
+      <c r="AA2" s="12">
+        <f>+W2</f>
+        <v>45535</v>
+      </c>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12">
         <v>42886</v>
       </c>
-      <c r="AC2" s="12">
+      <c r="AE2" s="12">
         <v>43251</v>
       </c>
-      <c r="AD2" s="12">
+      <c r="AF2" s="12">
         <v>43616</v>
       </c>
-      <c r="AE2" s="12">
+      <c r="AG2" s="12">
         <v>43982</v>
       </c>
-      <c r="AF2" s="12">
+      <c r="AH2" s="12">
         <v>44347</v>
       </c>
-      <c r="AG2" s="12">
+      <c r="AI2" s="12">
         <v>44712</v>
       </c>
-      <c r="AH2" s="12">
-        <f>AG2+365</f>
+      <c r="AJ2" s="12">
+        <f>AI2+365</f>
         <v>45077</v>
       </c>
-      <c r="AI2" s="12">
-        <f>AH2+366</f>
+      <c r="AK2" s="12">
+        <f>AJ2+366</f>
         <v>45443</v>
       </c>
-      <c r="AJ2" s="12">
-        <f t="shared" ref="AJ2" si="1">AI2+365</f>
+      <c r="AL2" s="12">
+        <f t="shared" ref="AL2" si="1">AK2+365</f>
         <v>45808</v>
       </c>
-      <c r="AK2" s="12">
-        <f t="shared" ref="AK2:AL2" si="2">AJ2+365</f>
+      <c r="AM2" s="12">
+        <f t="shared" ref="AM2:AN2" si="2">AL2+365</f>
         <v>46173</v>
       </c>
-      <c r="AL2" s="12">
+      <c r="AN2" s="12">
         <f t="shared" si="2"/>
         <v>46538</v>
       </c>
-      <c r="AM2" s="12">
-        <f>AL2+366</f>
+      <c r="AO2" s="12">
+        <f>AN2+366</f>
         <v>46904</v>
       </c>
-      <c r="AN2" s="12">
-        <f t="shared" ref="AN2" si="3">AM2+365</f>
+      <c r="AP2" s="12">
+        <f t="shared" ref="AP2" si="3">AO2+365</f>
         <v>47269</v>
       </c>
-      <c r="AO2" s="12">
-        <f>AN2+365</f>
+      <c r="AQ2" s="12">
+        <f>AP2+365</f>
         <v>47634</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C3" s="4" t="s">
         <v>46</v>
       </c>
@@ -1336,50 +1344,53 @@
       <c r="Z3" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AF3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AG3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AI3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AL3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AM3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AN3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AO3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AP3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AQ3" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>120</v>
       </c>
@@ -1398,28 +1409,28 @@
       <c r="Y4" s="5">
         <v>130000</v>
       </c>
-      <c r="AC4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
+      <c r="AE4" s="4"/>
       <c r="AJ4" s="4"/>
       <c r="AK4" s="4"/>
       <c r="AL4" s="4"/>
       <c r="AM4" s="4"/>
       <c r="AN4" s="4"/>
       <c r="AO4" s="4"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="AC5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AE5" s="4"/>
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
       <c r="AM5" s="4"/>
       <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>103</v>
       </c>
@@ -1447,17 +1458,17 @@
       <c r="W6" s="5">
         <v>900</v>
       </c>
-      <c r="AC6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
+      <c r="AE6" s="4"/>
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
       <c r="AM6" s="4"/>
       <c r="AN6" s="4"/>
       <c r="AO6" s="4"/>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>114</v>
       </c>
@@ -1483,17 +1494,17 @@
         <v>800</v>
       </c>
       <c r="W7" s="5"/>
-      <c r="AC7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
+      <c r="AE7" s="4"/>
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
       <c r="AM7" s="4"/>
       <c r="AN7" s="4"/>
       <c r="AO7" s="4"/>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>115</v>
       </c>
@@ -1524,17 +1535,17 @@
       <c r="W8" s="5">
         <v>3500</v>
       </c>
-      <c r="AC8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
+      <c r="AE8" s="4"/>
       <c r="AJ8" s="4"/>
       <c r="AK8" s="4"/>
       <c r="AL8" s="4"/>
       <c r="AM8" s="4"/>
       <c r="AN8" s="4"/>
       <c r="AO8" s="4"/>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>116</v>
       </c>
@@ -1565,28 +1576,28 @@
       <c r="W9" s="5">
         <v>2200</v>
       </c>
-      <c r="AC9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
+      <c r="AE9" s="4"/>
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="AC10" s="4"/>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AE10" s="4"/>
       <c r="AJ10" s="4"/>
       <c r="AK10" s="4"/>
       <c r="AL10" s="4"/>
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
       <c r="AO10" s="4"/>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>102</v>
       </c>
@@ -1620,17 +1631,19 @@
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
-      <c r="AC11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AE11" s="4"/>
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
       <c r="AL11" s="4"/>
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
       <c r="AO11" s="4"/>
-    </row>
-    <row r="12" spans="1:41" s="16" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+    </row>
+    <row r="12" spans="1:43" s="16" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
         <v>101</v>
       </c>
@@ -1676,8 +1689,8 @@
       <c r="X12" s="18"/>
       <c r="Y12" s="18"/>
       <c r="Z12" s="18"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
       <c r="AC12" s="17"/>
       <c r="AD12" s="17"/>
       <c r="AE12" s="17"/>
@@ -1691,8 +1704,10 @@
       <c r="AM12" s="17"/>
       <c r="AN12" s="17"/>
       <c r="AO12" s="17"/>
-    </row>
-    <row r="13" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AP12" s="17"/>
+      <c r="AQ12" s="17"/>
+    </row>
+    <row r="13" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>33</v>
       </c>
@@ -1767,26 +1782,28 @@
       </c>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
-      <c r="AB13" s="5">
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5">
         <v>23800</v>
       </c>
-      <c r="AC13" s="3">
+      <c r="AE13" s="3">
         <v>26254</v>
       </c>
-      <c r="AD13" s="5">
+      <c r="AF13" s="5">
         <v>26707</v>
       </c>
-      <c r="AE13" s="5">
+      <c r="AG13" s="5">
         <v>27392</v>
       </c>
-      <c r="AF13" s="5">
+      <c r="AH13" s="5">
         <v>28700</v>
       </c>
-      <c r="AG13" s="5">
+      <c r="AI13" s="5">
         <v>30174</v>
       </c>
     </row>
-    <row r="14" spans="1:41" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="19" t="s">
         <v>34</v>
       </c>
@@ -1853,26 +1870,28 @@
       </c>
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
-      <c r="AB14" s="20">
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20">
         <v>6418</v>
       </c>
-      <c r="AC14" s="19">
+      <c r="AE14" s="19">
         <v>6190</v>
       </c>
-      <c r="AD14" s="20">
+      <c r="AF14" s="20">
         <v>5855</v>
       </c>
-      <c r="AE14" s="20">
+      <c r="AG14" s="20">
         <v>5127</v>
       </c>
-      <c r="AF14" s="20">
+      <c r="AH14" s="20">
         <v>5399</v>
       </c>
-      <c r="AG14" s="20">
+      <c r="AI14" s="20">
         <v>5878</v>
       </c>
     </row>
-    <row r="15" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
@@ -1939,26 +1958,28 @@
       </c>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
-      <c r="AB15" s="5">
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5">
         <v>4152</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AE15" s="3">
         <v>3993</v>
       </c>
-      <c r="AD15" s="5">
+      <c r="AF15" s="5">
         <v>3704</v>
       </c>
-      <c r="AE15" s="5">
+      <c r="AG15" s="5">
         <v>3443</v>
       </c>
-      <c r="AF15" s="5">
+      <c r="AH15" s="5">
         <v>3359</v>
       </c>
-      <c r="AG15" s="5">
+      <c r="AI15" s="5">
         <v>3183</v>
       </c>
     </row>
-    <row r="16" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
@@ -2025,26 +2046,28 @@
       </c>
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
-      <c r="AB16" s="5">
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5">
         <v>3358</v>
       </c>
-      <c r="AC16" s="3">
+      <c r="AE16" s="3">
         <v>3394</v>
       </c>
-      <c r="AD16" s="5">
+      <c r="AF16" s="5">
         <v>3240</v>
       </c>
-      <c r="AE16" s="5">
+      <c r="AG16" s="5">
         <v>3106</v>
       </c>
-      <c r="AF16" s="5">
+      <c r="AH16" s="5">
         <v>3021</v>
       </c>
-      <c r="AG16" s="5">
+      <c r="AI16" s="5">
         <v>3205</v>
       </c>
     </row>
-    <row r="18" spans="2:130" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:132" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>8</v>
       </c>
@@ -2133,64 +2156,66 @@
         <v>15001.35</v>
       </c>
       <c r="AA18" s="9"/>
-      <c r="AB18" s="9">
-        <f t="shared" ref="AB18:AE18" si="12">SUM(AB13:AB16)</f>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9">
+        <f t="shared" ref="AD18:AG18" si="12">SUM(AD13:AD16)</f>
         <v>37728</v>
       </c>
-      <c r="AC18" s="9">
+      <c r="AE18" s="9">
         <f t="shared" si="12"/>
         <v>39831</v>
       </c>
-      <c r="AD18" s="9">
+      <c r="AF18" s="9">
         <f t="shared" si="12"/>
         <v>39506</v>
       </c>
-      <c r="AE18" s="9">
+      <c r="AG18" s="9">
         <f t="shared" si="12"/>
         <v>39068</v>
       </c>
-      <c r="AF18" s="9">
-        <f>SUM(AF13:AF16)</f>
+      <c r="AH18" s="9">
+        <f>SUM(AH13:AH16)</f>
         <v>40479</v>
       </c>
-      <c r="AG18" s="9">
-        <f>SUM(AG13:AG16)</f>
+      <c r="AI18" s="9">
+        <f>SUM(AI13:AI16)</f>
         <v>42440</v>
       </c>
-      <c r="AH18" s="9">
+      <c r="AJ18" s="9">
         <f>SUM(O18:R18)</f>
         <v>49955</v>
       </c>
-      <c r="AI18" s="9">
+      <c r="AK18" s="9">
         <f>SUM(S18:V18)</f>
         <v>52961</v>
       </c>
-      <c r="AJ18" s="9">
+      <c r="AL18" s="9">
         <f>SUM(W18:Z18)</f>
         <v>56497.35</v>
       </c>
-      <c r="AK18" s="9">
-        <f t="shared" ref="AK18:AO18" si="13">AJ18*1.03</f>
+      <c r="AM18" s="9">
+        <f t="shared" ref="AM18:AQ18" si="13">AL18*1.03</f>
         <v>58192.270499999999</v>
       </c>
-      <c r="AL18" s="9">
+      <c r="AN18" s="9">
         <f t="shared" si="13"/>
         <v>59938.038614999998</v>
       </c>
-      <c r="AM18" s="9">
+      <c r="AO18" s="9">
         <f t="shared" si="13"/>
         <v>61736.17977345</v>
       </c>
-      <c r="AN18" s="9">
+      <c r="AP18" s="9">
         <f t="shared" si="13"/>
         <v>63588.265166653502</v>
       </c>
-      <c r="AO18" s="9">
+      <c r="AQ18" s="9">
         <f t="shared" si="13"/>
         <v>65495.91312165311</v>
       </c>
     </row>
-    <row r="19" spans="2:130" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:132" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
@@ -2279,64 +2304,66 @@
         <v>4350.3914999999997</v>
       </c>
       <c r="AA19" s="5"/>
-      <c r="AB19" s="5">
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5">
         <f>3015+1653+2801</f>
         <v>7469</v>
       </c>
-      <c r="AC19" s="3">
+      <c r="AE19" s="3">
         <f>3612+1581+2888</f>
         <v>8081</v>
       </c>
-      <c r="AD19" s="5">
+      <c r="AF19" s="5">
         <f>3782+1360+2853</f>
         <v>7995</v>
       </c>
-      <c r="AE19" s="5">
+      <c r="AG19" s="5">
         <f>4006+1116+2816</f>
         <v>7938</v>
       </c>
-      <c r="AF19" s="5">
+      <c r="AH19" s="5">
         <f>(4353+972+2530)</f>
         <v>7855</v>
       </c>
-      <c r="AG19" s="5">
+      <c r="AI19" s="5">
         <f>(5213+972+2692)</f>
         <v>8877</v>
       </c>
-      <c r="AH19" s="3">
+      <c r="AJ19" s="3">
         <f>SUM(O19:R19)</f>
         <v>13564</v>
       </c>
-      <c r="AI19" s="3">
-        <f>AI18*0.2</f>
+      <c r="AK19" s="3">
+        <f>AK18*0.2</f>
         <v>10592.2</v>
       </c>
-      <c r="AJ19" s="3">
-        <f t="shared" ref="AJ19:AO19" si="14">AJ18*0.2</f>
+      <c r="AL19" s="3">
+        <f t="shared" ref="AL19:AQ19" si="14">AL18*0.2</f>
         <v>11299.470000000001</v>
       </c>
-      <c r="AK19" s="3">
+      <c r="AM19" s="3">
         <f t="shared" si="14"/>
         <v>11638.454100000001</v>
       </c>
-      <c r="AL19" s="3">
+      <c r="AN19" s="3">
         <f t="shared" si="14"/>
         <v>11987.607723000001</v>
       </c>
-      <c r="AM19" s="3">
+      <c r="AO19" s="3">
         <f t="shared" si="14"/>
         <v>12347.235954690001</v>
       </c>
-      <c r="AN19" s="3">
+      <c r="AP19" s="3">
         <f t="shared" si="14"/>
         <v>12717.653033330702</v>
       </c>
-      <c r="AO19" s="3">
+      <c r="AQ19" s="3">
         <f t="shared" si="14"/>
         <v>13099.182624330622</v>
       </c>
     </row>
-    <row r="20" spans="2:130" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:132" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
@@ -2425,64 +2452,66 @@
         <v>10650.958500000001</v>
       </c>
       <c r="AA20" s="5"/>
-      <c r="AB20" s="5">
-        <f t="shared" ref="AB20:AD20" si="20">AB18-AB19</f>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5">
+        <f t="shared" ref="AD20:AF20" si="20">AD18-AD19</f>
         <v>30259</v>
       </c>
-      <c r="AC20" s="5">
+      <c r="AE20" s="5">
         <f t="shared" si="20"/>
         <v>31750</v>
       </c>
-      <c r="AD20" s="5">
+      <c r="AF20" s="5">
         <f t="shared" si="20"/>
         <v>31511</v>
       </c>
-      <c r="AE20" s="5">
-        <f t="shared" ref="AE20" si="21">AE18-AE19</f>
+      <c r="AG20" s="5">
+        <f t="shared" ref="AG20" si="21">AG18-AG19</f>
         <v>31130</v>
       </c>
-      <c r="AF20" s="5">
-        <f>AF18-AF19</f>
+      <c r="AH20" s="5">
+        <f>AH18-AH19</f>
         <v>32624</v>
       </c>
-      <c r="AG20" s="5">
-        <f t="shared" ref="AG20" si="22">AG18-AG19</f>
+      <c r="AI20" s="5">
+        <f t="shared" ref="AI20" si="22">AI18-AI19</f>
         <v>33563</v>
       </c>
-      <c r="AH20" s="3">
-        <f>AH18-AH19</f>
+      <c r="AJ20" s="3">
+        <f>AJ18-AJ19</f>
         <v>36391</v>
       </c>
-      <c r="AI20" s="3">
-        <f t="shared" ref="AI20:AO20" si="23">AI18-AI19</f>
+      <c r="AK20" s="3">
+        <f t="shared" ref="AK20:AQ20" si="23">AK18-AK19</f>
         <v>42368.800000000003</v>
       </c>
-      <c r="AJ20" s="3">
+      <c r="AL20" s="3">
         <f t="shared" si="23"/>
         <v>45197.88</v>
       </c>
-      <c r="AK20" s="3">
+      <c r="AM20" s="3">
         <f t="shared" si="23"/>
         <v>46553.816399999996</v>
       </c>
-      <c r="AL20" s="3">
+      <c r="AN20" s="3">
         <f t="shared" si="23"/>
         <v>47950.430891999997</v>
       </c>
-      <c r="AM20" s="3">
+      <c r="AO20" s="3">
         <f t="shared" si="23"/>
         <v>49388.943818760003</v>
       </c>
-      <c r="AN20" s="3">
+      <c r="AP20" s="3">
         <f t="shared" si="23"/>
         <v>50870.6121333228</v>
       </c>
-      <c r="AO20" s="3">
+      <c r="AQ20" s="3">
         <f t="shared" si="23"/>
         <v>52396.730497322489</v>
       </c>
     </row>
-    <row r="21" spans="2:130" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:132" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>19</v>
       </c>
@@ -2552,58 +2581,60 @@
         <v>2114</v>
       </c>
       <c r="AA21" s="5"/>
-      <c r="AB21" s="5">
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5">
         <v>8197</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>8431</v>
       </c>
-      <c r="AD21" s="5">
+      <c r="AF21" s="5">
         <v>8509</v>
       </c>
-      <c r="AE21" s="5">
+      <c r="AG21" s="5">
         <v>8094</v>
       </c>
-      <c r="AF21" s="5">
+      <c r="AH21" s="5">
         <v>7682</v>
       </c>
-      <c r="AG21" s="5">
+      <c r="AI21" s="5">
         <v>8047</v>
       </c>
-      <c r="AH21" s="3">
-        <f t="shared" ref="AH21:AH23" si="25">SUM(O21:R21)</f>
+      <c r="AJ21" s="3">
+        <f t="shared" ref="AJ21:AJ23" si="25">SUM(O21:R21)</f>
         <v>8832</v>
       </c>
-      <c r="AI21" s="3">
-        <f>AH21*1.02</f>
+      <c r="AK21" s="3">
+        <f>AJ21*1.02</f>
         <v>9008.64</v>
       </c>
-      <c r="AJ21" s="3">
-        <f t="shared" ref="AJ21:AO21" si="26">AI21*1.02</f>
+      <c r="AL21" s="3">
+        <f t="shared" ref="AL21:AQ21" si="26">AK21*1.02</f>
         <v>9188.8127999999997</v>
       </c>
-      <c r="AK21" s="3">
+      <c r="AM21" s="3">
         <f t="shared" si="26"/>
         <v>9372.5890560000007</v>
       </c>
-      <c r="AL21" s="3">
+      <c r="AN21" s="3">
         <f t="shared" si="26"/>
         <v>9560.040837120001</v>
       </c>
-      <c r="AM21" s="3">
+      <c r="AO21" s="3">
         <f t="shared" si="26"/>
         <v>9751.241653862402</v>
       </c>
-      <c r="AN21" s="3">
+      <c r="AP21" s="3">
         <f t="shared" si="26"/>
         <v>9946.2664869396503</v>
       </c>
-      <c r="AO21" s="3">
+      <c r="AQ21" s="3">
         <f t="shared" si="26"/>
         <v>10145.191816678444</v>
       </c>
     </row>
-    <row r="22" spans="2:130" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:132" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>20</v>
       </c>
@@ -2673,58 +2704,60 @@
         <v>2226</v>
       </c>
       <c r="AA22" s="5"/>
-      <c r="AB22" s="5">
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5">
         <v>6159</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AE22" s="3">
         <v>6091</v>
       </c>
-      <c r="AD22" s="5">
+      <c r="AF22" s="5">
         <v>6026</v>
       </c>
-      <c r="AE22" s="5">
+      <c r="AG22" s="5">
         <v>6067</v>
       </c>
-      <c r="AF22" s="5">
+      <c r="AH22" s="5">
         <v>6527</v>
       </c>
-      <c r="AG22" s="5">
+      <c r="AI22" s="5">
         <v>7219</v>
       </c>
-      <c r="AH22" s="3">
+      <c r="AJ22" s="3">
         <f t="shared" si="25"/>
         <v>8686</v>
       </c>
-      <c r="AI22" s="3">
-        <f t="shared" ref="AI22:AO22" si="27">AH22*1.01</f>
+      <c r="AK22" s="3">
+        <f t="shared" ref="AK22:AQ22" si="27">AJ22*1.01</f>
         <v>8772.86</v>
       </c>
-      <c r="AJ22" s="3">
+      <c r="AL22" s="3">
         <f t="shared" si="27"/>
         <v>8860.588600000001</v>
       </c>
-      <c r="AK22" s="3">
+      <c r="AM22" s="3">
         <f t="shared" si="27"/>
         <v>8949.1944860000003</v>
       </c>
-      <c r="AL22" s="3">
+      <c r="AN22" s="3">
         <f t="shared" si="27"/>
         <v>9038.6864308599997</v>
       </c>
-      <c r="AM22" s="3">
+      <c r="AO22" s="3">
         <f t="shared" si="27"/>
         <v>9129.0732951686005</v>
       </c>
-      <c r="AN22" s="3">
+      <c r="AP22" s="3">
         <f t="shared" si="27"/>
         <v>9220.3640281202861</v>
       </c>
-      <c r="AO22" s="3">
+      <c r="AQ22" s="3">
         <f t="shared" si="27"/>
         <v>9312.5676684014888</v>
       </c>
     </row>
-    <row r="23" spans="2:130" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:132" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>21</v>
       </c>
@@ -2794,58 +2827,60 @@
         <v>402</v>
       </c>
       <c r="AA23" s="5"/>
-      <c r="AB23" s="5">
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5">
         <v>1176</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>1289</v>
       </c>
-      <c r="AD23" s="5">
+      <c r="AF23" s="5">
         <v>1265</v>
       </c>
-      <c r="AE23" s="5">
+      <c r="AG23" s="5">
         <v>1181</v>
       </c>
-      <c r="AF23" s="5">
+      <c r="AH23" s="5">
         <v>1254</v>
       </c>
-      <c r="AG23" s="5">
+      <c r="AI23" s="5">
         <v>1317</v>
       </c>
-      <c r="AH23" s="3">
+      <c r="AJ23" s="3">
         <f t="shared" si="25"/>
         <v>1579</v>
       </c>
-      <c r="AI23" s="3">
-        <f t="shared" ref="AI23:AO23" si="28">AH23*1.01</f>
+      <c r="AK23" s="3">
+        <f t="shared" ref="AK23:AQ23" si="28">AJ23*1.01</f>
         <v>1594.79</v>
       </c>
-      <c r="AJ23" s="3">
+      <c r="AL23" s="3">
         <f t="shared" si="28"/>
         <v>1610.7379000000001</v>
       </c>
-      <c r="AK23" s="3">
+      <c r="AM23" s="3">
         <f t="shared" si="28"/>
         <v>1626.8452790000001</v>
       </c>
-      <c r="AL23" s="3">
+      <c r="AN23" s="3">
         <f t="shared" si="28"/>
         <v>1643.1137317900002</v>
       </c>
-      <c r="AM23" s="3">
+      <c r="AO23" s="3">
         <f t="shared" si="28"/>
         <v>1659.5448691079002</v>
       </c>
-      <c r="AN23" s="3">
+      <c r="AP23" s="3">
         <f t="shared" si="28"/>
         <v>1676.1403177989794</v>
       </c>
-      <c r="AO23" s="3">
+      <c r="AQ23" s="3">
         <f t="shared" si="28"/>
         <v>1692.9017209769693</v>
       </c>
     </row>
-    <row r="24" spans="2:130" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:132" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>22</v>
       </c>
@@ -2946,64 +2981,66 @@
         <v>4742</v>
       </c>
       <c r="AA24" s="5"/>
-      <c r="AB24" s="5">
-        <f t="shared" ref="AB24:AD24" si="33">SUM(AB21:AB23)</f>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5">
+        <f t="shared" ref="AD24:AF24" si="33">SUM(AD21:AD23)</f>
         <v>15532</v>
       </c>
-      <c r="AC24" s="5">
+      <c r="AE24" s="5">
         <f t="shared" si="33"/>
         <v>15811</v>
       </c>
-      <c r="AD24" s="5">
+      <c r="AF24" s="5">
         <f t="shared" si="33"/>
         <v>15800</v>
       </c>
-      <c r="AE24" s="5">
-        <f t="shared" ref="AE24" si="34">SUM(AE21:AE23)</f>
+      <c r="AG24" s="5">
+        <f t="shared" ref="AG24" si="34">SUM(AG21:AG23)</f>
         <v>15342</v>
       </c>
-      <c r="AF24" s="5">
-        <f>SUM(AF21:AF23)</f>
+      <c r="AH24" s="5">
+        <f>SUM(AH21:AH23)</f>
         <v>15463</v>
       </c>
-      <c r="AG24" s="5">
-        <f>SUM(AG21:AG23)</f>
+      <c r="AI24" s="5">
+        <f>SUM(AI21:AI23)</f>
         <v>16583</v>
       </c>
-      <c r="AH24" s="5">
-        <f t="shared" ref="AH24" si="35">SUM(AH21:AH23)</f>
+      <c r="AJ24" s="5">
+        <f t="shared" ref="AJ24" si="35">SUM(AJ21:AJ23)</f>
         <v>19097</v>
       </c>
-      <c r="AI24" s="5">
-        <f t="shared" ref="AI24" si="36">SUM(AI21:AI23)</f>
+      <c r="AK24" s="5">
+        <f t="shared" ref="AK24" si="36">SUM(AK21:AK23)</f>
         <v>19376.29</v>
       </c>
-      <c r="AJ24" s="5">
-        <f t="shared" ref="AJ24" si="37">SUM(AJ21:AJ23)</f>
+      <c r="AL24" s="5">
+        <f t="shared" ref="AL24" si="37">SUM(AL21:AL23)</f>
         <v>19660.139300000003</v>
       </c>
-      <c r="AK24" s="5">
-        <f t="shared" ref="AK24" si="38">SUM(AK21:AK23)</f>
+      <c r="AM24" s="5">
+        <f t="shared" ref="AM24" si="38">SUM(AM21:AM23)</f>
         <v>19948.628821000002</v>
       </c>
-      <c r="AL24" s="5">
-        <f t="shared" ref="AL24" si="39">SUM(AL21:AL23)</f>
+      <c r="AN24" s="5">
+        <f t="shared" ref="AN24" si="39">SUM(AN21:AN23)</f>
         <v>20241.84099977</v>
       </c>
-      <c r="AM24" s="5">
-        <f t="shared" ref="AM24" si="40">SUM(AM21:AM23)</f>
+      <c r="AO24" s="5">
+        <f t="shared" ref="AO24" si="40">SUM(AO21:AO23)</f>
         <v>20539.859818138902</v>
       </c>
-      <c r="AN24" s="5">
-        <f t="shared" ref="AN24" si="41">SUM(AN21:AN23)</f>
+      <c r="AP24" s="5">
+        <f t="shared" ref="AP24" si="41">SUM(AP21:AP23)</f>
         <v>20842.770832858914</v>
       </c>
-      <c r="AO24" s="5">
-        <f t="shared" ref="AO24" si="42">SUM(AO21:AO23)</f>
+      <c r="AQ24" s="5">
+        <f t="shared" ref="AQ24" si="42">SUM(AQ21:AQ23)</f>
         <v>21150.661206056902</v>
       </c>
     </row>
-    <row r="25" spans="2:130" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:132" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>23</v>
       </c>
@@ -3104,64 +3141,66 @@
         <v>5908.9585000000006</v>
       </c>
       <c r="AA25" s="5"/>
-      <c r="AB25" s="5">
-        <f t="shared" ref="AB25:AD25" si="47">AB20-AB24</f>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5">
+        <f t="shared" ref="AD25:AF25" si="47">AD20-AD24</f>
         <v>14727</v>
       </c>
-      <c r="AC25" s="5">
+      <c r="AE25" s="5">
         <f t="shared" si="47"/>
         <v>15939</v>
       </c>
-      <c r="AD25" s="5">
+      <c r="AF25" s="5">
         <f t="shared" si="47"/>
         <v>15711</v>
       </c>
-      <c r="AE25" s="5">
-        <f t="shared" ref="AE25" si="48">AE20-AE24</f>
+      <c r="AG25" s="5">
+        <f t="shared" ref="AG25" si="48">AG20-AG24</f>
         <v>15788</v>
       </c>
-      <c r="AF25" s="5">
-        <f>AF20-AF24</f>
+      <c r="AH25" s="5">
+        <f>AH20-AH24</f>
         <v>17161</v>
       </c>
-      <c r="AG25" s="5">
-        <f>AG20-AG24</f>
+      <c r="AI25" s="5">
+        <f>AI20-AI24</f>
         <v>16980</v>
       </c>
-      <c r="AH25" s="5">
-        <f t="shared" ref="AH25" si="49">AH20-AH24</f>
+      <c r="AJ25" s="5">
+        <f t="shared" ref="AJ25" si="49">AJ20-AJ24</f>
         <v>17294</v>
       </c>
-      <c r="AI25" s="5">
-        <f t="shared" ref="AI25" si="50">AI20-AI24</f>
+      <c r="AK25" s="5">
+        <f t="shared" ref="AK25" si="50">AK20-AK24</f>
         <v>22992.510000000002</v>
       </c>
-      <c r="AJ25" s="5">
-        <f t="shared" ref="AJ25" si="51">AJ20-AJ24</f>
+      <c r="AL25" s="5">
+        <f t="shared" ref="AL25" si="51">AL20-AL24</f>
         <v>25537.740699999995</v>
       </c>
-      <c r="AK25" s="5">
-        <f t="shared" ref="AK25" si="52">AK20-AK24</f>
+      <c r="AM25" s="5">
+        <f t="shared" ref="AM25" si="52">AM20-AM24</f>
         <v>26605.187578999994</v>
       </c>
-      <c r="AL25" s="5">
-        <f t="shared" ref="AL25" si="53">AL20-AL24</f>
+      <c r="AN25" s="5">
+        <f t="shared" ref="AN25" si="53">AN20-AN24</f>
         <v>27708.589892229997</v>
       </c>
-      <c r="AM25" s="5">
-        <f t="shared" ref="AM25" si="54">AM20-AM24</f>
+      <c r="AO25" s="5">
+        <f t="shared" ref="AO25" si="54">AO20-AO24</f>
         <v>28849.0840006211</v>
       </c>
-      <c r="AN25" s="5">
-        <f t="shared" ref="AN25" si="55">AN20-AN24</f>
+      <c r="AP25" s="5">
+        <f t="shared" ref="AP25" si="55">AP20-AP24</f>
         <v>30027.841300463886</v>
       </c>
-      <c r="AO25" s="5">
-        <f t="shared" ref="AO25" si="56">AO20-AO24</f>
+      <c r="AQ25" s="5">
+        <f t="shared" ref="AQ25" si="56">AQ20-AQ24</f>
         <v>31246.069291265587</v>
       </c>
     </row>
-    <row r="26" spans="2:130" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:132" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>24</v>
       </c>
@@ -3241,58 +3280,60 @@
         <v>-890</v>
       </c>
       <c r="AA26" s="5"/>
-      <c r="AB26" s="5">
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5">
         <v>-1798</v>
       </c>
-      <c r="AC26" s="5">
+      <c r="AE26" s="5">
         <v>-2025</v>
       </c>
-      <c r="AD26" s="5">
+      <c r="AF26" s="5">
         <v>-2082</v>
       </c>
-      <c r="AE26" s="5">
+      <c r="AG26" s="5">
         <v>-1995</v>
       </c>
-      <c r="AF26" s="5">
+      <c r="AH26" s="5">
         <v>-2496</v>
       </c>
-      <c r="AG26" s="5">
+      <c r="AI26" s="5">
         <v>-2755</v>
       </c>
-      <c r="AH26" s="3">
-        <f t="shared" ref="AH26:AH28" si="57">SUM(O26:R26)</f>
+      <c r="AJ26" s="3">
+        <f t="shared" ref="AJ26:AJ28" si="57">SUM(O26:R26)</f>
         <v>-3833</v>
       </c>
-      <c r="AI26" s="3">
-        <f t="shared" ref="AI26:AO26" si="58">AH40*$AR$41</f>
+      <c r="AK26" s="3">
+        <f t="shared" ref="AK26:AQ26" si="58">AJ40*$AT$41</f>
         <v>0</v>
       </c>
-      <c r="AJ26" s="3">
+      <c r="AL26" s="3">
         <f t="shared" si="58"/>
         <v>195.43633500000004</v>
       </c>
-      <c r="AK26" s="3">
+      <c r="AM26" s="3">
         <f t="shared" si="58"/>
         <v>414.16833979749993</v>
       </c>
-      <c r="AL26" s="3">
+      <c r="AN26" s="3">
         <f t="shared" si="58"/>
         <v>643.83286510727862</v>
       </c>
-      <c r="AM26" s="3">
+      <c r="AO26" s="3">
         <f t="shared" si="58"/>
         <v>884.8284585446454</v>
       </c>
-      <c r="AN26" s="3">
+      <c r="AP26" s="3">
         <f t="shared" si="58"/>
         <v>1137.5667144475542</v>
       </c>
-      <c r="AO26" s="3">
+      <c r="AQ26" s="3">
         <f t="shared" si="58"/>
         <v>1402.4726825743014</v>
       </c>
     </row>
-    <row r="27" spans="2:130" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:132" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
@@ -3377,64 +3418,66 @@
         <v>5018.9585000000006</v>
       </c>
       <c r="AA27" s="5"/>
-      <c r="AB27" s="5">
-        <f t="shared" ref="AB27:AD27" si="66">+AB25+AB26</f>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5">
+        <f t="shared" ref="AD27:AF27" si="66">+AD25+AD26</f>
         <v>12929</v>
       </c>
-      <c r="AC27" s="5">
+      <c r="AE27" s="5">
         <f t="shared" si="66"/>
         <v>13914</v>
       </c>
-      <c r="AD27" s="5">
+      <c r="AF27" s="5">
         <f t="shared" si="66"/>
         <v>13629</v>
       </c>
-      <c r="AE27" s="5">
-        <f t="shared" ref="AE27:AF27" si="67">+AE25+AE26</f>
+      <c r="AG27" s="5">
+        <f t="shared" ref="AG27:AH27" si="67">+AG25+AG26</f>
         <v>13793</v>
       </c>
-      <c r="AF27" s="5">
+      <c r="AH27" s="5">
         <f t="shared" si="67"/>
         <v>14665</v>
       </c>
-      <c r="AG27" s="5">
-        <f>+AG25+AG26</f>
+      <c r="AI27" s="5">
+        <f>+AI25+AI26</f>
         <v>14225</v>
       </c>
-      <c r="AH27" s="5">
-        <f t="shared" ref="AH27" si="68">+AH25+AH26</f>
+      <c r="AJ27" s="5">
+        <f t="shared" ref="AJ27" si="68">+AJ25+AJ26</f>
         <v>13461</v>
       </c>
-      <c r="AI27" s="5">
-        <f t="shared" ref="AI27" si="69">+AI25+AI26</f>
+      <c r="AK27" s="5">
+        <f t="shared" ref="AK27" si="69">+AK25+AK26</f>
         <v>22992.510000000002</v>
       </c>
-      <c r="AJ27" s="5">
-        <f t="shared" ref="AJ27" si="70">+AJ25+AJ26</f>
+      <c r="AL27" s="5">
+        <f t="shared" ref="AL27" si="70">+AL25+AL26</f>
         <v>25733.177034999993</v>
       </c>
-      <c r="AK27" s="5">
-        <f t="shared" ref="AK27" si="71">+AK25+AK26</f>
+      <c r="AM27" s="5">
+        <f t="shared" ref="AM27" si="71">+AM25+AM26</f>
         <v>27019.355918797493</v>
       </c>
-      <c r="AL27" s="5">
-        <f t="shared" ref="AL27" si="72">+AL25+AL26</f>
+      <c r="AN27" s="5">
+        <f t="shared" ref="AN27" si="72">+AN25+AN26</f>
         <v>28352.422757337274</v>
       </c>
-      <c r="AM27" s="5">
-        <f t="shared" ref="AM27" si="73">+AM25+AM26</f>
+      <c r="AO27" s="5">
+        <f t="shared" ref="AO27" si="73">+AO25+AO26</f>
         <v>29733.912459165746</v>
       </c>
-      <c r="AN27" s="5">
-        <f t="shared" ref="AN27" si="74">+AN25+AN26</f>
+      <c r="AP27" s="5">
+        <f t="shared" ref="AP27" si="74">+AP25+AP26</f>
         <v>31165.408014911442</v>
       </c>
-      <c r="AO27" s="5">
-        <f t="shared" ref="AO27" si="75">+AO25+AO26</f>
+      <c r="AQ27" s="5">
+        <f t="shared" ref="AQ27" si="75">+AQ25+AQ26</f>
         <v>32648.541973839889</v>
       </c>
     </row>
-    <row r="28" spans="2:130" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:132" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
@@ -3499,58 +3542,60 @@
         <f>+Z27*0.2</f>
         <v>1003.7917000000002</v>
       </c>
-      <c r="AB28" s="5">
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AD28" s="5">
         <v>2182</v>
       </c>
-      <c r="AC28" s="3">
+      <c r="AE28" s="3">
         <v>9066</v>
       </c>
-      <c r="AD28" s="5">
+      <c r="AF28" s="5">
         <v>1185</v>
       </c>
-      <c r="AE28" s="5">
+      <c r="AG28" s="5">
         <v>1928</v>
       </c>
-      <c r="AF28" s="5">
+      <c r="AH28" s="5">
         <v>0</v>
       </c>
-      <c r="AG28" s="5">
+      <c r="AI28" s="5">
         <v>932</v>
       </c>
-      <c r="AH28" s="3">
+      <c r="AJ28" s="3">
         <f t="shared" si="57"/>
         <v>623</v>
       </c>
-      <c r="AI28" s="3">
-        <f>AI27*0.15</f>
-        <v>3448.8765000000003</v>
-      </c>
-      <c r="AJ28" s="3">
-        <f>AJ27*0.15</f>
-        <v>3859.9765552499989</v>
-      </c>
       <c r="AK28" s="3">
         <f>AK27*0.15</f>
-        <v>4052.9033878196237</v>
+        <v>3448.8765000000003</v>
       </c>
       <c r="AL28" s="3">
-        <f t="shared" ref="AL28:AO28" si="76">AL27*0.15</f>
-        <v>4252.8634136005912</v>
+        <f>AL27*0.15</f>
+        <v>3859.9765552499989</v>
       </c>
       <c r="AM28" s="3">
         <f>AM27*0.15</f>
+        <v>4052.9033878196237</v>
+      </c>
+      <c r="AN28" s="3">
+        <f t="shared" ref="AN28:AQ28" si="76">AN27*0.15</f>
+        <v>4252.8634136005912</v>
+      </c>
+      <c r="AO28" s="3">
+        <f>AO27*0.15</f>
         <v>4460.0868688748615</v>
       </c>
-      <c r="AN28" s="3">
+      <c r="AP28" s="3">
         <f t="shared" si="76"/>
         <v>4674.8112022367159</v>
       </c>
-      <c r="AO28" s="3">
+      <c r="AQ28" s="3">
         <f t="shared" si="76"/>
         <v>4897.2812960759829</v>
       </c>
     </row>
-    <row r="29" spans="2:130" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:132" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
@@ -3634,420 +3679,422 @@
         <f t="shared" si="80"/>
         <v>4015.1668000000004</v>
       </c>
-      <c r="AB29" s="5">
-        <f t="shared" ref="AB29:AD29" si="81">AB27-AB28</f>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AD29" s="5">
+        <f t="shared" ref="AD29:AF29" si="81">AD27-AD28</f>
         <v>10747</v>
       </c>
-      <c r="AC29" s="5">
+      <c r="AE29" s="5">
         <f t="shared" si="81"/>
         <v>4848</v>
       </c>
-      <c r="AD29" s="5">
+      <c r="AF29" s="5">
         <f t="shared" si="81"/>
         <v>12444</v>
       </c>
-      <c r="AE29" s="5">
-        <f t="shared" ref="AE29" si="82">AE27-AE28</f>
+      <c r="AG29" s="5">
+        <f t="shared" ref="AG29" si="82">AG27-AG28</f>
         <v>11865</v>
       </c>
-      <c r="AF29" s="5">
-        <f>AF27-AF28</f>
+      <c r="AH29" s="5">
+        <f>AH27-AH28</f>
         <v>14665</v>
       </c>
-      <c r="AG29" s="5">
-        <f>AG27-AG28</f>
+      <c r="AI29" s="5">
+        <f>AI27-AI28</f>
         <v>13293</v>
       </c>
-      <c r="AH29" s="5">
-        <f t="shared" ref="AH29" si="83">AH27-AH28</f>
+      <c r="AJ29" s="5">
+        <f t="shared" ref="AJ29" si="83">AJ27-AJ28</f>
         <v>12838</v>
       </c>
-      <c r="AI29" s="5">
-        <f t="shared" ref="AI29" si="84">AI27-AI28</f>
+      <c r="AK29" s="5">
+        <f t="shared" ref="AK29" si="84">AK27-AK28</f>
         <v>19543.633500000004</v>
       </c>
-      <c r="AJ29" s="5">
-        <f t="shared" ref="AJ29" si="85">AJ27-AJ28</f>
+      <c r="AL29" s="5">
+        <f t="shared" ref="AL29" si="85">AL27-AL28</f>
         <v>21873.200479749994</v>
       </c>
-      <c r="AK29" s="5">
-        <f t="shared" ref="AK29" si="86">AK27-AK28</f>
+      <c r="AM29" s="5">
+        <f t="shared" ref="AM29" si="86">AM27-AM28</f>
         <v>22966.452530977869</v>
       </c>
-      <c r="AL29" s="5">
-        <f t="shared" ref="AL29" si="87">AL27-AL28</f>
+      <c r="AN29" s="5">
+        <f t="shared" ref="AN29" si="87">AN27-AN28</f>
         <v>24099.559343736684</v>
       </c>
-      <c r="AM29" s="5">
-        <f t="shared" ref="AM29" si="88">AM27-AM28</f>
+      <c r="AO29" s="5">
+        <f t="shared" ref="AO29" si="88">AO27-AO28</f>
         <v>25273.825590290886</v>
       </c>
-      <c r="AN29" s="5">
-        <f t="shared" ref="AN29" si="89">AN27-AN28</f>
+      <c r="AP29" s="5">
+        <f t="shared" ref="AP29" si="89">AP27-AP28</f>
         <v>26490.596812674725</v>
       </c>
-      <c r="AO29" s="5">
-        <f t="shared" ref="AO29" si="90">AO27-AO28</f>
+      <c r="AQ29" s="5">
+        <f t="shared" ref="AQ29" si="90">AQ27-AQ28</f>
         <v>27751.260677763905</v>
       </c>
-      <c r="AP29" s="3">
-        <f t="shared" ref="AP29:BU29" si="91">AO29*(1+$AR$40)</f>
+      <c r="AR29" s="3">
+        <f t="shared" ref="AR29:BW29" si="91">AQ29*(1+$AT$40)</f>
         <v>28028.773284541545</v>
       </c>
-      <c r="AQ29" s="3">
+      <c r="AS29" s="3">
         <f t="shared" si="91"/>
         <v>28309.061017386961</v>
       </c>
-      <c r="AR29" s="3">
+      <c r="AT29" s="3">
         <f t="shared" si="91"/>
         <v>28592.15162756083</v>
       </c>
-      <c r="AS29" s="3">
+      <c r="AU29" s="3">
         <f t="shared" si="91"/>
         <v>28878.073143836438</v>
       </c>
-      <c r="AT29" s="3">
+      <c r="AV29" s="3">
         <f t="shared" si="91"/>
         <v>29166.853875274803</v>
       </c>
-      <c r="AU29" s="3">
+      <c r="AW29" s="3">
         <f t="shared" si="91"/>
         <v>29458.52241402755</v>
       </c>
-      <c r="AV29" s="3">
+      <c r="AX29" s="3">
         <f t="shared" si="91"/>
         <v>29753.107638167825</v>
       </c>
-      <c r="AW29" s="3">
+      <c r="AY29" s="3">
         <f t="shared" si="91"/>
         <v>30050.638714549503</v>
       </c>
-      <c r="AX29" s="3">
+      <c r="AZ29" s="3">
         <f t="shared" si="91"/>
         <v>30351.145101694998</v>
       </c>
-      <c r="AY29" s="3">
+      <c r="BA29" s="3">
         <f t="shared" si="91"/>
         <v>30654.656552711949</v>
       </c>
-      <c r="AZ29" s="3">
+      <c r="BB29" s="3">
         <f t="shared" si="91"/>
         <v>30961.203118239067</v>
       </c>
-      <c r="BA29" s="3">
+      <c r="BC29" s="3">
         <f t="shared" si="91"/>
         <v>31270.815149421458</v>
       </c>
-      <c r="BB29" s="3">
+      <c r="BD29" s="3">
         <f t="shared" si="91"/>
         <v>31583.523300915673</v>
       </c>
-      <c r="BC29" s="3">
+      <c r="BE29" s="3">
         <f t="shared" si="91"/>
         <v>31899.358533924831</v>
       </c>
-      <c r="BD29" s="3">
+      <c r="BF29" s="3">
         <f t="shared" si="91"/>
         <v>32218.35211926408</v>
       </c>
-      <c r="BE29" s="3">
+      <c r="BG29" s="3">
         <f t="shared" si="91"/>
         <v>32540.535640456721</v>
       </c>
-      <c r="BF29" s="3">
+      <c r="BH29" s="3">
         <f t="shared" si="91"/>
         <v>32865.940996861289</v>
       </c>
-      <c r="BG29" s="3">
+      <c r="BI29" s="3">
         <f t="shared" si="91"/>
         <v>33194.600406829901</v>
       </c>
-      <c r="BH29" s="3">
+      <c r="BJ29" s="3">
         <f t="shared" si="91"/>
         <v>33526.546410898198</v>
       </c>
-      <c r="BI29" s="3">
+      <c r="BK29" s="3">
         <f t="shared" si="91"/>
         <v>33861.811875007181</v>
       </c>
-      <c r="BJ29" s="3">
+      <c r="BL29" s="3">
         <f t="shared" si="91"/>
         <v>34200.42999375725</v>
       </c>
-      <c r="BK29" s="3">
+      <c r="BM29" s="3">
         <f t="shared" si="91"/>
         <v>34542.434293694823</v>
       </c>
-      <c r="BL29" s="3">
+      <c r="BN29" s="3">
         <f t="shared" si="91"/>
         <v>34887.858636631769</v>
       </c>
-      <c r="BM29" s="3">
+      <c r="BO29" s="3">
         <f t="shared" si="91"/>
         <v>35236.73722299809</v>
       </c>
-      <c r="BN29" s="3">
+      <c r="BP29" s="3">
         <f t="shared" si="91"/>
         <v>35589.104595228069</v>
       </c>
-      <c r="BO29" s="3">
+      <c r="BQ29" s="3">
         <f t="shared" si="91"/>
         <v>35944.995641180351</v>
       </c>
-      <c r="BP29" s="3">
+      <c r="BR29" s="3">
         <f t="shared" si="91"/>
         <v>36304.445597592152</v>
       </c>
-      <c r="BQ29" s="3">
+      <c r="BS29" s="3">
         <f t="shared" si="91"/>
         <v>36667.490053568072</v>
       </c>
-      <c r="BR29" s="3">
+      <c r="BT29" s="3">
         <f t="shared" si="91"/>
         <v>37034.164954103755</v>
       </c>
-      <c r="BS29" s="3">
+      <c r="BU29" s="3">
         <f t="shared" si="91"/>
         <v>37404.50660364479</v>
       </c>
-      <c r="BT29" s="3">
+      <c r="BV29" s="3">
         <f t="shared" si="91"/>
         <v>37778.551669681241</v>
       </c>
-      <c r="BU29" s="3">
+      <c r="BW29" s="3">
         <f t="shared" si="91"/>
         <v>38156.337186378056</v>
       </c>
-      <c r="BV29" s="3">
-        <f t="shared" ref="BV29:DA29" si="92">BU29*(1+$AR$40)</f>
+      <c r="BX29" s="3">
+        <f t="shared" ref="BX29:DC29" si="92">BW29*(1+$AT$40)</f>
         <v>38537.900558241839</v>
       </c>
-      <c r="BW29" s="3">
+      <c r="BY29" s="3">
         <f t="shared" si="92"/>
         <v>38923.279563824261</v>
       </c>
-      <c r="BX29" s="3">
+      <c r="BZ29" s="3">
         <f t="shared" si="92"/>
         <v>39312.512359462504</v>
       </c>
-      <c r="BY29" s="3">
+      <c r="CA29" s="3">
         <f t="shared" si="92"/>
         <v>39705.637483057129</v>
       </c>
-      <c r="BZ29" s="3">
+      <c r="CB29" s="3">
         <f t="shared" si="92"/>
         <v>40102.693857887702</v>
       </c>
-      <c r="CA29" s="3">
+      <c r="CC29" s="3">
         <f t="shared" si="92"/>
         <v>40503.720796466579</v>
       </c>
-      <c r="CB29" s="3">
+      <c r="CD29" s="3">
         <f t="shared" si="92"/>
         <v>40908.758004431249</v>
       </c>
-      <c r="CC29" s="3">
+      <c r="CE29" s="3">
         <f t="shared" si="92"/>
         <v>41317.845584475559</v>
       </c>
-      <c r="CD29" s="3">
+      <c r="CF29" s="3">
         <f t="shared" si="92"/>
         <v>41731.024040320313</v>
       </c>
-      <c r="CE29" s="3">
+      <c r="CG29" s="3">
         <f t="shared" si="92"/>
         <v>42148.334280723517</v>
       </c>
-      <c r="CF29" s="3">
+      <c r="CH29" s="3">
         <f t="shared" si="92"/>
         <v>42569.817623530755</v>
       </c>
-      <c r="CG29" s="3">
+      <c r="CI29" s="3">
         <f t="shared" si="92"/>
         <v>42995.515799766064</v>
       </c>
-      <c r="CH29" s="3">
+      <c r="CJ29" s="3">
         <f t="shared" si="92"/>
         <v>43425.470957763726</v>
       </c>
-      <c r="CI29" s="3">
+      <c r="CK29" s="3">
         <f t="shared" si="92"/>
         <v>43859.725667341365</v>
       </c>
-      <c r="CJ29" s="3">
+      <c r="CL29" s="3">
         <f t="shared" si="92"/>
         <v>44298.322924014778</v>
       </c>
-      <c r="CK29" s="3">
+      <c r="CM29" s="3">
         <f t="shared" si="92"/>
         <v>44741.306153254925</v>
       </c>
-      <c r="CL29" s="3">
+      <c r="CN29" s="3">
         <f t="shared" si="92"/>
         <v>45188.719214787474</v>
       </c>
-      <c r="CM29" s="3">
+      <c r="CO29" s="3">
         <f t="shared" si="92"/>
         <v>45640.606406935352</v>
       </c>
-      <c r="CN29" s="3">
+      <c r="CP29" s="3">
         <f t="shared" si="92"/>
         <v>46097.012471004709</v>
       </c>
-      <c r="CO29" s="3">
+      <c r="CQ29" s="3">
         <f t="shared" si="92"/>
         <v>46557.982595714755</v>
       </c>
-      <c r="CP29" s="3">
+      <c r="CR29" s="3">
         <f t="shared" si="92"/>
         <v>47023.562421671901</v>
       </c>
-      <c r="CQ29" s="3">
+      <c r="CS29" s="3">
         <f t="shared" si="92"/>
         <v>47493.798045888623</v>
       </c>
-      <c r="CR29" s="3">
+      <c r="CT29" s="3">
         <f t="shared" si="92"/>
         <v>47968.736026347513</v>
       </c>
-      <c r="CS29" s="3">
+      <c r="CU29" s="3">
         <f t="shared" si="92"/>
         <v>48448.423386610986</v>
       </c>
-      <c r="CT29" s="3">
+      <c r="CV29" s="3">
         <f t="shared" si="92"/>
         <v>48932.907620477097</v>
       </c>
-      <c r="CU29" s="3">
+      <c r="CW29" s="3">
         <f t="shared" si="92"/>
         <v>49422.236696681866</v>
       </c>
-      <c r="CV29" s="3">
+      <c r="CX29" s="3">
         <f t="shared" si="92"/>
         <v>49916.459063648683</v>
       </c>
-      <c r="CW29" s="3">
+      <c r="CY29" s="3">
         <f t="shared" si="92"/>
         <v>50415.623654285169</v>
       </c>
-      <c r="CX29" s="3">
+      <c r="CZ29" s="3">
         <f t="shared" si="92"/>
         <v>50919.779890828024</v>
       </c>
-      <c r="CY29" s="3">
+      <c r="DA29" s="3">
         <f t="shared" si="92"/>
         <v>51428.977689736304</v>
       </c>
-      <c r="CZ29" s="3">
+      <c r="DB29" s="3">
         <f t="shared" si="92"/>
         <v>51943.267466633668</v>
       </c>
-      <c r="DA29" s="3">
+      <c r="DC29" s="3">
         <f t="shared" si="92"/>
         <v>52462.700141300003</v>
       </c>
-      <c r="DB29" s="3">
-        <f t="shared" ref="DB29:DZ29" si="93">DA29*(1+$AR$40)</f>
+      <c r="DD29" s="3">
+        <f t="shared" ref="DD29:EB29" si="93">DC29*(1+$AT$40)</f>
         <v>52987.327142713002</v>
       </c>
-      <c r="DC29" s="3">
+      <c r="DE29" s="3">
         <f t="shared" si="93"/>
         <v>53517.200414140134</v>
       </c>
-      <c r="DD29" s="3">
+      <c r="DF29" s="3">
         <f t="shared" si="93"/>
         <v>54052.372418281535</v>
       </c>
-      <c r="DE29" s="3">
+      <c r="DG29" s="3">
         <f t="shared" si="93"/>
         <v>54592.896142464349</v>
       </c>
-      <c r="DF29" s="3">
+      <c r="DH29" s="3">
         <f t="shared" si="93"/>
         <v>55138.825103888994</v>
       </c>
-      <c r="DG29" s="3">
+      <c r="DI29" s="3">
         <f t="shared" si="93"/>
         <v>55690.213354927888</v>
       </c>
-      <c r="DH29" s="3">
+      <c r="DJ29" s="3">
         <f t="shared" si="93"/>
         <v>56247.115488477168</v>
       </c>
-      <c r="DI29" s="3">
+      <c r="DK29" s="3">
         <f t="shared" si="93"/>
         <v>56809.586643361938</v>
       </c>
-      <c r="DJ29" s="3">
+      <c r="DL29" s="3">
         <f t="shared" si="93"/>
         <v>57377.682509795559</v>
       </c>
-      <c r="DK29" s="3">
+      <c r="DM29" s="3">
         <f t="shared" si="93"/>
         <v>57951.459334893516</v>
       </c>
-      <c r="DL29" s="3">
+      <c r="DN29" s="3">
         <f t="shared" si="93"/>
         <v>58530.973928242449</v>
       </c>
-      <c r="DM29" s="3">
+      <c r="DO29" s="3">
         <f t="shared" si="93"/>
         <v>59116.283667524876</v>
       </c>
-      <c r="DN29" s="3">
+      <c r="DP29" s="3">
         <f t="shared" si="93"/>
         <v>59707.446504200125</v>
       </c>
-      <c r="DO29" s="3">
+      <c r="DQ29" s="3">
         <f t="shared" si="93"/>
         <v>60304.520969242127</v>
       </c>
-      <c r="DP29" s="3">
+      <c r="DR29" s="3">
         <f t="shared" si="93"/>
         <v>60907.566178934547</v>
       </c>
-      <c r="DQ29" s="3">
+      <c r="DS29" s="3">
         <f t="shared" si="93"/>
         <v>61516.641840723896</v>
       </c>
-      <c r="DR29" s="3">
+      <c r="DT29" s="3">
         <f t="shared" si="93"/>
         <v>62131.808259131132</v>
       </c>
-      <c r="DS29" s="3">
+      <c r="DU29" s="3">
         <f t="shared" si="93"/>
         <v>62753.126341722447</v>
       </c>
-      <c r="DT29" s="3">
+      <c r="DV29" s="3">
         <f t="shared" si="93"/>
         <v>63380.65760513967</v>
       </c>
-      <c r="DU29" s="3">
+      <c r="DW29" s="3">
         <f t="shared" si="93"/>
         <v>64014.46418119107</v>
       </c>
-      <c r="DV29" s="3">
+      <c r="DX29" s="3">
         <f t="shared" si="93"/>
         <v>64654.608823002978</v>
       </c>
-      <c r="DW29" s="3">
+      <c r="DY29" s="3">
         <f t="shared" si="93"/>
         <v>65301.15491123301</v>
       </c>
-      <c r="DX29" s="3">
+      <c r="DZ29" s="3">
         <f t="shared" si="93"/>
         <v>65954.166460345339</v>
       </c>
-      <c r="DY29" s="3">
+      <c r="EA29" s="3">
         <f t="shared" si="93"/>
         <v>66613.708124948796</v>
       </c>
-      <c r="DZ29" s="3">
+      <c r="EB29" s="3">
         <f t="shared" si="93"/>
         <v>67279.845206198283</v>
       </c>
     </row>
-    <row r="30" spans="2:130" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:132" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
@@ -4131,64 +4178,66 @@
         <f t="shared" si="96"/>
         <v>1.3970656924147531</v>
       </c>
-      <c r="AB30" s="6">
-        <f t="shared" ref="AB30:AD30" si="97">AB29/AB31</f>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AD30" s="6">
+        <f t="shared" ref="AD30:AF30" si="97">AD29/AD31</f>
         <v>2.5484941901825944</v>
       </c>
-      <c r="AC30" s="6">
+      <c r="AE30" s="6">
         <f t="shared" si="97"/>
         <v>1.1439358187824447</v>
       </c>
-      <c r="AD30" s="6">
+      <c r="AF30" s="6">
         <f t="shared" si="97"/>
         <v>3.334405144694534</v>
       </c>
-      <c r="AE30" s="6">
-        <f t="shared" ref="AE30" si="98">AE29/AE31</f>
+      <c r="AG30" s="6">
+        <f t="shared" ref="AG30" si="98">AG29/AG31</f>
         <v>3.6020036429872495</v>
       </c>
-      <c r="AF30" s="6">
-        <f>AF29/AF31</f>
+      <c r="AH30" s="6">
+        <f>AH29/AH31</f>
         <v>4.852746525479815</v>
       </c>
-      <c r="AG30" s="6">
-        <f t="shared" ref="AG30:AH30" si="99">AG29/AG31</f>
+      <c r="AI30" s="6">
+        <f t="shared" ref="AI30:AJ30" si="99">AI29/AI31</f>
         <v>4.7713567839195976</v>
       </c>
-      <c r="AH30" s="6">
+      <c r="AJ30" s="6">
         <f t="shared" si="99"/>
         <v>4.6409399005874379</v>
       </c>
-      <c r="AI30" s="6">
-        <f t="shared" ref="AI30:AO30" si="100">AI29/AI31</f>
+      <c r="AK30" s="6">
+        <f t="shared" ref="AK30:AQ30" si="100">AK29/AK31</f>
         <v>7.0650279258924549</v>
       </c>
-      <c r="AJ30" s="6">
+      <c r="AL30" s="6">
         <f t="shared" si="100"/>
         <v>7.9071669154089452</v>
       </c>
-      <c r="AK30" s="6">
+      <c r="AM30" s="6">
         <f t="shared" si="100"/>
         <v>8.3023777789346109</v>
       </c>
-      <c r="AL30" s="6">
+      <c r="AN30" s="6">
         <f t="shared" si="100"/>
         <v>8.7119961477584038</v>
       </c>
-      <c r="AM30" s="6">
+      <c r="AO30" s="6">
         <f t="shared" si="100"/>
         <v>9.1364936611986938</v>
       </c>
-      <c r="AN30" s="6">
+      <c r="AP30" s="6">
         <f t="shared" si="100"/>
         <v>9.5763567330048716</v>
       </c>
-      <c r="AO30" s="6">
+      <c r="AQ30" s="6">
         <f t="shared" si="100"/>
         <v>10.03208700506603</v>
       </c>
     </row>
-    <row r="31" spans="2:130" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:132" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>1</v>
       </c>
@@ -4258,42 +4307,36 @@
         <v>2874</v>
       </c>
       <c r="AA31" s="5"/>
-      <c r="AB31" s="5">
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5">
         <v>4217</v>
       </c>
-      <c r="AC31" s="3">
+      <c r="AE31" s="3">
         <v>4238</v>
       </c>
-      <c r="AD31" s="5">
+      <c r="AF31" s="5">
         <v>3732</v>
       </c>
-      <c r="AE31" s="5">
+      <c r="AG31" s="5">
         <v>3294</v>
       </c>
-      <c r="AF31" s="5">
+      <c r="AH31" s="5">
         <v>3022</v>
       </c>
-      <c r="AG31" s="5">
+      <c r="AI31" s="5">
         <v>2786</v>
       </c>
-      <c r="AH31" s="3">
+      <c r="AJ31" s="3">
         <f>AVERAGE(O31:R31)</f>
         <v>2766.25</v>
       </c>
-      <c r="AI31" s="3">
-        <f>AH31</f>
+      <c r="AK31" s="3">
+        <f>AJ31</f>
         <v>2766.25</v>
       </c>
-      <c r="AJ31" s="3">
-        <f t="shared" ref="AJ31:AO31" si="101">AI31</f>
-        <v>2766.25</v>
-      </c>
-      <c r="AK31" s="3">
-        <f t="shared" si="101"/>
-        <v>2766.25</v>
-      </c>
       <c r="AL31" s="3">
-        <f t="shared" si="101"/>
+        <f t="shared" ref="AL31:AQ31" si="101">AK31</f>
         <v>2766.25</v>
       </c>
       <c r="AM31" s="3">
@@ -4308,8 +4351,16 @@
         <f t="shared" si="101"/>
         <v>2766.25</v>
       </c>
-    </row>
-    <row r="32" spans="2:130" x14ac:dyDescent="0.25">
+      <c r="AP31" s="3">
+        <f t="shared" si="101"/>
+        <v>2766.25</v>
+      </c>
+      <c r="AQ31" s="3">
+        <f t="shared" si="101"/>
+        <v>2766.25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:132" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>29</v>
       </c>
@@ -4322,11 +4373,11 @@
       <c r="P32" s="4">
         <v>1.21</v>
       </c>
-      <c r="AG32" s="4">
+      <c r="AI32" s="4">
         <v>1.54</v>
       </c>
     </row>
-    <row r="34" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
@@ -4396,41 +4447,35 @@
       </c>
       <c r="AA34" s="7"/>
       <c r="AB34" s="7"/>
-      <c r="AD34" s="13"/>
-      <c r="AE34" s="13">
-        <f t="shared" ref="AE34:AF34" si="107">AE18/AD18-1</f>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7"/>
+      <c r="AF34" s="13"/>
+      <c r="AG34" s="13">
+        <f t="shared" ref="AG34:AH34" si="107">AG18/AF18-1</f>
         <v>-1.108692350529028E-2</v>
       </c>
-      <c r="AF34" s="13">
+      <c r="AH34" s="13">
         <f t="shared" si="107"/>
         <v>3.6116514794716892E-2</v>
       </c>
-      <c r="AG34" s="13">
-        <f>AG18/AF18-1</f>
+      <c r="AI34" s="13">
+        <f>AI18/AH18-1</f>
         <v>4.8444872650015958E-2</v>
       </c>
-      <c r="AH34" s="13">
-        <f t="shared" ref="AH34:AO34" si="108">AH18/AG18-1</f>
+      <c r="AJ34" s="13">
+        <f t="shared" ref="AJ34:AQ34" si="108">AJ18/AI18-1</f>
         <v>0.17707351555136674</v>
       </c>
-      <c r="AI34" s="13">
+      <c r="AK34" s="13">
         <f t="shared" si="108"/>
         <v>6.0174156741066964E-2</v>
       </c>
-      <c r="AJ34" s="13">
+      <c r="AL34" s="13">
         <f t="shared" si="108"/>
         <v>6.6772719548346959E-2</v>
       </c>
-      <c r="AK34" s="13">
-        <f>AK18/AJ18-1</f>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AL34" s="13">
-        <f t="shared" si="108"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
       <c r="AM34" s="13">
-        <f t="shared" si="108"/>
+        <f>AM18/AL18-1</f>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AN34" s="13">
@@ -4441,8 +4486,16 @@
         <f t="shared" si="108"/>
         <v>3.0000000000000027E-2</v>
       </c>
-    </row>
-    <row r="35" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="AP34" s="13">
+        <f t="shared" si="108"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="AQ34" s="13">
+        <f t="shared" si="108"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>107</v>
       </c>
@@ -4470,8 +4523,8 @@
       <c r="Z35" s="7"/>
       <c r="AA35" s="7"/>
       <c r="AB35" s="7"/>
-      <c r="AD35" s="13"/>
-      <c r="AE35" s="13"/>
+      <c r="AC35" s="7"/>
+      <c r="AD35" s="7"/>
       <c r="AF35" s="13"/>
       <c r="AG35" s="13"/>
       <c r="AH35" s="13"/>
@@ -4482,8 +4535,10 @@
       <c r="AM35" s="13"/>
       <c r="AN35" s="13"/>
       <c r="AO35" s="13"/>
-    </row>
-    <row r="36" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="AP35" s="13"/>
+      <c r="AQ35" s="13"/>
+    </row>
+    <row r="36" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>18</v>
       </c>
@@ -4570,37 +4625,31 @@
       <c r="AA36" s="7"/>
       <c r="AB36" s="7"/>
       <c r="AC36" s="7"/>
-      <c r="AD36" s="7">
-        <f t="shared" ref="AD36:AF36" si="111">AD20/AD18</f>
+      <c r="AD36" s="7"/>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="7">
+        <f t="shared" ref="AF36:AH36" si="111">AF20/AF18</f>
         <v>0.79762567711233734</v>
       </c>
-      <c r="AE36" s="7">
+      <c r="AG36" s="7">
         <f t="shared" si="111"/>
         <v>0.79681580833418653</v>
       </c>
-      <c r="AF36" s="7">
+      <c r="AH36" s="7">
         <f t="shared" si="111"/>
         <v>0.80594876355641198</v>
       </c>
-      <c r="AG36" s="7">
-        <f>AG20/AG18</f>
+      <c r="AI36" s="7">
+        <f>AI20/AI18</f>
         <v>0.79083411875589071</v>
       </c>
-      <c r="AH36" s="7">
-        <f t="shared" ref="AH36:AO36" si="112">AH20/AH18</f>
+      <c r="AJ36" s="7">
+        <f t="shared" ref="AJ36:AQ36" si="112">AJ20/AJ18</f>
         <v>0.72847562806525878</v>
       </c>
-      <c r="AI36" s="7">
+      <c r="AK36" s="7">
         <f t="shared" si="112"/>
         <v>0.8</v>
-      </c>
-      <c r="AJ36" s="7">
-        <f t="shared" si="112"/>
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="AK36" s="7">
-        <f t="shared" si="112"/>
-        <v>0.79999999999999993</v>
       </c>
       <c r="AL36" s="7">
         <f t="shared" si="112"/>
@@ -4608,7 +4657,7 @@
       </c>
       <c r="AM36" s="7">
         <f t="shared" si="112"/>
-        <v>0.8</v>
+        <v>0.79999999999999993</v>
       </c>
       <c r="AN36" s="7">
         <f t="shared" si="112"/>
@@ -4618,8 +4667,16 @@
         <f t="shared" si="112"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="37" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="AP36" s="7">
+        <f t="shared" si="112"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="AQ36" s="7">
+        <f t="shared" si="112"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>90</v>
       </c>
@@ -4646,56 +4703,58 @@
       <c r="AA37" s="7"/>
       <c r="AB37" s="7"/>
       <c r="AC37" s="7"/>
-      <c r="AD37" s="7">
-        <f t="shared" ref="AD37:AF37" si="113">AD25/AD18</f>
+      <c r="AD37" s="7"/>
+      <c r="AE37" s="7"/>
+      <c r="AF37" s="7">
+        <f t="shared" ref="AF37:AH37" si="113">AF25/AF18</f>
         <v>0.39768642737811977</v>
       </c>
-      <c r="AE37" s="7">
+      <c r="AG37" s="7">
         <f t="shared" si="113"/>
         <v>0.40411590048121226</v>
       </c>
-      <c r="AF37" s="7">
+      <c r="AH37" s="7">
         <f t="shared" si="113"/>
         <v>0.42394822006472493</v>
       </c>
-      <c r="AG37" s="7">
-        <f>AG25/AG18</f>
+      <c r="AI37" s="7">
+        <f>AI25/AI18</f>
         <v>0.40009425070688032</v>
       </c>
-      <c r="AH37" s="7">
-        <f t="shared" ref="AH37:AO37" si="114">AH25/AH18</f>
+      <c r="AJ37" s="7">
+        <f t="shared" ref="AJ37:AQ37" si="114">AJ25/AJ18</f>
         <v>0.34619157241517368</v>
       </c>
-      <c r="AI37" s="7">
+      <c r="AK37" s="7">
         <f t="shared" si="114"/>
         <v>0.43414040520382929</v>
       </c>
-      <c r="AJ37" s="7">
+      <c r="AL37" s="7">
         <f t="shared" si="114"/>
         <v>0.45201661139858762</v>
       </c>
-      <c r="AK37" s="7">
+      <c r="AM37" s="7">
         <f t="shared" si="114"/>
         <v>0.45719452687449263</v>
       </c>
-      <c r="AL37" s="7">
+      <c r="AN37" s="7">
         <f t="shared" si="114"/>
         <v>0.46228723082199236</v>
       </c>
-      <c r="AM37" s="7">
+      <c r="AO37" s="7">
         <f t="shared" si="114"/>
         <v>0.46729622899387457</v>
       </c>
-      <c r="AN37" s="7">
+      <c r="AP37" s="7">
         <f t="shared" si="114"/>
         <v>0.47222299935005729</v>
       </c>
-      <c r="AO37" s="7">
+      <c r="AQ37" s="7">
         <f t="shared" si="114"/>
         <v>0.47706899258322671</v>
       </c>
     </row>
-    <row r="38" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>83</v>
       </c>
@@ -4770,33 +4829,27 @@
       <c r="AA38" s="7"/>
       <c r="AB38" s="7"/>
       <c r="AC38" s="7"/>
-      <c r="AD38" s="7">
-        <f t="shared" ref="AD38:AO38" si="117">AD28/AD27</f>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="7">
+        <f t="shared" ref="AF38:AQ38" si="117">AF28/AF27</f>
         <v>8.6946951353731011E-2</v>
       </c>
-      <c r="AE38" s="7">
+      <c r="AG38" s="7">
         <f t="shared" si="117"/>
         <v>0.13978104835786268</v>
       </c>
-      <c r="AF38" s="7">
+      <c r="AH38" s="7">
         <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="AG38" s="7">
+      <c r="AI38" s="7">
         <f t="shared" si="117"/>
         <v>6.5518453427065027E-2</v>
       </c>
-      <c r="AH38" s="7">
+      <c r="AJ38" s="7">
         <f t="shared" si="117"/>
         <v>4.6281851274050961E-2</v>
-      </c>
-      <c r="AI38" s="7">
-        <f t="shared" si="117"/>
-        <v>0.15</v>
-      </c>
-      <c r="AJ38" s="7">
-        <f t="shared" si="117"/>
-        <v>0.15</v>
       </c>
       <c r="AK38" s="7">
         <f t="shared" si="117"/>
@@ -4818,8 +4871,16 @@
         <f t="shared" si="117"/>
         <v>0.15</v>
       </c>
-    </row>
-    <row r="40" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="AP38" s="7">
+        <f t="shared" si="117"/>
+        <v>0.15</v>
+      </c>
+      <c r="AQ38" s="7">
+        <f t="shared" si="117"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="40" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>70</v>
       </c>
@@ -4866,46 +4927,48 @@
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
-      <c r="AH40" s="3">
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AJ40" s="3">
         <f>R40</f>
         <v>0</v>
       </c>
-      <c r="AI40" s="3">
-        <f>AH40+AI29</f>
+      <c r="AK40" s="3">
+        <f>AJ40+AK29</f>
         <v>19543.633500000004</v>
       </c>
-      <c r="AJ40" s="3">
-        <f t="shared" ref="AJ40:AO40" si="119">AI40+AJ29</f>
+      <c r="AL40" s="3">
+        <f t="shared" ref="AL40:AQ40" si="119">AK40+AL29</f>
         <v>41416.833979749994</v>
       </c>
-      <c r="AK40" s="3">
+      <c r="AM40" s="3">
         <f t="shared" si="119"/>
         <v>64383.286510727863</v>
       </c>
-      <c r="AL40" s="3">
+      <c r="AN40" s="3">
         <f t="shared" si="119"/>
         <v>88482.84585446454</v>
       </c>
-      <c r="AM40" s="3">
+      <c r="AO40" s="3">
         <f t="shared" si="119"/>
         <v>113756.67144475543</v>
       </c>
-      <c r="AN40" s="3">
+      <c r="AP40" s="3">
         <f t="shared" si="119"/>
         <v>140247.26825743014</v>
       </c>
-      <c r="AO40" s="3">
+      <c r="AQ40" s="3">
         <f t="shared" si="119"/>
         <v>167998.52893519404</v>
       </c>
-      <c r="AQ40" s="1" t="s">
+      <c r="AS40" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AR40" s="14">
+      <c r="AT40" s="14">
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>3</v>
       </c>
@@ -4959,18 +5022,20 @@
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
       <c r="AD41" s="5"/>
-      <c r="AE41" s="5"/>
       <c r="AF41" s="5"/>
       <c r="AG41" s="5"/>
-      <c r="AQ41" s="1" t="s">
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="5"/>
+      <c r="AS41" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AR41" s="14">
+      <c r="AT41" s="14">
         <v>0.01</v>
       </c>
     </row>
-    <row r="42" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>57</v>
       </c>
@@ -5016,18 +5081,20 @@
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
       <c r="AD42" s="5"/>
-      <c r="AE42" s="5"/>
       <c r="AF42" s="5"/>
       <c r="AG42" s="5"/>
-      <c r="AQ42" s="1" t="s">
+      <c r="AH42" s="5"/>
+      <c r="AI42" s="5"/>
+      <c r="AS42" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AR42" s="14">
+      <c r="AT42" s="14">
         <v>0.06</v>
       </c>
     </row>
-    <row r="43" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>58</v>
       </c>
@@ -5073,19 +5140,21 @@
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
       <c r="AD43" s="5"/>
-      <c r="AE43" s="5"/>
       <c r="AF43" s="5"/>
       <c r="AG43" s="5"/>
-      <c r="AQ43" s="1" t="s">
+      <c r="AH43" s="5"/>
+      <c r="AI43" s="5"/>
+      <c r="AS43" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AR43" s="3">
-        <f>NPV(AR42,AI29:DZ29)+N40</f>
+      <c r="AT43" s="3">
+        <f>NPV(AT42,AK29:EB29)+N40</f>
         <v>446094.64697631676</v>
       </c>
     </row>
-    <row r="44" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>59</v>
       </c>
@@ -5131,19 +5200,21 @@
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
       <c r="AD44" s="5"/>
-      <c r="AE44" s="5"/>
       <c r="AF44" s="5"/>
       <c r="AG44" s="5"/>
-      <c r="AQ44" s="1" t="s">
+      <c r="AH44" s="5"/>
+      <c r="AI44" s="5"/>
+      <c r="AS44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AR44" s="15">
-        <f>AR43/O31</f>
+      <c r="AT44" s="15">
+        <f>AT43/O31</f>
         <v>162.39339169141491</v>
       </c>
     </row>
-    <row r="45" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>60</v>
       </c>
@@ -5197,19 +5268,21 @@
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
       <c r="AD45" s="5"/>
-      <c r="AE45" s="5"/>
       <c r="AF45" s="5"/>
       <c r="AG45" s="5"/>
-      <c r="AQ45" s="1" t="s">
+      <c r="AH45" s="5"/>
+      <c r="AI45" s="5"/>
+      <c r="AS45" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AR45" s="14">
-        <f>AR44/Main!G2-1</f>
+      <c r="AT45" s="14">
+        <f>AT44/Main!G2-1</f>
         <v>-0.20783711370041513</v>
       </c>
     </row>
-    <row r="46" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
         <v>61</v>
       </c>
@@ -5255,12 +5328,14 @@
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
+      <c r="AC46" s="5"/>
       <c r="AD46" s="5"/>
-      <c r="AE46" s="5"/>
       <c r="AF46" s="5"/>
       <c r="AG46" s="5"/>
-    </row>
-    <row r="47" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH46" s="5"/>
+      <c r="AI46" s="5"/>
+    </row>
+    <row r="47" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
         <v>62</v>
       </c>
@@ -5306,12 +5381,14 @@
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
       <c r="AB47" s="5"/>
+      <c r="AC47" s="5"/>
       <c r="AD47" s="5"/>
-      <c r="AE47" s="5"/>
       <c r="AF47" s="5"/>
       <c r="AG47" s="5"/>
-    </row>
-    <row r="48" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH47" s="5"/>
+      <c r="AI47" s="5"/>
+    </row>
+    <row r="48" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>56</v>
       </c>
@@ -5371,12 +5448,14 @@
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
+      <c r="AC48" s="5"/>
       <c r="AD48" s="5"/>
-      <c r="AE48" s="5"/>
       <c r="AF48" s="5"/>
       <c r="AG48" s="5"/>
-    </row>
-    <row r="50" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH48" s="5"/>
+      <c r="AI48" s="5"/>
+    </row>
+    <row r="50" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>4</v>
       </c>
@@ -5430,12 +5509,14 @@
       <c r="Z50" s="5"/>
       <c r="AA50" s="5"/>
       <c r="AB50" s="5"/>
+      <c r="AC50" s="5"/>
       <c r="AD50" s="5"/>
-      <c r="AE50" s="5"/>
       <c r="AF50" s="5"/>
       <c r="AG50" s="5"/>
-    </row>
-    <row r="51" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH50" s="5"/>
+      <c r="AI50" s="5"/>
+    </row>
+    <row r="51" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>64</v>
       </c>
@@ -5481,12 +5562,14 @@
       <c r="Z51" s="5"/>
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
+      <c r="AC51" s="5"/>
       <c r="AD51" s="5"/>
-      <c r="AE51" s="5"/>
       <c r="AF51" s="5"/>
       <c r="AG51" s="5"/>
-    </row>
-    <row r="52" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH51" s="5"/>
+      <c r="AI51" s="5"/>
+    </row>
+    <row r="52" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>65</v>
       </c>
@@ -5532,12 +5615,14 @@
       <c r="Z52" s="5"/>
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
       <c r="AD52" s="5"/>
-      <c r="AE52" s="5"/>
       <c r="AF52" s="5"/>
       <c r="AG52" s="5"/>
-    </row>
-    <row r="53" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH52" s="5"/>
+      <c r="AI52" s="5"/>
+    </row>
+    <row r="53" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>63</v>
       </c>
@@ -5583,12 +5668,14 @@
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
+      <c r="AC53" s="5"/>
       <c r="AD53" s="5"/>
-      <c r="AE53" s="5"/>
       <c r="AF53" s="5"/>
       <c r="AG53" s="5"/>
-    </row>
-    <row r="54" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH53" s="5"/>
+      <c r="AI53" s="5"/>
+    </row>
+    <row r="54" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
         <v>66</v>
       </c>
@@ -5634,12 +5721,14 @@
       <c r="Z54" s="5"/>
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
       <c r="AD54" s="5"/>
-      <c r="AE54" s="5"/>
       <c r="AF54" s="5"/>
       <c r="AG54" s="5"/>
-    </row>
-    <row r="55" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH54" s="5"/>
+      <c r="AI54" s="5"/>
+    </row>
+    <row r="55" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
         <v>61</v>
       </c>
@@ -5693,12 +5782,14 @@
       <c r="Z55" s="5"/>
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
+      <c r="AC55" s="5"/>
       <c r="AD55" s="5"/>
-      <c r="AE55" s="5"/>
       <c r="AF55" s="5"/>
       <c r="AG55" s="5"/>
-    </row>
-    <row r="56" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH55" s="5"/>
+      <c r="AI55" s="5"/>
+    </row>
+    <row r="56" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
         <v>67</v>
       </c>
@@ -5744,12 +5835,14 @@
       <c r="Z56" s="5"/>
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
+      <c r="AC56" s="5"/>
       <c r="AD56" s="5"/>
-      <c r="AE56" s="5"/>
       <c r="AF56" s="5"/>
       <c r="AG56" s="5"/>
-    </row>
-    <row r="57" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH56" s="5"/>
+      <c r="AI56" s="5"/>
+    </row>
+    <row r="57" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
         <v>68</v>
       </c>
@@ -5796,12 +5889,14 @@
       <c r="Z57" s="5"/>
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
+      <c r="AC57" s="5"/>
       <c r="AD57" s="5"/>
-      <c r="AE57" s="5"/>
       <c r="AF57" s="5"/>
       <c r="AG57" s="5"/>
-    </row>
-    <row r="58" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH57" s="5"/>
+      <c r="AI57" s="5"/>
+    </row>
+    <row r="58" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
         <v>69</v>
       </c>
@@ -5858,12 +5953,14 @@
       <c r="Z58" s="5"/>
       <c r="AA58" s="5"/>
       <c r="AB58" s="5"/>
+      <c r="AC58" s="5"/>
       <c r="AD58" s="5"/>
-      <c r="AE58" s="5"/>
       <c r="AF58" s="5"/>
       <c r="AG58" s="5"/>
-    </row>
-    <row r="60" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH58" s="5"/>
+      <c r="AI58" s="5"/>
+    </row>
+    <row r="60" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
         <v>72</v>
       </c>
@@ -5908,15 +6005,17 @@
       <c r="Z60" s="5"/>
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
+      <c r="AC60" s="5"/>
       <c r="AD60" s="5"/>
-      <c r="AE60" s="5"/>
       <c r="AF60" s="5"/>
-      <c r="AG60" s="5">
-        <f>+AG29</f>
+      <c r="AG60" s="5"/>
+      <c r="AH60" s="5"/>
+      <c r="AI60" s="5">
+        <f>+AI29</f>
         <v>13293</v>
       </c>
     </row>
-    <row r="61" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
         <v>73</v>
       </c>
@@ -5959,14 +6058,16 @@
       <c r="Z61" s="5"/>
       <c r="AA61" s="5"/>
       <c r="AB61" s="5"/>
+      <c r="AC61" s="5"/>
       <c r="AD61" s="5"/>
-      <c r="AE61" s="5"/>
       <c r="AF61" s="5"/>
-      <c r="AG61" s="5">
+      <c r="AG61" s="5"/>
+      <c r="AH61" s="5"/>
+      <c r="AI61" s="5">
         <v>6717</v>
       </c>
     </row>
-    <row r="62" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
         <v>74</v>
       </c>
@@ -6009,14 +6110,16 @@
       <c r="Z62" s="5"/>
       <c r="AA62" s="5"/>
       <c r="AB62" s="5"/>
+      <c r="AC62" s="5"/>
       <c r="AD62" s="5"/>
-      <c r="AE62" s="5"/>
       <c r="AF62" s="5"/>
-      <c r="AG62" s="5">
+      <c r="AG62" s="5"/>
+      <c r="AH62" s="5"/>
+      <c r="AI62" s="5">
         <v>1972</v>
       </c>
     </row>
-    <row r="63" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
         <v>75</v>
       </c>
@@ -6059,14 +6162,16 @@
       <c r="Z63" s="5"/>
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
+      <c r="AC63" s="5"/>
       <c r="AD63" s="5"/>
-      <c r="AE63" s="5"/>
       <c r="AF63" s="5"/>
-      <c r="AG63" s="5">
+      <c r="AG63" s="5"/>
+      <c r="AH63" s="5"/>
+      <c r="AI63" s="5">
         <v>1150</v>
       </c>
     </row>
-    <row r="64" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>61</v>
       </c>
@@ -6109,14 +6214,16 @@
       <c r="Z64" s="5"/>
       <c r="AA64" s="5"/>
       <c r="AB64" s="5"/>
+      <c r="AC64" s="5"/>
       <c r="AD64" s="5"/>
-      <c r="AE64" s="5"/>
       <c r="AF64" s="5"/>
-      <c r="AG64" s="5">
+      <c r="AG64" s="5"/>
+      <c r="AH64" s="5"/>
+      <c r="AI64" s="5">
         <v>-1146</v>
       </c>
     </row>
-    <row r="65" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
         <v>76</v>
       </c>
@@ -6159,14 +6266,16 @@
       <c r="Z65" s="5"/>
       <c r="AA65" s="5"/>
       <c r="AB65" s="5"/>
+      <c r="AC65" s="5"/>
       <c r="AD65" s="5"/>
-      <c r="AE65" s="5"/>
       <c r="AF65" s="5"/>
-      <c r="AG65" s="5">
+      <c r="AG65" s="5"/>
+      <c r="AH65" s="5"/>
+      <c r="AI65" s="5">
         <v>2613</v>
       </c>
     </row>
-    <row r="66" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
         <v>77</v>
       </c>
@@ -6209,14 +6318,16 @@
       <c r="Z66" s="5"/>
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
+      <c r="AC66" s="5"/>
       <c r="AD66" s="5"/>
-      <c r="AE66" s="5"/>
       <c r="AF66" s="5"/>
-      <c r="AG66" s="5">
+      <c r="AG66" s="5"/>
+      <c r="AH66" s="5"/>
+      <c r="AI66" s="5">
         <v>220</v>
       </c>
     </row>
-    <row r="67" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
         <v>78</v>
       </c>
@@ -6261,15 +6372,17 @@
       <c r="Z67" s="5"/>
       <c r="AA67" s="5"/>
       <c r="AB67" s="5"/>
+      <c r="AC67" s="5"/>
       <c r="AD67" s="5"/>
-      <c r="AE67" s="5"/>
       <c r="AF67" s="5"/>
-      <c r="AG67" s="5">
+      <c r="AG67" s="5"/>
+      <c r="AH67" s="5"/>
+      <c r="AI67" s="5">
         <f>-874+11-733-398+7</f>
         <v>-1987</v>
       </c>
     </row>
-    <row r="68" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
         <v>79</v>
       </c>
@@ -6314,19 +6427,21 @@
       <c r="Z68" s="5"/>
       <c r="AA68" s="5"/>
       <c r="AB68" s="5"/>
+      <c r="AC68" s="5"/>
       <c r="AD68" s="5"/>
-      <c r="AE68" s="5">
+      <c r="AF68" s="5"/>
+      <c r="AG68" s="5">
         <v>13139</v>
       </c>
-      <c r="AF68" s="5">
+      <c r="AH68" s="5">
         <v>15887</v>
       </c>
-      <c r="AG68" s="5">
-        <f>SUM(AG61:AG67)</f>
+      <c r="AI68" s="5">
+        <f>SUM(AI61:AI67)</f>
         <v>9539</v>
       </c>
     </row>
-    <row r="70" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
         <v>80</v>
       </c>
@@ -6364,23 +6479,34 @@
       <c r="W70" s="5">
         <v>-2303</v>
       </c>
-      <c r="X70" s="5"/>
-      <c r="Y70" s="5"/>
-      <c r="Z70" s="5"/>
+      <c r="X70" s="5">
+        <f>-6273-W70</f>
+        <v>-3970</v>
+      </c>
+      <c r="Y70" s="5">
+        <f>-12135-X70-W70</f>
+        <v>-5862</v>
+      </c>
+      <c r="Z70" s="5">
+        <f>-21215-Y70-X70-W70</f>
+        <v>-9080</v>
+      </c>
       <c r="AA70" s="5"/>
       <c r="AB70" s="5"/>
+      <c r="AC70" s="5"/>
       <c r="AD70" s="5"/>
-      <c r="AE70" s="5">
+      <c r="AF70" s="5"/>
+      <c r="AG70" s="5">
         <v>-1564</v>
       </c>
-      <c r="AF70" s="5">
+      <c r="AH70" s="5">
         <v>-2135</v>
       </c>
-      <c r="AG70" s="5">
+      <c r="AI70" s="5">
         <v>-4511</v>
       </c>
     </row>
-    <row r="71" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
         <v>81</v>
       </c>
@@ -6423,14 +6549,16 @@
       <c r="Z71" s="5"/>
       <c r="AA71" s="5"/>
       <c r="AB71" s="5"/>
+      <c r="AC71" s="5"/>
       <c r="AD71" s="5"/>
-      <c r="AE71" s="5"/>
       <c r="AF71" s="5"/>
-      <c r="AG71" s="5">
+      <c r="AG71" s="5"/>
+      <c r="AH71" s="5"/>
+      <c r="AI71" s="5">
         <v>-148</v>
       </c>
     </row>
-    <row r="72" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
         <v>82</v>
       </c>
@@ -6475,12 +6603,14 @@
       <c r="Z72" s="5"/>
       <c r="AA72" s="5"/>
       <c r="AB72" s="5"/>
+      <c r="AC72" s="5"/>
       <c r="AD72" s="5"/>
-      <c r="AE72" s="5"/>
       <c r="AF72" s="5"/>
       <c r="AG72" s="5"/>
-    </row>
-    <row r="73" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH72" s="5"/>
+      <c r="AI72" s="5"/>
+    </row>
+    <row r="73" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
         <v>108</v>
       </c>
@@ -6525,12 +6655,14 @@
       <c r="Z73" s="5"/>
       <c r="AA73" s="5"/>
       <c r="AB73" s="5"/>
+      <c r="AC73" s="5"/>
       <c r="AD73" s="5"/>
-      <c r="AE73" s="5"/>
       <c r="AF73" s="5"/>
       <c r="AG73" s="5"/>
-    </row>
-    <row r="74" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH73" s="5"/>
+      <c r="AI73" s="5"/>
+    </row>
+    <row r="74" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -6557,12 +6689,14 @@
       <c r="Z74" s="5"/>
       <c r="AA74" s="5"/>
       <c r="AB74" s="5"/>
+      <c r="AC74" s="5"/>
       <c r="AD74" s="5"/>
-      <c r="AE74" s="5"/>
       <c r="AF74" s="5"/>
       <c r="AG74" s="5"/>
-    </row>
-    <row r="75" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH74" s="5"/>
+      <c r="AI74" s="5"/>
+    </row>
+    <row r="75" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
         <v>82</v>
       </c>
@@ -6592,15 +6726,17 @@
       <c r="Z75" s="5"/>
       <c r="AA75" s="5"/>
       <c r="AB75" s="5"/>
+      <c r="AC75" s="5"/>
       <c r="AD75" s="5"/>
-      <c r="AE75" s="5"/>
       <c r="AF75" s="5"/>
-      <c r="AG75" s="5">
+      <c r="AG75" s="5"/>
+      <c r="AH75" s="5"/>
+      <c r="AI75" s="5">
         <f>-10272+19788+6363</f>
         <v>15879</v>
       </c>
     </row>
-    <row r="76" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -6627,15 +6763,17 @@
       <c r="Z76" s="5"/>
       <c r="AA76" s="5"/>
       <c r="AB76" s="5"/>
+      <c r="AC76" s="5"/>
       <c r="AD76" s="5"/>
-      <c r="AE76" s="5"/>
       <c r="AF76" s="5"/>
-      <c r="AG76" s="5">
-        <f>SUM(AG70:AG75)</f>
+      <c r="AG76" s="5"/>
+      <c r="AH76" s="5"/>
+      <c r="AI76" s="5">
+        <f>SUM(AI70:AI75)</f>
         <v>11220</v>
       </c>
     </row>
-    <row r="77" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>109</v>
       </c>
@@ -6660,7 +6798,7 @@
         <v>-822</v>
       </c>
     </row>
-    <row r="78" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>110</v>
       </c>
@@ -6683,7 +6821,7 @@
         <v>-1103</v>
       </c>
     </row>
-    <row r="79" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>4</v>
       </c>
@@ -6708,7 +6846,7 @@
         <v>-2399</v>
       </c>
     </row>
-    <row r="80" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>77</v>
       </c>

--- a/ORCL.xlsx
+++ b/ORCL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B484F4-39FD-44E4-936A-0EA5F3ED3451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C98ED31-A47A-46FC-9BBF-9A72E7760394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39430" yWindow="1720" windowWidth="26400" windowHeight="18030" tabRatio="319" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39300" yWindow="3650" windowWidth="24340" windowHeight="15680" tabRatio="319" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1005,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AD04C5-FAB4-8B42-B6A2-F2686B3BB573}">
   <dimension ref="B2:H16"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>205</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="G4" s="3">
         <f>G3*G2</f>
-        <v>575810.76500000001</v>
+        <v>735914.24600000004</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G7" s="3">
         <f>G4-G5+G6</f>
-        <v>657175.76500000001</v>
+        <v>817279.24600000004</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -1111,7 +1111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284BEAAF-34CF-A143-8837-7F659B2590CD}">
   <dimension ref="A1:EB83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="R64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -5279,7 +5279,7 @@
       </c>
       <c r="AT45" s="14">
         <f>AT44/Main!G2-1</f>
-        <v>-0.20783711370041513</v>
+        <v>-0.38017789430757665</v>
       </c>
     </row>
     <row r="46" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.25">

--- a/ORCL.xlsx
+++ b/ORCL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C98ED31-A47A-46FC-9BBF-9A72E7760394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373E2630-2351-46F8-9175-1F615CE55660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39300" yWindow="3650" windowWidth="24340" windowHeight="15680" tabRatio="319" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="220" yWindow="240" windowWidth="22090" windowHeight="20070" tabRatio="319" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
     Guidance: 8-10%</t>
       </text>
     </comment>
-    <comment ref="AL34" authorId="1" shapeId="0" xr:uid="{A4A66BCC-1D5A-42FB-AF87-0976A774FC6D}">
+    <comment ref="AU34" authorId="1" shapeId="0" xr:uid="{A4A66BCC-1D5A-42FB-AF87-0976A774FC6D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -56,7 +56,7 @@
     Q125 guidance: DD revenue growth</t>
       </text>
     </comment>
-    <comment ref="V80" authorId="2" shapeId="0" xr:uid="{DF3A69DD-1198-42A5-A83A-5484CF412A11}">
+    <comment ref="V78" authorId="2" shapeId="0" xr:uid="{DF3A69DD-1198-42A5-A83A-5484CF412A11}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="128">
   <si>
     <t>Price</t>
   </si>
@@ -194,9 +194,6 @@
     <t>FQ423</t>
   </si>
   <si>
-    <t>6/13/22: FY22 results.</t>
-  </si>
-  <si>
     <t>Q420</t>
   </si>
   <si>
@@ -428,16 +425,34 @@
     <t xml:space="preserve">  AWS, Azure, GCP collaborations</t>
   </si>
   <si>
-    <t>7-9%</t>
-  </si>
-  <si>
     <t>RPO</t>
   </si>
   <si>
-    <t>Q125</t>
-  </si>
-  <si>
     <t>FQ126</t>
+  </si>
+  <si>
+    <t>FQ226</t>
+  </si>
+  <si>
+    <t>FQ326</t>
+  </si>
+  <si>
+    <t>FQ426</t>
+  </si>
+  <si>
+    <t>FQ127</t>
+  </si>
+  <si>
+    <t>FQ227</t>
+  </si>
+  <si>
+    <t>FQ327</t>
+  </si>
+  <si>
+    <t>FQ427</t>
+  </si>
+  <si>
+    <t>Q325</t>
   </si>
 </sst>
 </file>
@@ -585,16 +600,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>32147</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>48022</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:rowOff>43657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>32147</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>35719</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>48022</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>7938</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -609,8 +624,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15736491" y="71438"/>
-          <a:ext cx="0" cy="14108906"/>
+          <a:off x="17704991" y="43657"/>
+          <a:ext cx="0" cy="13950156"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -635,16 +650,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>7350</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>19255</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>53578</xdr:rowOff>
+      <xdr:rowOff>41672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>7350</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>50213</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>19255</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>38307</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -659,8 +674,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21646959" y="53578"/>
-          <a:ext cx="0" cy="13498323"/>
+          <a:off x="30106349" y="41672"/>
+          <a:ext cx="0" cy="13347510"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -992,10 +1007,10 @@
   <threadedComment ref="X34" dT="2024-09-11T18:30:08.76" personId="{7216FEC0-B7FB-466B-9D42-622825855BC7}" id="{91674395-ECF1-496E-8E8E-18027BB9B0AB}">
     <text>Guidance: 8-10%</text>
   </threadedComment>
-  <threadedComment ref="AL34" dT="2024-09-11T18:29:26.52" personId="{7216FEC0-B7FB-466B-9D42-622825855BC7}" id="{A4A66BCC-1D5A-42FB-AF87-0976A774FC6D}">
+  <threadedComment ref="AU34" dT="2024-09-11T18:29:26.52" personId="{7216FEC0-B7FB-466B-9D42-622825855BC7}" id="{A4A66BCC-1D5A-42FB-AF87-0976A774FC6D}">
     <text>Q125 guidance: DD revenue growth</text>
   </threadedComment>
-  <threadedComment ref="V80" dT="2024-09-11T18:53:29.19" personId="{7216FEC0-B7FB-466B-9D42-622825855BC7}" id="{DF3A69DD-1198-42A5-A83A-5484CF412A11}">
+  <threadedComment ref="V78" dT="2024-09-11T18:53:29.19" personId="{7216FEC0-B7FB-466B-9D42-622825855BC7}" id="{DF3A69DD-1198-42A5-A83A-5484CF412A11}">
     <text>Didn’t add up?</text>
   </threadedComment>
 </ThreadedComments>
@@ -1003,11 +1018,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AD04C5-FAB4-8B42-B6A2-F2686B3BB573}">
-  <dimension ref="B2:H16"/>
+  <dimension ref="B2:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1018,7 +1031,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
@@ -1029,28 +1042,28 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="3">
-        <v>2808.8330000000001</v>
+        <v>2909</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="3">
         <f>G3*G2</f>
-        <v>735914.24600000004</v>
+        <v>762158</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1058,48 +1071,41 @@
         <v>3</v>
       </c>
       <c r="G5" s="3">
-        <f>10786+417</f>
-        <v>11203</v>
+        <v>11005</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="3">
-        <f>7271+85297</f>
-        <v>92568</v>
+        <v>91315</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="3">
         <f>G4-G5+G6</f>
-        <v>817279.24600000004</v>
+        <v>842468</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F10" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1109,13 +1115,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284BEAAF-34CF-A143-8837-7F659B2590CD}">
-  <dimension ref="A1:EB83"/>
+  <dimension ref="A1:EK81"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="R64" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Z70" sqref="Z70"/>
+      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1124,21 +1130,21 @@
     <col min="2" max="2" width="17.453125" style="1" customWidth="1"/>
     <col min="3" max="8" width="9" style="4" customWidth="1"/>
     <col min="9" max="16" width="9.7265625" style="4" customWidth="1"/>
-    <col min="17" max="30" width="9" style="4" customWidth="1"/>
-    <col min="31" max="31" width="8.54296875" style="1"/>
-    <col min="32" max="33" width="8.54296875" style="4"/>
-    <col min="34" max="35" width="9.54296875" style="4" customWidth="1"/>
-    <col min="36" max="45" width="8.54296875" style="1"/>
-    <col min="46" max="46" width="9.26953125" style="1" customWidth="1"/>
-    <col min="47" max="16384" width="8.54296875" style="1"/>
+    <col min="17" max="39" width="9" style="4" customWidth="1"/>
+    <col min="40" max="40" width="8.54296875" style="1"/>
+    <col min="41" max="42" width="8.54296875" style="4"/>
+    <col min="43" max="44" width="9.54296875" style="4" customWidth="1"/>
+    <col min="45" max="54" width="8.54296875" style="1"/>
+    <col min="55" max="55" width="9.26953125" style="1" customWidth="1"/>
+    <col min="56" max="16384" width="8.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:43" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -1215,74 +1221,104 @@
         <v>45807</v>
       </c>
       <c r="AA2" s="12">
-        <f>+W2</f>
-        <v>45535</v>
-      </c>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
+        <f>+W2+365</f>
+        <v>45900</v>
+      </c>
+      <c r="AB2" s="12">
+        <f t="shared" ref="AB2:AH2" si="1">+X2+365</f>
+        <v>45991</v>
+      </c>
+      <c r="AC2" s="12">
+        <f t="shared" si="1"/>
+        <v>46080</v>
+      </c>
       <c r="AD2" s="12">
+        <f t="shared" si="1"/>
+        <v>46172</v>
+      </c>
+      <c r="AE2" s="12">
+        <f t="shared" si="1"/>
+        <v>46265</v>
+      </c>
+      <c r="AF2" s="12">
+        <f t="shared" si="1"/>
+        <v>46356</v>
+      </c>
+      <c r="AG2" s="12">
+        <f t="shared" si="1"/>
+        <v>46445</v>
+      </c>
+      <c r="AH2" s="12">
+        <f t="shared" si="1"/>
+        <v>46537</v>
+      </c>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12">
         <v>42886</v>
       </c>
-      <c r="AE2" s="12">
+      <c r="AN2" s="12">
         <v>43251</v>
       </c>
-      <c r="AF2" s="12">
+      <c r="AO2" s="12">
         <v>43616</v>
       </c>
-      <c r="AG2" s="12">
+      <c r="AP2" s="12">
         <v>43982</v>
       </c>
-      <c r="AH2" s="12">
+      <c r="AQ2" s="12">
         <v>44347</v>
       </c>
-      <c r="AI2" s="12">
+      <c r="AR2" s="12">
         <v>44712</v>
       </c>
-      <c r="AJ2" s="12">
-        <f>AI2+365</f>
+      <c r="AS2" s="12">
+        <f>AR2+365</f>
         <v>45077</v>
       </c>
-      <c r="AK2" s="12">
-        <f>AJ2+366</f>
+      <c r="AT2" s="12">
+        <f>AS2+366</f>
         <v>45443</v>
       </c>
-      <c r="AL2" s="12">
-        <f t="shared" ref="AL2" si="1">AK2+365</f>
+      <c r="AU2" s="12">
+        <f t="shared" ref="AU2" si="2">AT2+365</f>
         <v>45808</v>
       </c>
-      <c r="AM2" s="12">
-        <f t="shared" ref="AM2:AN2" si="2">AL2+365</f>
+      <c r="AV2" s="12">
+        <f t="shared" ref="AV2:AW2" si="3">AU2+365</f>
         <v>46173</v>
       </c>
-      <c r="AN2" s="12">
-        <f t="shared" si="2"/>
+      <c r="AW2" s="12">
+        <f t="shared" si="3"/>
         <v>46538</v>
       </c>
-      <c r="AO2" s="12">
-        <f>AN2+366</f>
+      <c r="AX2" s="12">
+        <f>AW2+366</f>
         <v>46904</v>
       </c>
-      <c r="AP2" s="12">
-        <f t="shared" ref="AP2" si="3">AO2+365</f>
+      <c r="AY2" s="12">
+        <f t="shared" ref="AY2" si="4">AX2+365</f>
         <v>47269</v>
       </c>
-      <c r="AQ2" s="12">
-        <f>AP2+365</f>
+      <c r="AZ2" s="12">
+        <f>AY2+365</f>
         <v>47634</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>13</v>
@@ -1321,78 +1357,99 @@
         <v>40</v>
       </c>
       <c r="S3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="T3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="V3" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="W3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="X3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="Z3" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="AA3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD3" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="AD3" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="AE3" s="4" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="AF3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AG3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AT3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AU3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AV3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AW3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AX3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AY3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AZ3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AQ3" s="4" t="s">
-        <v>55</v>
-      </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="U4" s="5">
         <v>80000</v>
@@ -1409,30 +1466,36 @@
       <c r="Y4" s="5">
         <v>130000</v>
       </c>
-      <c r="AE4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
+      <c r="Z4" s="5">
+        <v>138000</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>455000</v>
+      </c>
       <c r="AN4" s="4"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AE5" s="4"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="4"/>
-      <c r="AM5" s="4"/>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="AN5" s="4"/>
-      <c r="AO5" s="4"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P6" s="4">
         <v>600</v>
@@ -1458,19 +1521,19 @@
       <c r="W6" s="5">
         <v>900</v>
       </c>
-      <c r="AE6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="4"/>
       <c r="AN6" s="4"/>
-      <c r="AO6" s="4"/>
-      <c r="AP6" s="4"/>
-      <c r="AQ6" s="4"/>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P7" s="4">
         <v>600</v>
@@ -1494,19 +1557,19 @@
         <v>800</v>
       </c>
       <c r="W7" s="5"/>
-      <c r="AE7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
       <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O8" s="5">
         <v>2700</v>
@@ -1533,21 +1596,76 @@
         <v>3300</v>
       </c>
       <c r="W8" s="5">
-        <v>3500</v>
-      </c>
-      <c r="AE8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
+        <v>3469</v>
+      </c>
+      <c r="X8" s="5">
+        <v>3503</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>3558</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>3742</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>3839</v>
+      </c>
+      <c r="AB8" s="5">
+        <f>+X8*1.05</f>
+        <v>3678.15</v>
+      </c>
+      <c r="AC8" s="5">
+        <f>+Y8*1.05</f>
+        <v>3735.9</v>
+      </c>
+      <c r="AD8" s="5">
+        <f>+Z8*1.05</f>
+        <v>3929.1000000000004</v>
+      </c>
+      <c r="AE8" s="5">
+        <f>+AA8*1.05</f>
+        <v>4030.9500000000003</v>
+      </c>
+      <c r="AF8" s="5">
+        <f>+AB8*1.05</f>
+        <v>3862.0575000000003</v>
+      </c>
+      <c r="AG8" s="5">
+        <f>+AC8*1.05</f>
+        <v>3922.6950000000002</v>
+      </c>
+      <c r="AH8" s="5">
+        <f>+AD8*1.05</f>
+        <v>4125.5550000000003</v>
+      </c>
       <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
+      <c r="AS8" s="5">
+        <f>SUM(O8:R8)</f>
+        <v>11400</v>
+      </c>
+      <c r="AT8" s="5">
+        <f>SUM(S8:V8)</f>
+        <v>12900</v>
+      </c>
+      <c r="AU8" s="5">
+        <f>SUM(W8:Z8)</f>
+        <v>14272</v>
+      </c>
+      <c r="AV8" s="5">
+        <f>SUM(AA8:AD8)</f>
+        <v>15182.15</v>
+      </c>
+      <c r="AW8" s="5">
+        <f>SUM(AE8:AH8)</f>
+        <v>15941.257500000002</v>
+      </c>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O9" s="5">
         <v>900</v>
@@ -1574,32 +1692,90 @@
         <v>2000</v>
       </c>
       <c r="W9" s="5">
-        <v>2200</v>
-      </c>
-      <c r="AE9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="4"/>
+        <v>2154</v>
+      </c>
+      <c r="X9" s="5">
+        <v>2434</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>2652</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>2995</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>3347</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>4000</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>5000</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>6000</v>
+      </c>
+      <c r="AE9" s="5">
+        <f>+AD9+1000</f>
+        <v>7000</v>
+      </c>
+      <c r="AF9" s="5">
+        <f>+AE9+1000</f>
+        <v>8000</v>
+      </c>
+      <c r="AG9" s="5">
+        <f>+AF9+1000</f>
+        <v>9000</v>
+      </c>
+      <c r="AH9" s="5">
+        <f>+AG9+1000</f>
+        <v>10000</v>
+      </c>
       <c r="AN9" s="4"/>
-      <c r="AO9" s="4"/>
-      <c r="AP9" s="4"/>
-      <c r="AQ9" s="4"/>
+      <c r="AS9" s="5">
+        <f>SUM(O9:R9)</f>
+        <v>4500</v>
+      </c>
+      <c r="AT9" s="5">
+        <f>SUM(S9:V9)</f>
+        <v>6900</v>
+      </c>
+      <c r="AU9" s="5">
+        <f>SUM(W9:Z9)</f>
+        <v>10235</v>
+      </c>
+      <c r="AV9" s="5">
+        <f t="shared" ref="AV9:AV16" si="5">SUM(AA9:AD9)</f>
+        <v>18347</v>
+      </c>
+      <c r="AW9" s="5">
+        <f t="shared" ref="AW9:AX9" si="6">SUM(AE9:AH9)</f>
+        <v>34000</v>
+      </c>
+      <c r="AX9" s="5">
+        <v>73000</v>
+      </c>
+      <c r="AY9" s="5">
+        <v>114000</v>
+      </c>
+      <c r="AZ9" s="5">
+        <v>144000</v>
+      </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AE10" s="4"/>
-      <c r="AJ10" s="4"/>
-      <c r="AK10" s="4"/>
-      <c r="AL10" s="4"/>
-      <c r="AM10" s="4"/>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="AN10" s="4"/>
-      <c r="AO10" s="4"/>
-      <c r="AP10" s="4"/>
-      <c r="AQ10" s="4"/>
+      <c r="AS10" s="4"/>
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="4"/>
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="4"/>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4"/>
+      <c r="AZ10" s="4"/>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O11" s="5">
         <v>3579</v>
@@ -1626,26 +1802,81 @@
         <v>5311</v>
       </c>
       <c r="W11" s="5">
+        <f>+W9+W8</f>
         <v>5623</v>
       </c>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AE11" s="4"/>
-      <c r="AJ11" s="4"/>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="4"/>
+      <c r="X11" s="5">
+        <f>+X9+X8</f>
+        <v>5937</v>
+      </c>
+      <c r="Y11" s="5">
+        <f>+Y9+Y8</f>
+        <v>6210</v>
+      </c>
+      <c r="Z11" s="5">
+        <f>+Z9+Z8</f>
+        <v>6737</v>
+      </c>
+      <c r="AA11" s="5">
+        <f>+AA9+AA8</f>
+        <v>7186</v>
+      </c>
+      <c r="AB11" s="5">
+        <f t="shared" ref="AB11:AH11" si="7">+AB9+AB8</f>
+        <v>7678.15</v>
+      </c>
+      <c r="AC11" s="5">
+        <f t="shared" si="7"/>
+        <v>8735.9</v>
+      </c>
+      <c r="AD11" s="5">
+        <f t="shared" si="7"/>
+        <v>9929.1</v>
+      </c>
+      <c r="AE11" s="5">
+        <f t="shared" si="7"/>
+        <v>11030.95</v>
+      </c>
+      <c r="AF11" s="5">
+        <f t="shared" si="7"/>
+        <v>11862.057500000001</v>
+      </c>
+      <c r="AG11" s="5">
+        <f t="shared" si="7"/>
+        <v>12922.695</v>
+      </c>
+      <c r="AH11" s="5">
+        <f t="shared" si="7"/>
+        <v>14125.555</v>
+      </c>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
       <c r="AN11" s="4"/>
-      <c r="AO11" s="4"/>
-      <c r="AP11" s="4"/>
-      <c r="AQ11" s="4"/>
+      <c r="AS11" s="5">
+        <f>SUM(O11:R11)</f>
+        <v>15882</v>
+      </c>
+      <c r="AT11" s="5">
+        <f t="shared" ref="AT11:AT16" si="8">SUM(S11:V11)</f>
+        <v>19775</v>
+      </c>
+      <c r="AU11" s="5">
+        <f t="shared" ref="AU11:AV16" si="9">SUM(W11:Z11)</f>
+        <v>24507</v>
+      </c>
+      <c r="AV11" s="5">
+        <f t="shared" si="5"/>
+        <v>33529.15</v>
+      </c>
+      <c r="AW11" s="4"/>
+      <c r="AX11" s="4"/>
+      <c r="AY11" s="4"/>
+      <c r="AZ11" s="4"/>
     </row>
-    <row r="12" spans="1:43" s="16" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:52" s="16" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -1686,28 +1917,78 @@
       <c r="W12" s="18">
         <v>4896</v>
       </c>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
-      <c r="AH12" s="17"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="17"/>
-      <c r="AK12" s="17"/>
+      <c r="X12" s="18">
+        <v>4869</v>
+      </c>
+      <c r="Y12" s="18">
+        <v>4797</v>
+      </c>
+      <c r="Z12" s="18">
+        <v>4961</v>
+      </c>
+      <c r="AA12" s="18">
+        <v>4955</v>
+      </c>
+      <c r="AB12" s="18">
+        <f>+X12</f>
+        <v>4869</v>
+      </c>
+      <c r="AC12" s="18">
+        <f t="shared" ref="AC12:AH12" si="10">+Y12</f>
+        <v>4797</v>
+      </c>
+      <c r="AD12" s="18">
+        <f t="shared" si="10"/>
+        <v>4961</v>
+      </c>
+      <c r="AE12" s="18">
+        <f t="shared" si="10"/>
+        <v>4955</v>
+      </c>
+      <c r="AF12" s="18">
+        <f t="shared" si="10"/>
+        <v>4869</v>
+      </c>
+      <c r="AG12" s="18">
+        <f t="shared" si="10"/>
+        <v>4797</v>
+      </c>
+      <c r="AH12" s="18">
+        <f t="shared" si="10"/>
+        <v>4961</v>
+      </c>
+      <c r="AI12" s="18"/>
+      <c r="AJ12" s="18"/>
+      <c r="AK12" s="18"/>
       <c r="AL12" s="17"/>
       <c r="AM12" s="17"/>
       <c r="AN12" s="17"/>
       <c r="AO12" s="17"/>
       <c r="AP12" s="17"/>
       <c r="AQ12" s="17"/>
+      <c r="AR12" s="17"/>
+      <c r="AS12" s="5">
+        <f>SUM(O12:R12)</f>
+        <v>19426</v>
+      </c>
+      <c r="AT12" s="5">
+        <f t="shared" si="8"/>
+        <v>19608</v>
+      </c>
+      <c r="AU12" s="5">
+        <f t="shared" si="9"/>
+        <v>19523</v>
+      </c>
+      <c r="AV12" s="5">
+        <f t="shared" si="5"/>
+        <v>19582</v>
+      </c>
+      <c r="AW12" s="17"/>
+      <c r="AX12" s="17"/>
+      <c r="AY12" s="17"/>
+      <c r="AZ12" s="17"/>
     </row>
-    <row r="13" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>33</v>
       </c>
@@ -1740,15 +2021,15 @@
         <v>7612</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" ref="O13:P13" si="4">+O12+O11</f>
+        <f t="shared" ref="O13:P13" si="11">+O12+O11</f>
         <v>8417</v>
       </c>
       <c r="P13" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>8598</v>
       </c>
       <c r="Q13" s="5">
-        <f t="shared" ref="Q13" si="5">+Q12+Q11</f>
+        <f t="shared" ref="Q13" si="12">+Q12+Q11</f>
         <v>8923</v>
       </c>
       <c r="R13" s="5">
@@ -1756,19 +2037,19 @@
         <v>9370</v>
       </c>
       <c r="S13" s="5">
-        <f t="shared" ref="S13" si="6">+S12+S11</f>
+        <f t="shared" ref="S13" si="13">+S12+S11</f>
         <v>9547</v>
       </c>
       <c r="T13" s="5">
-        <f t="shared" ref="T13" si="7">+T12+T11</f>
+        <f t="shared" ref="T13" si="14">+T12+T11</f>
         <v>9639</v>
       </c>
       <c r="U13" s="5">
-        <f t="shared" ref="U13" si="8">+U12+U11</f>
+        <f t="shared" ref="U13" si="15">+U12+U11</f>
         <v>9963</v>
       </c>
       <c r="V13" s="5">
-        <f t="shared" ref="V13" si="9">+V12+V11</f>
+        <f t="shared" ref="V13" si="16">+V12+V11</f>
         <v>10234</v>
       </c>
       <c r="W13" s="5">
@@ -1780,30 +2061,82 @@
       <c r="Y13" s="5">
         <v>11007</v>
       </c>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
+      <c r="Z13" s="5">
+        <f>+Z11+Z12</f>
+        <v>11698</v>
+      </c>
+      <c r="AA13" s="5">
+        <f>+AA11+AA12</f>
+        <v>12141</v>
+      </c>
+      <c r="AB13" s="5">
+        <f t="shared" ref="AB13:AH13" si="17">+AB11+AB12</f>
+        <v>12547.15</v>
+      </c>
+      <c r="AC13" s="5">
+        <f t="shared" si="17"/>
+        <v>13532.9</v>
+      </c>
       <c r="AD13" s="5">
+        <f t="shared" si="17"/>
+        <v>14890.1</v>
+      </c>
+      <c r="AE13" s="5">
+        <f t="shared" si="17"/>
+        <v>15985.95</v>
+      </c>
+      <c r="AF13" s="5">
+        <f t="shared" si="17"/>
+        <v>16731.057500000003</v>
+      </c>
+      <c r="AG13" s="5">
+        <f t="shared" si="17"/>
+        <v>17719.695</v>
+      </c>
+      <c r="AH13" s="5">
+        <f t="shared" si="17"/>
+        <v>19086.555</v>
+      </c>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5">
         <v>23800</v>
       </c>
-      <c r="AE13" s="3">
+      <c r="AN13" s="3">
         <v>26254</v>
       </c>
-      <c r="AF13" s="5">
+      <c r="AO13" s="5">
         <v>26707</v>
       </c>
-      <c r="AG13" s="5">
+      <c r="AP13" s="5">
         <v>27392</v>
       </c>
-      <c r="AH13" s="5">
+      <c r="AQ13" s="5">
         <v>28700</v>
       </c>
-      <c r="AI13" s="5">
+      <c r="AR13" s="5">
         <v>30174</v>
       </c>
+      <c r="AS13" s="5">
+        <f>+AS12+AS11</f>
+        <v>35308</v>
+      </c>
+      <c r="AT13" s="5">
+        <f>+AT12+AT11</f>
+        <v>39383</v>
+      </c>
+      <c r="AU13" s="5">
+        <f>+AU12+AU11</f>
+        <v>44030</v>
+      </c>
+      <c r="AV13" s="5">
+        <f>+AV12+AV11</f>
+        <v>53111.15</v>
+      </c>
     </row>
-    <row r="14" spans="1:43" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="19" t="s">
         <v>34</v>
       </c>
@@ -1868,30 +2201,80 @@
       <c r="Y14" s="20">
         <v>1129</v>
       </c>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="20"/>
+      <c r="Z14" s="20">
+        <v>2007</v>
+      </c>
+      <c r="AA14" s="20">
+        <v>766</v>
+      </c>
+      <c r="AB14" s="20">
+        <f>+X14</f>
+        <v>1195</v>
+      </c>
+      <c r="AC14" s="20">
+        <f t="shared" ref="AC14:AC16" si="18">+Y14</f>
+        <v>1129</v>
+      </c>
       <c r="AD14" s="20">
+        <f t="shared" ref="AD14:AD16" si="19">+Z14</f>
+        <v>2007</v>
+      </c>
+      <c r="AE14" s="20">
+        <f t="shared" ref="AE14:AE16" si="20">+AA14</f>
+        <v>766</v>
+      </c>
+      <c r="AF14" s="20">
+        <f t="shared" ref="AF14:AF16" si="21">+AB14</f>
+        <v>1195</v>
+      </c>
+      <c r="AG14" s="20">
+        <f t="shared" ref="AG14:AG16" si="22">+AC14</f>
+        <v>1129</v>
+      </c>
+      <c r="AH14" s="20">
+        <f t="shared" ref="AH14:AH16" si="23">+AD14</f>
+        <v>2007</v>
+      </c>
+      <c r="AI14" s="20"/>
+      <c r="AJ14" s="20"/>
+      <c r="AK14" s="20"/>
+      <c r="AL14" s="20"/>
+      <c r="AM14" s="20">
         <v>6418</v>
       </c>
-      <c r="AE14" s="19">
+      <c r="AN14" s="19">
         <v>6190</v>
       </c>
-      <c r="AF14" s="20">
+      <c r="AO14" s="20">
         <v>5855</v>
       </c>
-      <c r="AG14" s="20">
+      <c r="AP14" s="20">
         <v>5127</v>
       </c>
-      <c r="AH14" s="20">
+      <c r="AQ14" s="20">
         <v>5399</v>
       </c>
-      <c r="AI14" s="20">
+      <c r="AR14" s="20">
         <v>5878</v>
       </c>
+      <c r="AS14" s="5">
+        <f t="shared" ref="AS14:AS16" si="24">SUM(O14:R14)</f>
+        <v>5779</v>
+      </c>
+      <c r="AT14" s="5">
+        <f t="shared" si="8"/>
+        <v>5081</v>
+      </c>
+      <c r="AU14" s="5">
+        <f t="shared" si="9"/>
+        <v>5201</v>
+      </c>
+      <c r="AV14" s="5">
+        <f t="shared" si="5"/>
+        <v>5097</v>
+      </c>
     </row>
-    <row r="15" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
@@ -1956,30 +2339,80 @@
       <c r="Y15" s="5">
         <v>703</v>
       </c>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5">
+      <c r="Z15" s="5">
+        <v>850</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>670</v>
+      </c>
+      <c r="AB15" s="20">
+        <f t="shared" ref="AB15:AB16" si="25">+X15</f>
+        <v>728</v>
+      </c>
+      <c r="AC15" s="20">
+        <f t="shared" si="18"/>
+        <v>703</v>
+      </c>
+      <c r="AD15" s="20">
+        <f t="shared" si="19"/>
+        <v>850</v>
+      </c>
+      <c r="AE15" s="20">
+        <f t="shared" si="20"/>
+        <v>670</v>
+      </c>
+      <c r="AF15" s="20">
+        <f t="shared" si="21"/>
+        <v>728</v>
+      </c>
+      <c r="AG15" s="20">
+        <f t="shared" si="22"/>
+        <v>703</v>
+      </c>
+      <c r="AH15" s="20">
+        <f t="shared" si="23"/>
+        <v>850</v>
+      </c>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5">
         <v>4152</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AN15" s="3">
         <v>3993</v>
       </c>
-      <c r="AF15" s="5">
+      <c r="AO15" s="5">
         <v>3704</v>
       </c>
-      <c r="AG15" s="5">
+      <c r="AP15" s="5">
         <v>3443</v>
       </c>
-      <c r="AH15" s="5">
+      <c r="AQ15" s="5">
         <v>3359</v>
       </c>
-      <c r="AI15" s="5">
+      <c r="AR15" s="5">
         <v>3183</v>
       </c>
+      <c r="AS15" s="5">
+        <f t="shared" si="24"/>
+        <v>3274</v>
+      </c>
+      <c r="AT15" s="5">
+        <f t="shared" si="8"/>
+        <v>3066</v>
+      </c>
+      <c r="AU15" s="5">
+        <f t="shared" si="9"/>
+        <v>2936</v>
+      </c>
+      <c r="AV15" s="5">
+        <f t="shared" si="5"/>
+        <v>2951</v>
+      </c>
     </row>
-    <row r="16" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
@@ -2044,30 +2477,80 @@
       <c r="Y16" s="5">
         <v>1291</v>
       </c>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5">
+      <c r="Z16" s="5">
+        <v>1348</v>
+      </c>
+      <c r="AA16" s="5">
+        <v>1349</v>
+      </c>
+      <c r="AB16" s="20">
+        <f t="shared" si="25"/>
+        <v>1330</v>
+      </c>
+      <c r="AC16" s="20">
+        <f t="shared" si="18"/>
+        <v>1291</v>
+      </c>
+      <c r="AD16" s="20">
+        <f t="shared" si="19"/>
+        <v>1348</v>
+      </c>
+      <c r="AE16" s="20">
+        <f t="shared" si="20"/>
+        <v>1349</v>
+      </c>
+      <c r="AF16" s="20">
+        <f t="shared" si="21"/>
+        <v>1330</v>
+      </c>
+      <c r="AG16" s="20">
+        <f t="shared" si="22"/>
+        <v>1291</v>
+      </c>
+      <c r="AH16" s="20">
+        <f t="shared" si="23"/>
+        <v>1348</v>
+      </c>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5">
         <v>3358</v>
       </c>
-      <c r="AE16" s="3">
+      <c r="AN16" s="3">
         <v>3394</v>
       </c>
-      <c r="AF16" s="5">
+      <c r="AO16" s="5">
         <v>3240</v>
       </c>
-      <c r="AG16" s="5">
+      <c r="AP16" s="5">
         <v>3106</v>
       </c>
-      <c r="AH16" s="5">
+      <c r="AQ16" s="5">
         <v>3021</v>
       </c>
-      <c r="AI16" s="5">
+      <c r="AR16" s="5">
         <v>3205</v>
       </c>
+      <c r="AS16" s="5">
+        <f t="shared" si="24"/>
+        <v>5594</v>
+      </c>
+      <c r="AT16" s="5">
+        <f t="shared" si="8"/>
+        <v>5431</v>
+      </c>
+      <c r="AU16" s="5">
+        <f t="shared" si="9"/>
+        <v>5232</v>
+      </c>
+      <c r="AV16" s="5">
+        <f t="shared" si="5"/>
+        <v>5318</v>
+      </c>
     </row>
-    <row r="18" spans="2:132" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:141" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>8</v>
       </c>
@@ -2076,146 +2559,179 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9">
-        <f t="shared" ref="G18:Q18" si="10">SUM(G13:G16)</f>
+        <f t="shared" ref="G18:Q18" si="26">SUM(G13:G16)</f>
         <v>9367</v>
       </c>
       <c r="H18" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>9800</v>
       </c>
       <c r="I18" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>10085</v>
       </c>
       <c r="J18" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>11227</v>
       </c>
       <c r="K18" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>9728</v>
       </c>
       <c r="L18" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>10360</v>
       </c>
       <c r="M18" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>10513</v>
       </c>
       <c r="N18" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>11840</v>
       </c>
       <c r="O18" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>11445</v>
       </c>
       <c r="P18" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>12275</v>
       </c>
       <c r="Q18" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>12398</v>
       </c>
       <c r="R18" s="9">
-        <f t="shared" ref="R18:Y18" si="11">SUM(R13:R16)</f>
+        <f t="shared" ref="R18:AH18" si="27">SUM(R13:R16)</f>
         <v>13837</v>
       </c>
       <c r="S18" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>12453</v>
       </c>
       <c r="T18" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>12941</v>
       </c>
       <c r="U18" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>13280</v>
       </c>
       <c r="V18" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>14287</v>
       </c>
       <c r="W18" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>13307</v>
       </c>
       <c r="X18" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>14059</v>
       </c>
       <c r="Y18" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>14130</v>
       </c>
       <c r="Z18" s="9">
-        <f>+V18*1.05</f>
-        <v>15001.35</v>
-      </c>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
+        <f t="shared" si="27"/>
+        <v>15903</v>
+      </c>
+      <c r="AA18" s="9">
+        <f>SUM(AA13:AA16)</f>
+        <v>14926</v>
+      </c>
+      <c r="AB18" s="9">
+        <f t="shared" si="27"/>
+        <v>15800.15</v>
+      </c>
+      <c r="AC18" s="9">
+        <f t="shared" si="27"/>
+        <v>16655.900000000001</v>
+      </c>
       <c r="AD18" s="9">
-        <f t="shared" ref="AD18:AG18" si="12">SUM(AD13:AD16)</f>
+        <f t="shared" si="27"/>
+        <v>19095.099999999999</v>
+      </c>
+      <c r="AE18" s="9">
+        <f t="shared" si="27"/>
+        <v>18770.95</v>
+      </c>
+      <c r="AF18" s="9">
+        <f t="shared" si="27"/>
+        <v>19984.057500000003</v>
+      </c>
+      <c r="AG18" s="9">
+        <f t="shared" si="27"/>
+        <v>20842.695</v>
+      </c>
+      <c r="AH18" s="9">
+        <f t="shared" si="27"/>
+        <v>23291.555</v>
+      </c>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="9"/>
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="9"/>
+      <c r="AM18" s="9">
+        <f t="shared" ref="AM18:AP18" si="28">SUM(AM13:AM16)</f>
         <v>37728</v>
       </c>
-      <c r="AE18" s="9">
-        <f t="shared" si="12"/>
+      <c r="AN18" s="9">
+        <f t="shared" si="28"/>
         <v>39831</v>
       </c>
-      <c r="AF18" s="9">
-        <f t="shared" si="12"/>
+      <c r="AO18" s="9">
+        <f t="shared" si="28"/>
         <v>39506</v>
       </c>
-      <c r="AG18" s="9">
-        <f t="shared" si="12"/>
+      <c r="AP18" s="9">
+        <f t="shared" si="28"/>
         <v>39068</v>
       </c>
-      <c r="AH18" s="9">
-        <f>SUM(AH13:AH16)</f>
+      <c r="AQ18" s="9">
+        <f>SUM(AQ13:AQ16)</f>
         <v>40479</v>
       </c>
-      <c r="AI18" s="9">
-        <f>SUM(AI13:AI16)</f>
+      <c r="AR18" s="9">
+        <f>SUM(AR13:AR16)</f>
         <v>42440</v>
       </c>
-      <c r="AJ18" s="9">
-        <f>SUM(O18:R18)</f>
+      <c r="AS18" s="9">
+        <f>SUM(AS13:AS16)</f>
         <v>49955</v>
       </c>
-      <c r="AK18" s="9">
-        <f>SUM(S18:V18)</f>
+      <c r="AT18" s="9">
+        <f>SUM(AT13:AT16)</f>
         <v>52961</v>
       </c>
-      <c r="AL18" s="9">
-        <f>SUM(W18:Z18)</f>
-        <v>56497.35</v>
-      </c>
-      <c r="AM18" s="9">
-        <f t="shared" ref="AM18:AQ18" si="13">AL18*1.03</f>
-        <v>58192.270499999999</v>
-      </c>
-      <c r="AN18" s="9">
-        <f t="shared" si="13"/>
-        <v>59938.038614999998</v>
-      </c>
-      <c r="AO18" s="9">
-        <f t="shared" si="13"/>
-        <v>61736.17977345</v>
-      </c>
-      <c r="AP18" s="9">
-        <f t="shared" si="13"/>
-        <v>63588.265166653502</v>
-      </c>
-      <c r="AQ18" s="9">
-        <f t="shared" si="13"/>
-        <v>65495.91312165311</v>
+      <c r="AU18" s="9">
+        <f>SUM(AU13:AU16)</f>
+        <v>57399</v>
+      </c>
+      <c r="AV18" s="9">
+        <f t="shared" ref="AV18:AZ18" si="29">AU18*1.03</f>
+        <v>59120.97</v>
+      </c>
+      <c r="AW18" s="9">
+        <f t="shared" si="29"/>
+        <v>60894.599099999999</v>
+      </c>
+      <c r="AX18" s="9">
+        <f t="shared" si="29"/>
+        <v>62721.437073000001</v>
+      </c>
+      <c r="AY18" s="9">
+        <f t="shared" si="29"/>
+        <v>64603.080185190003</v>
+      </c>
+      <c r="AZ18" s="9">
+        <f t="shared" si="29"/>
+        <v>66541.1725907457</v>
       </c>
     </row>
-    <row r="19" spans="2:132" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:141" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
@@ -2300,70 +2816,103 @@
         <v>4195</v>
       </c>
       <c r="Z19" s="5">
-        <f>+Z18*0.29</f>
-        <v>4350.3914999999997</v>
-      </c>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
+        <f>3343+252+1145</f>
+        <v>4740</v>
+      </c>
+      <c r="AA19" s="5">
+        <f>3607+178+1099</f>
+        <v>4884</v>
+      </c>
+      <c r="AB19" s="5">
+        <f>+AB18-AB20</f>
+        <v>5372.0509999999995</v>
+      </c>
+      <c r="AC19" s="5">
+        <f t="shared" ref="AC19:AH19" si="30">+AC18-AC20</f>
+        <v>5829.5650000000005</v>
+      </c>
       <c r="AD19" s="5">
+        <f t="shared" si="30"/>
+        <v>6874.235999999999</v>
+      </c>
+      <c r="AE19" s="5">
+        <f t="shared" si="30"/>
+        <v>6945.2515000000003</v>
+      </c>
+      <c r="AF19" s="5">
+        <f t="shared" si="30"/>
+        <v>7593.9418500000011</v>
+      </c>
+      <c r="AG19" s="5">
+        <f t="shared" si="30"/>
+        <v>8128.6510500000004</v>
+      </c>
+      <c r="AH19" s="5">
+        <f t="shared" si="30"/>
+        <v>9316.6220000000012</v>
+      </c>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5">
         <f>3015+1653+2801</f>
         <v>7469</v>
       </c>
-      <c r="AE19" s="3">
+      <c r="AN19" s="3">
         <f>3612+1581+2888</f>
         <v>8081</v>
       </c>
-      <c r="AF19" s="5">
+      <c r="AO19" s="5">
         <f>3782+1360+2853</f>
         <v>7995</v>
       </c>
-      <c r="AG19" s="5">
+      <c r="AP19" s="5">
         <f>4006+1116+2816</f>
         <v>7938</v>
       </c>
-      <c r="AH19" s="5">
+      <c r="AQ19" s="5">
         <f>(4353+972+2530)</f>
         <v>7855</v>
       </c>
-      <c r="AI19" s="5">
+      <c r="AR19" s="5">
         <f>(5213+972+2692)</f>
         <v>8877</v>
       </c>
-      <c r="AJ19" s="3">
+      <c r="AS19" s="3">
         <f>SUM(O19:R19)</f>
         <v>13564</v>
       </c>
-      <c r="AK19" s="3">
-        <f>AK18*0.2</f>
+      <c r="AT19" s="3">
+        <f>AT18*0.2</f>
         <v>10592.2</v>
       </c>
-      <c r="AL19" s="3">
-        <f t="shared" ref="AL19:AQ19" si="14">AL18*0.2</f>
-        <v>11299.470000000001</v>
-      </c>
-      <c r="AM19" s="3">
-        <f t="shared" si="14"/>
-        <v>11638.454100000001</v>
-      </c>
-      <c r="AN19" s="3">
-        <f t="shared" si="14"/>
-        <v>11987.607723000001</v>
-      </c>
-      <c r="AO19" s="3">
-        <f t="shared" si="14"/>
-        <v>12347.235954690001</v>
-      </c>
-      <c r="AP19" s="3">
-        <f t="shared" si="14"/>
-        <v>12717.653033330702</v>
-      </c>
-      <c r="AQ19" s="3">
-        <f t="shared" si="14"/>
-        <v>13099.182624330622</v>
+      <c r="AU19" s="3">
+        <f t="shared" ref="AU19:AZ19" si="31">AU18*0.2</f>
+        <v>11479.800000000001</v>
+      </c>
+      <c r="AV19" s="3">
+        <f t="shared" si="31"/>
+        <v>11824.194000000001</v>
+      </c>
+      <c r="AW19" s="3">
+        <f t="shared" si="31"/>
+        <v>12178.919820000001</v>
+      </c>
+      <c r="AX19" s="3">
+        <f t="shared" si="31"/>
+        <v>12544.287414600001</v>
+      </c>
+      <c r="AY19" s="3">
+        <f t="shared" si="31"/>
+        <v>12920.616037038002</v>
+      </c>
+      <c r="AZ19" s="3">
+        <f t="shared" si="31"/>
+        <v>13308.23451814914</v>
       </c>
     </row>
-    <row r="20" spans="2:132" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:141" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
@@ -2372,7 +2921,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5">
-        <f t="shared" ref="G20" si="15">G18-G19</f>
+        <f t="shared" ref="G20" si="32">G18-G19</f>
         <v>7487</v>
       </c>
       <c r="H20" s="5">
@@ -2388,27 +2937,27 @@
         <v>9105</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" ref="K20:O20" si="16">K18-K19</f>
+        <f t="shared" ref="K20:O20" si="33">K18-K19</f>
         <v>7625</v>
       </c>
       <c r="L20" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="33"/>
         <v>8201</v>
       </c>
       <c r="M20" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="33"/>
         <v>8295</v>
       </c>
       <c r="N20" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="33"/>
         <v>9444</v>
       </c>
       <c r="O20" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="33"/>
         <v>8408</v>
       </c>
       <c r="P20" s="5">
-        <f t="shared" ref="P20" si="17">P18*0.8</f>
+        <f t="shared" ref="P20" si="34">P18*0.8</f>
         <v>9820</v>
       </c>
       <c r="Q20" s="5">
@@ -2416,102 +2965,135 @@
         <v>8959</v>
       </c>
       <c r="R20" s="5">
-        <f t="shared" ref="R20:S20" si="18">+R18-R19</f>
+        <f t="shared" ref="R20:S20" si="35">+R18-R19</f>
         <v>10107</v>
       </c>
       <c r="S20" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>8843</v>
       </c>
       <c r="T20" s="5">
-        <f t="shared" ref="T20:Z20" si="19">+T18-T19</f>
+        <f t="shared" ref="T20:AA20" si="36">+T18-T19</f>
         <v>9201</v>
       </c>
       <c r="U20" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>9411</v>
       </c>
       <c r="V20" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>10364</v>
       </c>
       <c r="W20" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>9401</v>
       </c>
       <c r="X20" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>9974</v>
       </c>
       <c r="Y20" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>9935</v>
       </c>
       <c r="Z20" s="5">
-        <f t="shared" si="19"/>
-        <v>10650.958500000001</v>
-      </c>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
+        <f t="shared" si="36"/>
+        <v>11163</v>
+      </c>
+      <c r="AA20" s="5">
+        <f t="shared" si="36"/>
+        <v>10042</v>
+      </c>
+      <c r="AB20" s="5">
+        <f>+AB18*0.66</f>
+        <v>10428.099</v>
+      </c>
+      <c r="AC20" s="5">
+        <f>+AC18*0.65</f>
+        <v>10826.335000000001</v>
+      </c>
       <c r="AD20" s="5">
-        <f t="shared" ref="AD20:AF20" si="20">AD18-AD19</f>
+        <f>+AD18*0.64</f>
+        <v>12220.864</v>
+      </c>
+      <c r="AE20" s="5">
+        <f>+AE18*0.63</f>
+        <v>11825.6985</v>
+      </c>
+      <c r="AF20" s="5">
+        <f>+AF18*0.62</f>
+        <v>12390.115650000002</v>
+      </c>
+      <c r="AG20" s="5">
+        <f>+AG18*0.61</f>
+        <v>12714.043949999999</v>
+      </c>
+      <c r="AH20" s="5">
+        <f>+AH18*0.6</f>
+        <v>13974.932999999999</v>
+      </c>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5">
+        <f t="shared" ref="AM20:AO20" si="37">AM18-AM19</f>
         <v>30259</v>
       </c>
-      <c r="AE20" s="5">
-        <f t="shared" si="20"/>
+      <c r="AN20" s="5">
+        <f t="shared" si="37"/>
         <v>31750</v>
       </c>
-      <c r="AF20" s="5">
-        <f t="shared" si="20"/>
+      <c r="AO20" s="5">
+        <f t="shared" si="37"/>
         <v>31511</v>
       </c>
-      <c r="AG20" s="5">
-        <f t="shared" ref="AG20" si="21">AG18-AG19</f>
+      <c r="AP20" s="5">
+        <f t="shared" ref="AP20" si="38">AP18-AP19</f>
         <v>31130</v>
       </c>
-      <c r="AH20" s="5">
-        <f>AH18-AH19</f>
+      <c r="AQ20" s="5">
+        <f>AQ18-AQ19</f>
         <v>32624</v>
       </c>
-      <c r="AI20" s="5">
-        <f t="shared" ref="AI20" si="22">AI18-AI19</f>
+      <c r="AR20" s="5">
+        <f t="shared" ref="AR20" si="39">AR18-AR19</f>
         <v>33563</v>
       </c>
-      <c r="AJ20" s="3">
-        <f>AJ18-AJ19</f>
+      <c r="AS20" s="3">
+        <f>AS18-AS19</f>
         <v>36391</v>
       </c>
-      <c r="AK20" s="3">
-        <f t="shared" ref="AK20:AQ20" si="23">AK18-AK19</f>
+      <c r="AT20" s="3">
+        <f t="shared" ref="AT20:AZ20" si="40">AT18-AT19</f>
         <v>42368.800000000003</v>
       </c>
-      <c r="AL20" s="3">
-        <f t="shared" si="23"/>
-        <v>45197.88</v>
-      </c>
-      <c r="AM20" s="3">
-        <f t="shared" si="23"/>
-        <v>46553.816399999996</v>
-      </c>
-      <c r="AN20" s="3">
-        <f t="shared" si="23"/>
-        <v>47950.430891999997</v>
-      </c>
-      <c r="AO20" s="3">
-        <f t="shared" si="23"/>
-        <v>49388.943818760003</v>
-      </c>
-      <c r="AP20" s="3">
-        <f t="shared" si="23"/>
-        <v>50870.6121333228</v>
-      </c>
-      <c r="AQ20" s="3">
-        <f t="shared" si="23"/>
-        <v>52396.730497322489</v>
+      <c r="AU20" s="3">
+        <f t="shared" si="40"/>
+        <v>45919.199999999997</v>
+      </c>
+      <c r="AV20" s="3">
+        <f t="shared" si="40"/>
+        <v>47296.775999999998</v>
+      </c>
+      <c r="AW20" s="3">
+        <f t="shared" si="40"/>
+        <v>48715.679279999997</v>
+      </c>
+      <c r="AX20" s="3">
+        <f t="shared" si="40"/>
+        <v>50177.149658399998</v>
+      </c>
+      <c r="AY20" s="3">
+        <f t="shared" si="40"/>
+        <v>51682.464148152001</v>
+      </c>
+      <c r="AZ20" s="3">
+        <f t="shared" si="40"/>
+        <v>53232.93807259656</v>
       </c>
     </row>
-    <row r="21" spans="2:132" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:141" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>19</v>
       </c>
@@ -2577,64 +3159,95 @@
         <v>2119</v>
       </c>
       <c r="Z21" s="5">
-        <f t="shared" ref="Z21:Z23" si="24">+V21</f>
-        <v>2114</v>
-      </c>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
+        <v>2306</v>
+      </c>
+      <c r="AA21" s="5">
+        <v>2063</v>
+      </c>
+      <c r="AB21" s="5">
+        <f t="shared" ref="AB21:AB22" si="41">+X21*1.01</f>
+        <v>2211.9</v>
+      </c>
+      <c r="AC21" s="5">
+        <f t="shared" ref="AC21:AC23" si="42">+Y21*1.01</f>
+        <v>2140.19</v>
+      </c>
       <c r="AD21" s="5">
+        <f t="shared" ref="AD21:AD23" si="43">+Z21*1.01</f>
+        <v>2329.06</v>
+      </c>
+      <c r="AE21" s="5">
+        <f t="shared" ref="AE21:AE23" si="44">+AA21*1.01</f>
+        <v>2083.63</v>
+      </c>
+      <c r="AF21" s="5">
+        <f t="shared" ref="AF21:AF23" si="45">+AB21*1.01</f>
+        <v>2234.0190000000002</v>
+      </c>
+      <c r="AG21" s="5">
+        <f t="shared" ref="AG21:AG23" si="46">+AC21*1.01</f>
+        <v>2161.5918999999999</v>
+      </c>
+      <c r="AH21" s="5">
+        <f t="shared" ref="AH21:AH23" si="47">+AD21*1.01</f>
+        <v>2352.3505999999998</v>
+      </c>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5">
         <v>8197</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AN21" s="3">
         <v>8431</v>
       </c>
-      <c r="AF21" s="5">
+      <c r="AO21" s="5">
         <v>8509</v>
       </c>
-      <c r="AG21" s="5">
+      <c r="AP21" s="5">
         <v>8094</v>
       </c>
-      <c r="AH21" s="5">
+      <c r="AQ21" s="5">
         <v>7682</v>
       </c>
-      <c r="AI21" s="5">
+      <c r="AR21" s="5">
         <v>8047</v>
       </c>
-      <c r="AJ21" s="3">
-        <f t="shared" ref="AJ21:AJ23" si="25">SUM(O21:R21)</f>
+      <c r="AS21" s="3">
+        <f t="shared" ref="AS21:AS23" si="48">SUM(O21:R21)</f>
         <v>8832</v>
       </c>
-      <c r="AK21" s="3">
-        <f>AJ21*1.02</f>
+      <c r="AT21" s="3">
+        <f>AS21*1.02</f>
         <v>9008.64</v>
       </c>
-      <c r="AL21" s="3">
-        <f t="shared" ref="AL21:AQ21" si="26">AK21*1.02</f>
+      <c r="AU21" s="3">
+        <f t="shared" ref="AU21:AZ21" si="49">AT21*1.02</f>
         <v>9188.8127999999997</v>
       </c>
-      <c r="AM21" s="3">
-        <f t="shared" si="26"/>
+      <c r="AV21" s="3">
+        <f t="shared" si="49"/>
         <v>9372.5890560000007</v>
       </c>
-      <c r="AN21" s="3">
-        <f t="shared" si="26"/>
+      <c r="AW21" s="3">
+        <f t="shared" si="49"/>
         <v>9560.040837120001</v>
       </c>
-      <c r="AO21" s="3">
-        <f t="shared" si="26"/>
+      <c r="AX21" s="3">
+        <f t="shared" si="49"/>
         <v>9751.241653862402</v>
       </c>
-      <c r="AP21" s="3">
-        <f t="shared" si="26"/>
+      <c r="AY21" s="3">
+        <f t="shared" si="49"/>
         <v>9946.2664869396503</v>
       </c>
-      <c r="AQ21" s="3">
-        <f t="shared" si="26"/>
+      <c r="AZ21" s="3">
+        <f t="shared" si="49"/>
         <v>10145.191816678444</v>
       </c>
     </row>
-    <row r="22" spans="2:132" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:141" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>20</v>
       </c>
@@ -2700,64 +3313,95 @@
         <v>2429</v>
       </c>
       <c r="Z22" s="5">
-        <f t="shared" si="24"/>
-        <v>2226</v>
-      </c>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
+        <v>2654</v>
+      </c>
+      <c r="AA22" s="5">
+        <v>2491</v>
+      </c>
+      <c r="AB22" s="5">
+        <f>+X22*1.01</f>
+        <v>2495.71</v>
+      </c>
+      <c r="AC22" s="5">
+        <f t="shared" si="42"/>
+        <v>2453.29</v>
+      </c>
       <c r="AD22" s="5">
+        <f t="shared" si="43"/>
+        <v>2680.54</v>
+      </c>
+      <c r="AE22" s="5">
+        <f t="shared" si="44"/>
+        <v>2515.91</v>
+      </c>
+      <c r="AF22" s="5">
+        <f t="shared" si="45"/>
+        <v>2520.6671000000001</v>
+      </c>
+      <c r="AG22" s="5">
+        <f t="shared" si="46"/>
+        <v>2477.8229000000001</v>
+      </c>
+      <c r="AH22" s="5">
+        <f t="shared" si="47"/>
+        <v>2707.3454000000002</v>
+      </c>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5">
         <v>6159</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AN22" s="3">
         <v>6091</v>
       </c>
-      <c r="AF22" s="5">
+      <c r="AO22" s="5">
         <v>6026</v>
       </c>
-      <c r="AG22" s="5">
+      <c r="AP22" s="5">
         <v>6067</v>
       </c>
-      <c r="AH22" s="5">
+      <c r="AQ22" s="5">
         <v>6527</v>
       </c>
-      <c r="AI22" s="5">
+      <c r="AR22" s="5">
         <v>7219</v>
       </c>
-      <c r="AJ22" s="3">
-        <f t="shared" si="25"/>
+      <c r="AS22" s="3">
+        <f t="shared" si="48"/>
         <v>8686</v>
       </c>
-      <c r="AK22" s="3">
-        <f t="shared" ref="AK22:AQ22" si="27">AJ22*1.01</f>
+      <c r="AT22" s="3">
+        <f t="shared" ref="AT22:AZ22" si="50">AS22*1.01</f>
         <v>8772.86</v>
       </c>
-      <c r="AL22" s="3">
-        <f t="shared" si="27"/>
+      <c r="AU22" s="3">
+        <f t="shared" si="50"/>
         <v>8860.588600000001</v>
       </c>
-      <c r="AM22" s="3">
-        <f t="shared" si="27"/>
+      <c r="AV22" s="3">
+        <f t="shared" si="50"/>
         <v>8949.1944860000003</v>
       </c>
-      <c r="AN22" s="3">
-        <f t="shared" si="27"/>
+      <c r="AW22" s="3">
+        <f t="shared" si="50"/>
         <v>9038.6864308599997</v>
       </c>
-      <c r="AO22" s="3">
-        <f t="shared" si="27"/>
+      <c r="AX22" s="3">
+        <f t="shared" si="50"/>
         <v>9129.0732951686005</v>
       </c>
-      <c r="AP22" s="3">
-        <f t="shared" si="27"/>
+      <c r="AY22" s="3">
+        <f t="shared" si="50"/>
         <v>9220.3640281202861</v>
       </c>
-      <c r="AQ22" s="3">
-        <f t="shared" si="27"/>
+      <c r="AZ22" s="3">
+        <f t="shared" si="50"/>
         <v>9312.5676684014888</v>
       </c>
     </row>
-    <row r="23" spans="2:132" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:141" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>21</v>
       </c>
@@ -2823,109 +3467,140 @@
         <v>390</v>
       </c>
       <c r="Z23" s="5">
-        <f t="shared" si="24"/>
-        <v>402</v>
-      </c>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
+        <v>467</v>
+      </c>
+      <c r="AA23" s="5">
+        <v>376</v>
+      </c>
+      <c r="AB23" s="5">
+        <f t="shared" ref="AB23" si="51">+X23*1.01</f>
+        <v>390.87</v>
+      </c>
+      <c r="AC23" s="5">
+        <f t="shared" si="42"/>
+        <v>393.9</v>
+      </c>
       <c r="AD23" s="5">
+        <f t="shared" si="43"/>
+        <v>471.67</v>
+      </c>
+      <c r="AE23" s="5">
+        <f t="shared" si="44"/>
+        <v>379.76</v>
+      </c>
+      <c r="AF23" s="5">
+        <f t="shared" si="45"/>
+        <v>394.77870000000001</v>
+      </c>
+      <c r="AG23" s="5">
+        <f t="shared" si="46"/>
+        <v>397.839</v>
+      </c>
+      <c r="AH23" s="5">
+        <f t="shared" si="47"/>
+        <v>476.38670000000002</v>
+      </c>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5">
         <v>1176</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AN23" s="3">
         <v>1289</v>
       </c>
-      <c r="AF23" s="5">
+      <c r="AO23" s="5">
         <v>1265</v>
       </c>
-      <c r="AG23" s="5">
+      <c r="AP23" s="5">
         <v>1181</v>
       </c>
-      <c r="AH23" s="5">
+      <c r="AQ23" s="5">
         <v>1254</v>
       </c>
-      <c r="AI23" s="5">
+      <c r="AR23" s="5">
         <v>1317</v>
       </c>
-      <c r="AJ23" s="3">
-        <f t="shared" si="25"/>
+      <c r="AS23" s="3">
+        <f t="shared" si="48"/>
         <v>1579</v>
       </c>
-      <c r="AK23" s="3">
-        <f t="shared" ref="AK23:AQ23" si="28">AJ23*1.01</f>
+      <c r="AT23" s="3">
+        <f t="shared" ref="AT23:AZ23" si="52">AS23*1.01</f>
         <v>1594.79</v>
       </c>
-      <c r="AL23" s="3">
-        <f t="shared" si="28"/>
+      <c r="AU23" s="3">
+        <f t="shared" si="52"/>
         <v>1610.7379000000001</v>
       </c>
-      <c r="AM23" s="3">
-        <f t="shared" si="28"/>
+      <c r="AV23" s="3">
+        <f t="shared" si="52"/>
         <v>1626.8452790000001</v>
       </c>
-      <c r="AN23" s="3">
-        <f t="shared" si="28"/>
+      <c r="AW23" s="3">
+        <f t="shared" si="52"/>
         <v>1643.1137317900002</v>
       </c>
-      <c r="AO23" s="3">
-        <f t="shared" si="28"/>
+      <c r="AX23" s="3">
+        <f t="shared" si="52"/>
         <v>1659.5448691079002</v>
       </c>
-      <c r="AP23" s="3">
-        <f t="shared" si="28"/>
+      <c r="AY23" s="3">
+        <f t="shared" si="52"/>
         <v>1676.1403177989794</v>
       </c>
-      <c r="AQ23" s="3">
-        <f t="shared" si="28"/>
+      <c r="AZ23" s="3">
+        <f t="shared" si="52"/>
         <v>1692.9017209769693</v>
       </c>
     </row>
-    <row r="24" spans="2:132" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:141" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="5">
-        <f t="shared" ref="C24:M24" si="29">SUM(C21:C23)</f>
+        <f t="shared" ref="C24:M24" si="53">SUM(C21:C23)</f>
         <v>0</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="E24" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" ref="G24" si="30">SUM(G21:G23)</f>
+        <f t="shared" ref="G24" si="54">SUM(G21:G23)</f>
         <v>3738</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>3761</v>
       </c>
       <c r="I24" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>3866</v>
       </c>
       <c r="J24" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>4098</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>3836</v>
       </c>
       <c r="L24" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>4027</v>
       </c>
       <c r="M24" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>4155</v>
       </c>
       <c r="N24" s="5">
@@ -2933,159 +3608,192 @@
         <v>4567</v>
       </c>
       <c r="O24" s="5">
-        <f t="shared" ref="O24:T24" si="31">SUM(O21:O23)</f>
+        <f t="shared" ref="O24:T24" si="55">SUM(O21:O23)</f>
         <v>4681</v>
       </c>
       <c r="P24" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="55"/>
         <v>4740</v>
       </c>
       <c r="Q24" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="55"/>
         <v>4698</v>
       </c>
       <c r="R24" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="55"/>
         <v>4978</v>
       </c>
       <c r="S24" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="55"/>
         <v>4635</v>
       </c>
       <c r="T24" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="55"/>
         <v>4694</v>
       </c>
       <c r="U24" s="5">
-        <f t="shared" ref="U24:Z24" si="32">SUM(U21:U23)</f>
+        <f t="shared" ref="U24:AA24" si="56">SUM(U21:U23)</f>
         <v>4667</v>
       </c>
       <c r="V24" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="56"/>
         <v>4742</v>
       </c>
       <c r="W24" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="56"/>
         <v>4700</v>
       </c>
       <c r="X24" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="56"/>
         <v>5048</v>
       </c>
       <c r="Y24" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="56"/>
         <v>4938</v>
       </c>
       <c r="Z24" s="5">
-        <f t="shared" si="32"/>
-        <v>4742</v>
-      </c>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
+        <f t="shared" si="56"/>
+        <v>5427</v>
+      </c>
+      <c r="AA24" s="5">
+        <f t="shared" si="56"/>
+        <v>4930</v>
+      </c>
+      <c r="AB24" s="5">
+        <f t="shared" ref="AB24:AH24" si="57">SUM(AB21:AB23)</f>
+        <v>5098.4800000000005</v>
+      </c>
+      <c r="AC24" s="5">
+        <f t="shared" si="57"/>
+        <v>4987.3799999999992</v>
+      </c>
       <c r="AD24" s="5">
-        <f t="shared" ref="AD24:AF24" si="33">SUM(AD21:AD23)</f>
+        <f t="shared" si="57"/>
+        <v>5481.27</v>
+      </c>
+      <c r="AE24" s="5">
+        <f t="shared" si="57"/>
+        <v>4979.3</v>
+      </c>
+      <c r="AF24" s="5">
+        <f t="shared" si="57"/>
+        <v>5149.4648000000007</v>
+      </c>
+      <c r="AG24" s="5">
+        <f t="shared" si="57"/>
+        <v>5037.2538000000004</v>
+      </c>
+      <c r="AH24" s="5">
+        <f t="shared" si="57"/>
+        <v>5536.0826999999999</v>
+      </c>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5">
+        <f t="shared" ref="AM24:AO24" si="58">SUM(AM21:AM23)</f>
         <v>15532</v>
       </c>
-      <c r="AE24" s="5">
-        <f t="shared" si="33"/>
+      <c r="AN24" s="5">
+        <f t="shared" si="58"/>
         <v>15811</v>
       </c>
-      <c r="AF24" s="5">
-        <f t="shared" si="33"/>
+      <c r="AO24" s="5">
+        <f t="shared" si="58"/>
         <v>15800</v>
       </c>
-      <c r="AG24" s="5">
-        <f t="shared" ref="AG24" si="34">SUM(AG21:AG23)</f>
+      <c r="AP24" s="5">
+        <f t="shared" ref="AP24" si="59">SUM(AP21:AP23)</f>
         <v>15342</v>
       </c>
-      <c r="AH24" s="5">
-        <f>SUM(AH21:AH23)</f>
+      <c r="AQ24" s="5">
+        <f>SUM(AQ21:AQ23)</f>
         <v>15463</v>
       </c>
-      <c r="AI24" s="5">
-        <f>SUM(AI21:AI23)</f>
+      <c r="AR24" s="5">
+        <f>SUM(AR21:AR23)</f>
         <v>16583</v>
       </c>
-      <c r="AJ24" s="5">
-        <f t="shared" ref="AJ24" si="35">SUM(AJ21:AJ23)</f>
+      <c r="AS24" s="5">
+        <f t="shared" ref="AS24" si="60">SUM(AS21:AS23)</f>
         <v>19097</v>
       </c>
-      <c r="AK24" s="5">
-        <f t="shared" ref="AK24" si="36">SUM(AK21:AK23)</f>
+      <c r="AT24" s="5">
+        <f t="shared" ref="AT24" si="61">SUM(AT21:AT23)</f>
         <v>19376.29</v>
       </c>
-      <c r="AL24" s="5">
-        <f t="shared" ref="AL24" si="37">SUM(AL21:AL23)</f>
+      <c r="AU24" s="5">
+        <f t="shared" ref="AU24" si="62">SUM(AU21:AU23)</f>
         <v>19660.139300000003</v>
       </c>
-      <c r="AM24" s="5">
-        <f t="shared" ref="AM24" si="38">SUM(AM21:AM23)</f>
+      <c r="AV24" s="5">
+        <f t="shared" ref="AV24" si="63">SUM(AV21:AV23)</f>
         <v>19948.628821000002</v>
       </c>
-      <c r="AN24" s="5">
-        <f t="shared" ref="AN24" si="39">SUM(AN21:AN23)</f>
+      <c r="AW24" s="5">
+        <f t="shared" ref="AW24" si="64">SUM(AW21:AW23)</f>
         <v>20241.84099977</v>
       </c>
-      <c r="AO24" s="5">
-        <f t="shared" ref="AO24" si="40">SUM(AO21:AO23)</f>
+      <c r="AX24" s="5">
+        <f t="shared" ref="AX24" si="65">SUM(AX21:AX23)</f>
         <v>20539.859818138902</v>
       </c>
-      <c r="AP24" s="5">
-        <f t="shared" ref="AP24" si="41">SUM(AP21:AP23)</f>
+      <c r="AY24" s="5">
+        <f t="shared" ref="AY24" si="66">SUM(AY21:AY23)</f>
         <v>20842.770832858914</v>
       </c>
-      <c r="AQ24" s="5">
-        <f t="shared" ref="AQ24" si="42">SUM(AQ21:AQ23)</f>
+      <c r="AZ24" s="5">
+        <f t="shared" ref="AZ24" si="67">SUM(AZ21:AZ23)</f>
         <v>21150.661206056902</v>
       </c>
     </row>
-    <row r="25" spans="2:132" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:141" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="5">
-        <f t="shared" ref="C25:M25" si="43">C20-C24</f>
+        <f t="shared" ref="C25:M25" si="68">C20-C24</f>
         <v>0</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" ref="G25" si="44">G20-G24</f>
+        <f t="shared" ref="G25" si="69">G20-G24</f>
         <v>3749</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="68"/>
         <v>4100</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="68"/>
         <v>4304</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="68"/>
         <v>5007</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="68"/>
         <v>3789</v>
       </c>
       <c r="L25" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="68"/>
         <v>4174</v>
       </c>
       <c r="M25" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="68"/>
         <v>4140</v>
       </c>
       <c r="N25" s="5">
@@ -3093,114 +3801,147 @@
         <v>4877</v>
       </c>
       <c r="O25" s="5">
-        <f t="shared" ref="O25:T25" si="45">O20-O24</f>
+        <f t="shared" ref="O25:T25" si="70">O20-O24</f>
         <v>3727</v>
       </c>
       <c r="P25" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="70"/>
         <v>5080</v>
       </c>
       <c r="Q25" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="70"/>
         <v>4261</v>
       </c>
       <c r="R25" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="70"/>
         <v>5129</v>
       </c>
       <c r="S25" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="70"/>
         <v>4208</v>
       </c>
       <c r="T25" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="70"/>
         <v>4507</v>
       </c>
       <c r="U25" s="5">
-        <f t="shared" ref="U25:Z25" si="46">U20-U24</f>
+        <f t="shared" ref="U25:AA25" si="71">U20-U24</f>
         <v>4744</v>
       </c>
       <c r="V25" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="71"/>
         <v>5622</v>
       </c>
       <c r="W25" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="71"/>
         <v>4701</v>
       </c>
       <c r="X25" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="71"/>
         <v>4926</v>
       </c>
       <c r="Y25" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="71"/>
         <v>4997</v>
       </c>
       <c r="Z25" s="5">
-        <f t="shared" si="46"/>
-        <v>5908.9585000000006</v>
-      </c>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
+        <f t="shared" si="71"/>
+        <v>5736</v>
+      </c>
+      <c r="AA25" s="5">
+        <f t="shared" si="71"/>
+        <v>5112</v>
+      </c>
+      <c r="AB25" s="5">
+        <f t="shared" ref="AB25:AH25" si="72">AB20-AB24</f>
+        <v>5329.6189999999997</v>
+      </c>
+      <c r="AC25" s="5">
+        <f t="shared" si="72"/>
+        <v>5838.9550000000017</v>
+      </c>
       <c r="AD25" s="5">
-        <f t="shared" ref="AD25:AF25" si="47">AD20-AD24</f>
+        <f t="shared" si="72"/>
+        <v>6739.5939999999991</v>
+      </c>
+      <c r="AE25" s="5">
+        <f t="shared" si="72"/>
+        <v>6846.3985000000002</v>
+      </c>
+      <c r="AF25" s="5">
+        <f t="shared" si="72"/>
+        <v>7240.6508500000009</v>
+      </c>
+      <c r="AG25" s="5">
+        <f t="shared" si="72"/>
+        <v>7676.7901499999989</v>
+      </c>
+      <c r="AH25" s="5">
+        <f t="shared" si="72"/>
+        <v>8438.8502999999982</v>
+      </c>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5">
+        <f t="shared" ref="AM25:AO25" si="73">AM20-AM24</f>
         <v>14727</v>
       </c>
-      <c r="AE25" s="5">
-        <f t="shared" si="47"/>
+      <c r="AN25" s="5">
+        <f t="shared" si="73"/>
         <v>15939</v>
       </c>
-      <c r="AF25" s="5">
-        <f t="shared" si="47"/>
+      <c r="AO25" s="5">
+        <f t="shared" si="73"/>
         <v>15711</v>
       </c>
-      <c r="AG25" s="5">
-        <f t="shared" ref="AG25" si="48">AG20-AG24</f>
+      <c r="AP25" s="5">
+        <f t="shared" ref="AP25" si="74">AP20-AP24</f>
         <v>15788</v>
       </c>
-      <c r="AH25" s="5">
-        <f>AH20-AH24</f>
+      <c r="AQ25" s="5">
+        <f>AQ20-AQ24</f>
         <v>17161</v>
       </c>
-      <c r="AI25" s="5">
-        <f>AI20-AI24</f>
+      <c r="AR25" s="5">
+        <f>AR20-AR24</f>
         <v>16980</v>
       </c>
-      <c r="AJ25" s="5">
-        <f t="shared" ref="AJ25" si="49">AJ20-AJ24</f>
+      <c r="AS25" s="5">
+        <f t="shared" ref="AS25" si="75">AS20-AS24</f>
         <v>17294</v>
       </c>
-      <c r="AK25" s="5">
-        <f t="shared" ref="AK25" si="50">AK20-AK24</f>
+      <c r="AT25" s="5">
+        <f t="shared" ref="AT25" si="76">AT20-AT24</f>
         <v>22992.510000000002</v>
       </c>
-      <c r="AL25" s="5">
-        <f t="shared" ref="AL25" si="51">AL20-AL24</f>
-        <v>25537.740699999995</v>
-      </c>
-      <c r="AM25" s="5">
-        <f t="shared" ref="AM25" si="52">AM20-AM24</f>
-        <v>26605.187578999994</v>
-      </c>
-      <c r="AN25" s="5">
-        <f t="shared" ref="AN25" si="53">AN20-AN24</f>
-        <v>27708.589892229997</v>
-      </c>
-      <c r="AO25" s="5">
-        <f t="shared" ref="AO25" si="54">AO20-AO24</f>
-        <v>28849.0840006211</v>
-      </c>
-      <c r="AP25" s="5">
-        <f t="shared" ref="AP25" si="55">AP20-AP24</f>
-        <v>30027.841300463886</v>
-      </c>
-      <c r="AQ25" s="5">
-        <f t="shared" ref="AQ25" si="56">AQ20-AQ24</f>
-        <v>31246.069291265587</v>
+      <c r="AU25" s="5">
+        <f t="shared" ref="AU25" si="77">AU20-AU24</f>
+        <v>26259.060699999995</v>
+      </c>
+      <c r="AV25" s="5">
+        <f t="shared" ref="AV25" si="78">AV20-AV24</f>
+        <v>27348.147178999996</v>
+      </c>
+      <c r="AW25" s="5">
+        <f t="shared" ref="AW25" si="79">AW20-AW24</f>
+        <v>28473.838280229997</v>
+      </c>
+      <c r="AX25" s="5">
+        <f t="shared" ref="AX25" si="80">AX20-AX24</f>
+        <v>29637.289840261095</v>
+      </c>
+      <c r="AY25" s="5">
+        <f t="shared" ref="AY25" si="81">AY20-AY24</f>
+        <v>30839.693315293087</v>
+      </c>
+      <c r="AZ25" s="5">
+        <f t="shared" ref="AZ25" si="82">AZ20-AZ24</f>
+        <v>32082.276866539658</v>
       </c>
     </row>
-    <row r="26" spans="2:132" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:141" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>24</v>
       </c>
@@ -3276,93 +4017,124 @@
         <v>-910</v>
       </c>
       <c r="Z26" s="5">
-        <f>+Y26+20</f>
-        <v>-890</v>
-      </c>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="5"/>
+        <v>-978</v>
+      </c>
+      <c r="AA26" s="5">
+        <v>-923</v>
+      </c>
+      <c r="AB26" s="5">
+        <f>+AA26</f>
+        <v>-923</v>
+      </c>
+      <c r="AC26" s="5">
+        <f t="shared" ref="AC26:AH26" si="83">+AB26</f>
+        <v>-923</v>
+      </c>
       <c r="AD26" s="5">
+        <f t="shared" si="83"/>
+        <v>-923</v>
+      </c>
+      <c r="AE26" s="5">
+        <f t="shared" si="83"/>
+        <v>-923</v>
+      </c>
+      <c r="AF26" s="5">
+        <f t="shared" si="83"/>
+        <v>-923</v>
+      </c>
+      <c r="AG26" s="5">
+        <f t="shared" si="83"/>
+        <v>-923</v>
+      </c>
+      <c r="AH26" s="5">
+        <f t="shared" si="83"/>
+        <v>-923</v>
+      </c>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5">
         <v>-1798</v>
       </c>
-      <c r="AE26" s="5">
+      <c r="AN26" s="5">
         <v>-2025</v>
       </c>
-      <c r="AF26" s="5">
+      <c r="AO26" s="5">
         <v>-2082</v>
       </c>
-      <c r="AG26" s="5">
+      <c r="AP26" s="5">
         <v>-1995</v>
       </c>
-      <c r="AH26" s="5">
+      <c r="AQ26" s="5">
         <v>-2496</v>
       </c>
-      <c r="AI26" s="5">
+      <c r="AR26" s="5">
         <v>-2755</v>
       </c>
-      <c r="AJ26" s="3">
-        <f t="shared" ref="AJ26:AJ28" si="57">SUM(O26:R26)</f>
+      <c r="AS26" s="3">
+        <f t="shared" ref="AS26:AS28" si="84">SUM(O26:R26)</f>
         <v>-3833</v>
       </c>
-      <c r="AK26" s="3">
-        <f t="shared" ref="AK26:AQ26" si="58">AJ40*$AT$41</f>
+      <c r="AT26" s="3">
+        <f t="shared" ref="AT26:AZ26" si="85">AS40*$BC$41</f>
         <v>0</v>
       </c>
-      <c r="AL26" s="3">
-        <f t="shared" si="58"/>
+      <c r="AU26" s="3">
+        <f t="shared" si="85"/>
         <v>195.43633500000004</v>
       </c>
-      <c r="AM26" s="3">
-        <f t="shared" si="58"/>
-        <v>414.16833979749993</v>
-      </c>
-      <c r="AN26" s="3">
-        <f t="shared" si="58"/>
-        <v>643.83286510727862</v>
-      </c>
-      <c r="AO26" s="3">
-        <f t="shared" si="58"/>
-        <v>884.8284585446454</v>
-      </c>
-      <c r="AP26" s="3">
-        <f t="shared" si="58"/>
-        <v>1137.5667144475542</v>
-      </c>
-      <c r="AQ26" s="3">
-        <f t="shared" si="58"/>
-        <v>1402.4726825743014</v>
+      <c r="AV26" s="3">
+        <f t="shared" si="85"/>
+        <v>420.29955979749997</v>
+      </c>
+      <c r="AW26" s="3">
+        <f t="shared" si="85"/>
+        <v>656.33135707727865</v>
+      </c>
+      <c r="AX26" s="3">
+        <f t="shared" si="85"/>
+        <v>903.9377989943905</v>
+      </c>
+      <c r="AY26" s="3">
+        <f t="shared" si="85"/>
+        <v>1163.538233928062</v>
+      </c>
+      <c r="AZ26" s="3">
+        <f t="shared" si="85"/>
+        <v>1435.5657020964418</v>
       </c>
     </row>
-    <row r="27" spans="2:132" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:141" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" ref="G27" si="59">+G25+G26</f>
+        <f t="shared" ref="G27" si="86">+G25+G26</f>
         <v>3135</v>
       </c>
       <c r="H27" s="5">
-        <f t="shared" ref="H27:J27" si="60">+H25+H26</f>
+        <f t="shared" ref="H27:J27" si="87">+H25+H26</f>
         <v>3500</v>
       </c>
       <c r="I27" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="87"/>
         <v>3719</v>
       </c>
       <c r="J27" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="87"/>
         <v>4310</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" ref="K27" si="61">+K25+K26</f>
+        <f t="shared" ref="K27" si="88">+K25+K26</f>
         <v>3084</v>
       </c>
       <c r="L27" s="5">
-        <f t="shared" ref="L27" si="62">+L25+L26</f>
+        <f t="shared" ref="L27" si="89">+L25+L26</f>
         <v>3495</v>
       </c>
       <c r="M27" s="5">
-        <f t="shared" ref="M27" si="63">+M25+M26</f>
+        <f t="shared" ref="M27" si="90">+M25+M26</f>
         <v>3473</v>
       </c>
       <c r="N27" s="5">
@@ -3370,114 +4142,147 @@
         <v>4173</v>
       </c>
       <c r="O27" s="5">
-        <f t="shared" ref="O27:T27" si="64">+O25+O26</f>
+        <f t="shared" ref="O27:T27" si="91">+O25+O26</f>
         <v>2760</v>
       </c>
       <c r="P27" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="91"/>
         <v>4153</v>
       </c>
       <c r="Q27" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="91"/>
         <v>3353</v>
       </c>
       <c r="R27" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="91"/>
         <v>4098</v>
       </c>
       <c r="S27" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="91"/>
         <v>3287</v>
       </c>
       <c r="T27" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="91"/>
         <v>3605</v>
       </c>
       <c r="U27" s="5">
-        <f t="shared" ref="U27:Z27" si="65">+U25+U26</f>
+        <f t="shared" ref="U27:AH27" si="92">+U25+U26</f>
         <v>3859</v>
       </c>
       <c r="V27" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="92"/>
         <v>4720</v>
       </c>
       <c r="W27" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="92"/>
         <v>3879</v>
       </c>
       <c r="X27" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="92"/>
         <v>4096</v>
       </c>
       <c r="Y27" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="92"/>
         <v>4087</v>
       </c>
       <c r="Z27" s="5">
-        <f t="shared" si="65"/>
-        <v>5018.9585000000006</v>
-      </c>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
+        <f t="shared" si="92"/>
+        <v>4758</v>
+      </c>
+      <c r="AA27" s="5">
+        <f t="shared" si="92"/>
+        <v>4189</v>
+      </c>
+      <c r="AB27" s="5">
+        <f t="shared" si="92"/>
+        <v>4406.6189999999997</v>
+      </c>
+      <c r="AC27" s="5">
+        <f t="shared" si="92"/>
+        <v>4915.9550000000017</v>
+      </c>
       <c r="AD27" s="5">
-        <f t="shared" ref="AD27:AF27" si="66">+AD25+AD26</f>
+        <f t="shared" si="92"/>
+        <v>5816.5939999999991</v>
+      </c>
+      <c r="AE27" s="5">
+        <f t="shared" si="92"/>
+        <v>5923.3985000000002</v>
+      </c>
+      <c r="AF27" s="5">
+        <f t="shared" si="92"/>
+        <v>6317.6508500000009</v>
+      </c>
+      <c r="AG27" s="5">
+        <f t="shared" si="92"/>
+        <v>6753.7901499999989</v>
+      </c>
+      <c r="AH27" s="5">
+        <f t="shared" si="92"/>
+        <v>7515.8502999999982</v>
+      </c>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5">
+        <f t="shared" ref="AM27:AO27" si="93">+AM25+AM26</f>
         <v>12929</v>
       </c>
-      <c r="AE27" s="5">
-        <f t="shared" si="66"/>
+      <c r="AN27" s="5">
+        <f t="shared" si="93"/>
         <v>13914</v>
       </c>
-      <c r="AF27" s="5">
-        <f t="shared" si="66"/>
+      <c r="AO27" s="5">
+        <f t="shared" si="93"/>
         <v>13629</v>
       </c>
-      <c r="AG27" s="5">
-        <f t="shared" ref="AG27:AH27" si="67">+AG25+AG26</f>
+      <c r="AP27" s="5">
+        <f t="shared" ref="AP27:AQ27" si="94">+AP25+AP26</f>
         <v>13793</v>
       </c>
-      <c r="AH27" s="5">
-        <f t="shared" si="67"/>
+      <c r="AQ27" s="5">
+        <f t="shared" si="94"/>
         <v>14665</v>
       </c>
-      <c r="AI27" s="5">
-        <f>+AI25+AI26</f>
+      <c r="AR27" s="5">
+        <f>+AR25+AR26</f>
         <v>14225</v>
       </c>
-      <c r="AJ27" s="5">
-        <f t="shared" ref="AJ27" si="68">+AJ25+AJ26</f>
+      <c r="AS27" s="5">
+        <f t="shared" ref="AS27" si="95">+AS25+AS26</f>
         <v>13461</v>
       </c>
-      <c r="AK27" s="5">
-        <f t="shared" ref="AK27" si="69">+AK25+AK26</f>
+      <c r="AT27" s="5">
+        <f t="shared" ref="AT27" si="96">+AT25+AT26</f>
         <v>22992.510000000002</v>
       </c>
-      <c r="AL27" s="5">
-        <f t="shared" ref="AL27" si="70">+AL25+AL26</f>
-        <v>25733.177034999993</v>
-      </c>
-      <c r="AM27" s="5">
-        <f t="shared" ref="AM27" si="71">+AM25+AM26</f>
-        <v>27019.355918797493</v>
-      </c>
-      <c r="AN27" s="5">
-        <f t="shared" ref="AN27" si="72">+AN25+AN26</f>
-        <v>28352.422757337274</v>
-      </c>
-      <c r="AO27" s="5">
-        <f t="shared" ref="AO27" si="73">+AO25+AO26</f>
-        <v>29733.912459165746</v>
-      </c>
-      <c r="AP27" s="5">
-        <f t="shared" ref="AP27" si="74">+AP25+AP26</f>
-        <v>31165.408014911442</v>
-      </c>
-      <c r="AQ27" s="5">
-        <f t="shared" ref="AQ27" si="75">+AQ25+AQ26</f>
-        <v>32648.541973839889</v>
+      <c r="AU27" s="5">
+        <f t="shared" ref="AU27" si="97">+AU25+AU26</f>
+        <v>26454.497034999993</v>
+      </c>
+      <c r="AV27" s="5">
+        <f t="shared" ref="AV27" si="98">+AV25+AV26</f>
+        <v>27768.446738797495</v>
+      </c>
+      <c r="AW27" s="5">
+        <f t="shared" ref="AW27" si="99">+AW25+AW26</f>
+        <v>29130.169637307274</v>
+      </c>
+      <c r="AX27" s="5">
+        <f t="shared" ref="AX27" si="100">+AX25+AX26</f>
+        <v>30541.227639255485</v>
+      </c>
+      <c r="AY27" s="5">
+        <f t="shared" ref="AY27" si="101">+AY25+AY26</f>
+        <v>32003.231549221149</v>
+      </c>
+      <c r="AZ27" s="5">
+        <f t="shared" ref="AZ27" si="102">+AZ25+AZ26</f>
+        <v>33517.842568636101</v>
       </c>
     </row>
-    <row r="28" spans="2:132" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:141" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
@@ -3539,68 +4344,99 @@
         <v>512</v>
       </c>
       <c r="Z28" s="5">
-        <f>+Z27*0.2</f>
-        <v>1003.7917000000002</v>
-      </c>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
+        <v>724</v>
+      </c>
+      <c r="AA28" s="5">
+        <v>500</v>
+      </c>
+      <c r="AB28" s="5">
+        <f>+AB27*0.15</f>
+        <v>660.99284999999998</v>
+      </c>
+      <c r="AC28" s="5">
+        <f t="shared" ref="AC28:AH28" si="103">+AC27*0.15</f>
+        <v>737.39325000000019</v>
+      </c>
       <c r="AD28" s="5">
+        <f t="shared" si="103"/>
+        <v>872.48909999999989</v>
+      </c>
+      <c r="AE28" s="5">
+        <f t="shared" si="103"/>
+        <v>888.50977499999999</v>
+      </c>
+      <c r="AF28" s="5">
+        <f t="shared" si="103"/>
+        <v>947.64762750000011</v>
+      </c>
+      <c r="AG28" s="5">
+        <f t="shared" si="103"/>
+        <v>1013.0685224999997</v>
+      </c>
+      <c r="AH28" s="5">
+        <f t="shared" si="103"/>
+        <v>1127.3775449999996</v>
+      </c>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AM28" s="5">
         <v>2182</v>
       </c>
-      <c r="AE28" s="3">
+      <c r="AN28" s="3">
         <v>9066</v>
       </c>
-      <c r="AF28" s="5">
+      <c r="AO28" s="5">
         <v>1185</v>
       </c>
-      <c r="AG28" s="5">
+      <c r="AP28" s="5">
         <v>1928</v>
       </c>
-      <c r="AH28" s="5">
+      <c r="AQ28" s="5">
         <v>0</v>
       </c>
-      <c r="AI28" s="5">
+      <c r="AR28" s="5">
         <v>932</v>
       </c>
-      <c r="AJ28" s="3">
-        <f t="shared" si="57"/>
+      <c r="AS28" s="3">
+        <f t="shared" si="84"/>
         <v>623</v>
       </c>
-      <c r="AK28" s="3">
-        <f>AK27*0.15</f>
+      <c r="AT28" s="3">
+        <f>AT27*0.15</f>
         <v>3448.8765000000003</v>
       </c>
-      <c r="AL28" s="3">
-        <f>AL27*0.15</f>
-        <v>3859.9765552499989</v>
-      </c>
-      <c r="AM28" s="3">
-        <f>AM27*0.15</f>
-        <v>4052.9033878196237</v>
-      </c>
-      <c r="AN28" s="3">
-        <f t="shared" ref="AN28:AQ28" si="76">AN27*0.15</f>
-        <v>4252.8634136005912</v>
-      </c>
-      <c r="AO28" s="3">
-        <f>AO27*0.15</f>
-        <v>4460.0868688748615</v>
-      </c>
-      <c r="AP28" s="3">
-        <f t="shared" si="76"/>
-        <v>4674.8112022367159</v>
-      </c>
-      <c r="AQ28" s="3">
-        <f t="shared" si="76"/>
-        <v>4897.2812960759829</v>
+      <c r="AU28" s="3">
+        <f>AU27*0.15</f>
+        <v>3968.1745552499988</v>
+      </c>
+      <c r="AV28" s="3">
+        <f>AV27*0.15</f>
+        <v>4165.2670108196244</v>
+      </c>
+      <c r="AW28" s="3">
+        <f t="shared" ref="AW28:AZ28" si="104">AW27*0.15</f>
+        <v>4369.5254455960912</v>
+      </c>
+      <c r="AX28" s="3">
+        <f>AX27*0.15</f>
+        <v>4581.1841458883227</v>
+      </c>
+      <c r="AY28" s="3">
+        <f t="shared" si="104"/>
+        <v>4800.4847323831718</v>
+      </c>
+      <c r="AZ28" s="3">
+        <f t="shared" si="104"/>
+        <v>5027.6763852954145</v>
       </c>
     </row>
-    <row r="29" spans="2:132" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:141" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" ref="G29" si="77">G27-G28</f>
+        <f t="shared" ref="G29" si="105">G27-G28</f>
         <v>2791</v>
       </c>
       <c r="H29" s="5">
@@ -3616,15 +4452,15 @@
         <v>4186</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" ref="K29:M29" si="78">K27-K28</f>
+        <f t="shared" ref="K29:M29" si="106">K27-K28</f>
         <v>2860</v>
       </c>
       <c r="L29" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="106"/>
         <v>3495</v>
       </c>
       <c r="M29" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="106"/>
         <v>2952</v>
       </c>
       <c r="N29" s="5">
@@ -3632,474 +4468,507 @@
         <v>3738</v>
       </c>
       <c r="O29" s="5">
-        <f t="shared" ref="O29:T29" si="79">O27-O28</f>
+        <f t="shared" ref="O29:T29" si="107">O27-O28</f>
         <v>2652</v>
       </c>
       <c r="P29" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="107"/>
         <v>3750</v>
       </c>
       <c r="Q29" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="107"/>
         <v>3031</v>
       </c>
       <c r="R29" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="107"/>
         <v>4308</v>
       </c>
       <c r="S29" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="107"/>
         <v>2509</v>
       </c>
       <c r="T29" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="107"/>
         <v>2733</v>
       </c>
       <c r="U29" s="5">
-        <f t="shared" ref="U29:Z29" si="80">U27-U28</f>
+        <f t="shared" ref="U29:AH29" si="108">U27-U28</f>
         <v>2934</v>
       </c>
       <c r="V29" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="108"/>
         <v>3562</v>
       </c>
       <c r="W29" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="108"/>
         <v>2957</v>
       </c>
       <c r="X29" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="108"/>
         <v>3857</v>
       </c>
       <c r="Y29" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="108"/>
         <v>3575</v>
       </c>
       <c r="Z29" s="5">
-        <f t="shared" si="80"/>
-        <v>4015.1668000000004</v>
-      </c>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
+        <f t="shared" si="108"/>
+        <v>4034</v>
+      </c>
+      <c r="AA29" s="5">
+        <f t="shared" si="108"/>
+        <v>3689</v>
+      </c>
+      <c r="AB29" s="5">
+        <f t="shared" si="108"/>
+        <v>3745.6261499999996</v>
+      </c>
+      <c r="AC29" s="5">
+        <f t="shared" si="108"/>
+        <v>4178.5617500000017</v>
+      </c>
       <c r="AD29" s="5">
-        <f t="shared" ref="AD29:AF29" si="81">AD27-AD28</f>
+        <f t="shared" si="108"/>
+        <v>4944.1048999999994</v>
+      </c>
+      <c r="AE29" s="5">
+        <f t="shared" si="108"/>
+        <v>5034.8887250000007</v>
+      </c>
+      <c r="AF29" s="5">
+        <f t="shared" si="108"/>
+        <v>5370.0032225000004</v>
+      </c>
+      <c r="AG29" s="5">
+        <f t="shared" si="108"/>
+        <v>5740.7216274999992</v>
+      </c>
+      <c r="AH29" s="5">
+        <f t="shared" si="108"/>
+        <v>6388.4727549999989</v>
+      </c>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AM29" s="5">
+        <f t="shared" ref="AM29:AO29" si="109">AM27-AM28</f>
         <v>10747</v>
       </c>
-      <c r="AE29" s="5">
-        <f t="shared" si="81"/>
+      <c r="AN29" s="5">
+        <f t="shared" si="109"/>
         <v>4848</v>
       </c>
-      <c r="AF29" s="5">
-        <f t="shared" si="81"/>
+      <c r="AO29" s="5">
+        <f t="shared" si="109"/>
         <v>12444</v>
       </c>
-      <c r="AG29" s="5">
-        <f t="shared" ref="AG29" si="82">AG27-AG28</f>
+      <c r="AP29" s="5">
+        <f t="shared" ref="AP29" si="110">AP27-AP28</f>
         <v>11865</v>
       </c>
-      <c r="AH29" s="5">
-        <f>AH27-AH28</f>
+      <c r="AQ29" s="5">
+        <f>AQ27-AQ28</f>
         <v>14665</v>
       </c>
-      <c r="AI29" s="5">
-        <f>AI27-AI28</f>
+      <c r="AR29" s="5">
+        <f>AR27-AR28</f>
         <v>13293</v>
       </c>
-      <c r="AJ29" s="5">
-        <f t="shared" ref="AJ29" si="83">AJ27-AJ28</f>
+      <c r="AS29" s="5">
+        <f t="shared" ref="AS29" si="111">AS27-AS28</f>
         <v>12838</v>
       </c>
-      <c r="AK29" s="5">
-        <f t="shared" ref="AK29" si="84">AK27-AK28</f>
+      <c r="AT29" s="5">
+        <f t="shared" ref="AT29" si="112">AT27-AT28</f>
         <v>19543.633500000004</v>
       </c>
-      <c r="AL29" s="5">
-        <f t="shared" ref="AL29" si="85">AL27-AL28</f>
-        <v>21873.200479749994</v>
-      </c>
-      <c r="AM29" s="5">
-        <f t="shared" ref="AM29" si="86">AM27-AM28</f>
-        <v>22966.452530977869</v>
-      </c>
-      <c r="AN29" s="5">
-        <f t="shared" ref="AN29" si="87">AN27-AN28</f>
-        <v>24099.559343736684</v>
-      </c>
-      <c r="AO29" s="5">
-        <f t="shared" ref="AO29" si="88">AO27-AO28</f>
-        <v>25273.825590290886</v>
-      </c>
-      <c r="AP29" s="5">
-        <f t="shared" ref="AP29" si="89">AP27-AP28</f>
-        <v>26490.596812674725</v>
-      </c>
-      <c r="AQ29" s="5">
-        <f t="shared" ref="AQ29" si="90">AQ27-AQ28</f>
-        <v>27751.260677763905</v>
-      </c>
-      <c r="AR29" s="3">
-        <f t="shared" ref="AR29:BW29" si="91">AQ29*(1+$AT$40)</f>
-        <v>28028.773284541545</v>
-      </c>
-      <c r="AS29" s="3">
-        <f t="shared" si="91"/>
-        <v>28309.061017386961</v>
-      </c>
-      <c r="AT29" s="3">
-        <f t="shared" si="91"/>
-        <v>28592.15162756083</v>
-      </c>
-      <c r="AU29" s="3">
-        <f t="shared" si="91"/>
-        <v>28878.073143836438</v>
-      </c>
-      <c r="AV29" s="3">
-        <f t="shared" si="91"/>
-        <v>29166.853875274803</v>
-      </c>
-      <c r="AW29" s="3">
-        <f t="shared" si="91"/>
-        <v>29458.52241402755</v>
-      </c>
-      <c r="AX29" s="3">
-        <f t="shared" si="91"/>
-        <v>29753.107638167825</v>
-      </c>
-      <c r="AY29" s="3">
-        <f t="shared" si="91"/>
-        <v>30050.638714549503</v>
-      </c>
-      <c r="AZ29" s="3">
-        <f t="shared" si="91"/>
-        <v>30351.145101694998</v>
+      <c r="AU29" s="5">
+        <f t="shared" ref="AU29" si="113">AU27-AU28</f>
+        <v>22486.322479749993</v>
+      </c>
+      <c r="AV29" s="5">
+        <f t="shared" ref="AV29" si="114">AV27-AV28</f>
+        <v>23603.179727977869</v>
+      </c>
+      <c r="AW29" s="5">
+        <f t="shared" ref="AW29" si="115">AW27-AW28</f>
+        <v>24760.644191711181</v>
+      </c>
+      <c r="AX29" s="5">
+        <f t="shared" ref="AX29" si="116">AX27-AX28</f>
+        <v>25960.043493367164</v>
+      </c>
+      <c r="AY29" s="5">
+        <f t="shared" ref="AY29" si="117">AY27-AY28</f>
+        <v>27202.746816837978</v>
+      </c>
+      <c r="AZ29" s="5">
+        <f t="shared" ref="AZ29" si="118">AZ27-AZ28</f>
+        <v>28490.166183340687</v>
       </c>
       <c r="BA29" s="3">
-        <f t="shared" si="91"/>
-        <v>30654.656552711949</v>
+        <f t="shared" ref="BA29:CF29" si="119">AZ29*(1+$BC$40)</f>
+        <v>28775.067845174093</v>
       </c>
       <c r="BB29" s="3">
-        <f t="shared" si="91"/>
-        <v>30961.203118239067</v>
+        <f t="shared" si="119"/>
+        <v>29062.818523625836</v>
       </c>
       <c r="BC29" s="3">
-        <f t="shared" si="91"/>
-        <v>31270.815149421458</v>
+        <f t="shared" si="119"/>
+        <v>29353.446708862095</v>
       </c>
       <c r="BD29" s="3">
-        <f t="shared" si="91"/>
-        <v>31583.523300915673</v>
+        <f t="shared" si="119"/>
+        <v>29646.981175950717</v>
       </c>
       <c r="BE29" s="3">
-        <f t="shared" si="91"/>
-        <v>31899.358533924831</v>
+        <f t="shared" si="119"/>
+        <v>29943.450987710225</v>
       </c>
       <c r="BF29" s="3">
-        <f t="shared" si="91"/>
-        <v>32218.35211926408</v>
+        <f t="shared" si="119"/>
+        <v>30242.885497587326</v>
       </c>
       <c r="BG29" s="3">
-        <f t="shared" si="91"/>
-        <v>32540.535640456721</v>
+        <f t="shared" si="119"/>
+        <v>30545.3143525632</v>
       </c>
       <c r="BH29" s="3">
-        <f t="shared" si="91"/>
-        <v>32865.940996861289</v>
+        <f t="shared" si="119"/>
+        <v>30850.767496088833</v>
       </c>
       <c r="BI29" s="3">
-        <f t="shared" si="91"/>
-        <v>33194.600406829901</v>
+        <f t="shared" si="119"/>
+        <v>31159.275171049721</v>
       </c>
       <c r="BJ29" s="3">
-        <f t="shared" si="91"/>
-        <v>33526.546410898198</v>
+        <f t="shared" si="119"/>
+        <v>31470.867922760219</v>
       </c>
       <c r="BK29" s="3">
-        <f t="shared" si="91"/>
-        <v>33861.811875007181</v>
+        <f t="shared" si="119"/>
+        <v>31785.576601987821</v>
       </c>
       <c r="BL29" s="3">
-        <f t="shared" si="91"/>
-        <v>34200.42999375725</v>
+        <f t="shared" si="119"/>
+        <v>32103.4323680077</v>
       </c>
       <c r="BM29" s="3">
-        <f t="shared" si="91"/>
-        <v>34542.434293694823</v>
+        <f t="shared" si="119"/>
+        <v>32424.466691687776</v>
       </c>
       <c r="BN29" s="3">
-        <f t="shared" si="91"/>
-        <v>34887.858636631769</v>
+        <f t="shared" si="119"/>
+        <v>32748.711358604654</v>
       </c>
       <c r="BO29" s="3">
-        <f t="shared" si="91"/>
-        <v>35236.73722299809</v>
+        <f t="shared" si="119"/>
+        <v>33076.198472190699</v>
       </c>
       <c r="BP29" s="3">
-        <f t="shared" si="91"/>
-        <v>35589.104595228069</v>
+        <f t="shared" si="119"/>
+        <v>33406.96045691261</v>
       </c>
       <c r="BQ29" s="3">
-        <f t="shared" si="91"/>
-        <v>35944.995641180351</v>
+        <f t="shared" si="119"/>
+        <v>33741.030061481739</v>
       </c>
       <c r="BR29" s="3">
-        <f t="shared" si="91"/>
-        <v>36304.445597592152</v>
+        <f t="shared" si="119"/>
+        <v>34078.440362096553</v>
       </c>
       <c r="BS29" s="3">
-        <f t="shared" si="91"/>
-        <v>36667.490053568072</v>
+        <f t="shared" si="119"/>
+        <v>34419.224765717518</v>
       </c>
       <c r="BT29" s="3">
-        <f t="shared" si="91"/>
-        <v>37034.164954103755</v>
+        <f t="shared" si="119"/>
+        <v>34763.417013374696</v>
       </c>
       <c r="BU29" s="3">
-        <f t="shared" si="91"/>
-        <v>37404.50660364479</v>
+        <f t="shared" si="119"/>
+        <v>35111.05118350844</v>
       </c>
       <c r="BV29" s="3">
-        <f t="shared" si="91"/>
-        <v>37778.551669681241</v>
+        <f t="shared" si="119"/>
+        <v>35462.161695343522</v>
       </c>
       <c r="BW29" s="3">
-        <f t="shared" si="91"/>
-        <v>38156.337186378056</v>
+        <f t="shared" si="119"/>
+        <v>35816.783312296961</v>
       </c>
       <c r="BX29" s="3">
-        <f t="shared" ref="BX29:DC29" si="92">BW29*(1+$AT$40)</f>
-        <v>38537.900558241839</v>
+        <f t="shared" si="119"/>
+        <v>36174.951145419931</v>
       </c>
       <c r="BY29" s="3">
-        <f t="shared" si="92"/>
-        <v>38923.279563824261</v>
+        <f t="shared" si="119"/>
+        <v>36536.700656874127</v>
       </c>
       <c r="BZ29" s="3">
-        <f t="shared" si="92"/>
-        <v>39312.512359462504</v>
+        <f t="shared" si="119"/>
+        <v>36902.067663442867</v>
       </c>
       <c r="CA29" s="3">
-        <f t="shared" si="92"/>
-        <v>39705.637483057129</v>
+        <f t="shared" si="119"/>
+        <v>37271.088340077295</v>
       </c>
       <c r="CB29" s="3">
-        <f t="shared" si="92"/>
-        <v>40102.693857887702</v>
+        <f t="shared" si="119"/>
+        <v>37643.799223478069</v>
       </c>
       <c r="CC29" s="3">
-        <f t="shared" si="92"/>
-        <v>40503.720796466579</v>
+        <f t="shared" si="119"/>
+        <v>38020.237215712848</v>
       </c>
       <c r="CD29" s="3">
-        <f t="shared" si="92"/>
-        <v>40908.758004431249</v>
+        <f t="shared" si="119"/>
+        <v>38400.43958786998</v>
       </c>
       <c r="CE29" s="3">
-        <f t="shared" si="92"/>
-        <v>41317.845584475559</v>
+        <f t="shared" si="119"/>
+        <v>38784.443983748679</v>
       </c>
       <c r="CF29" s="3">
-        <f t="shared" si="92"/>
-        <v>41731.024040320313</v>
+        <f t="shared" si="119"/>
+        <v>39172.288423586164</v>
       </c>
       <c r="CG29" s="3">
-        <f t="shared" si="92"/>
-        <v>42148.334280723517</v>
+        <f t="shared" ref="CG29:DL29" si="120">CF29*(1+$BC$40)</f>
+        <v>39564.011307822024</v>
       </c>
       <c r="CH29" s="3">
-        <f t="shared" si="92"/>
-        <v>42569.817623530755</v>
+        <f t="shared" si="120"/>
+        <v>39959.651420900242</v>
       </c>
       <c r="CI29" s="3">
-        <f t="shared" si="92"/>
-        <v>42995.515799766064</v>
+        <f t="shared" si="120"/>
+        <v>40359.247935109248</v>
       </c>
       <c r="CJ29" s="3">
-        <f t="shared" si="92"/>
-        <v>43425.470957763726</v>
+        <f t="shared" si="120"/>
+        <v>40762.840414460341</v>
       </c>
       <c r="CK29" s="3">
-        <f t="shared" si="92"/>
-        <v>43859.725667341365</v>
+        <f t="shared" si="120"/>
+        <v>41170.468818604946</v>
       </c>
       <c r="CL29" s="3">
-        <f t="shared" si="92"/>
-        <v>44298.322924014778</v>
+        <f t="shared" si="120"/>
+        <v>41582.173506790998</v>
       </c>
       <c r="CM29" s="3">
-        <f t="shared" si="92"/>
-        <v>44741.306153254925</v>
+        <f t="shared" si="120"/>
+        <v>41997.995241858909</v>
       </c>
       <c r="CN29" s="3">
-        <f t="shared" si="92"/>
-        <v>45188.719214787474</v>
+        <f t="shared" si="120"/>
+        <v>42417.975194277496</v>
       </c>
       <c r="CO29" s="3">
-        <f t="shared" si="92"/>
-        <v>45640.606406935352</v>
+        <f t="shared" si="120"/>
+        <v>42842.154946220275</v>
       </c>
       <c r="CP29" s="3">
-        <f t="shared" si="92"/>
-        <v>46097.012471004709</v>
+        <f t="shared" si="120"/>
+        <v>43270.576495682479</v>
       </c>
       <c r="CQ29" s="3">
-        <f t="shared" si="92"/>
-        <v>46557.982595714755</v>
+        <f t="shared" si="120"/>
+        <v>43703.282260639302</v>
       </c>
       <c r="CR29" s="3">
-        <f t="shared" si="92"/>
-        <v>47023.562421671901</v>
+        <f t="shared" si="120"/>
+        <v>44140.315083245696</v>
       </c>
       <c r="CS29" s="3">
-        <f t="shared" si="92"/>
-        <v>47493.798045888623</v>
+        <f t="shared" si="120"/>
+        <v>44581.718234078151</v>
       </c>
       <c r="CT29" s="3">
-        <f t="shared" si="92"/>
-        <v>47968.736026347513</v>
+        <f t="shared" si="120"/>
+        <v>45027.535416418934</v>
       </c>
       <c r="CU29" s="3">
-        <f t="shared" si="92"/>
-        <v>48448.423386610986</v>
+        <f t="shared" si="120"/>
+        <v>45477.810770583121</v>
       </c>
       <c r="CV29" s="3">
-        <f t="shared" si="92"/>
-        <v>48932.907620477097</v>
+        <f t="shared" si="120"/>
+        <v>45932.588878288952</v>
       </c>
       <c r="CW29" s="3">
-        <f t="shared" si="92"/>
-        <v>49422.236696681866</v>
+        <f t="shared" si="120"/>
+        <v>46391.914767071845</v>
       </c>
       <c r="CX29" s="3">
-        <f t="shared" si="92"/>
-        <v>49916.459063648683</v>
+        <f t="shared" si="120"/>
+        <v>46855.833914742565</v>
       </c>
       <c r="CY29" s="3">
-        <f t="shared" si="92"/>
-        <v>50415.623654285169</v>
+        <f t="shared" si="120"/>
+        <v>47324.392253889993</v>
       </c>
       <c r="CZ29" s="3">
-        <f t="shared" si="92"/>
-        <v>50919.779890828024</v>
+        <f t="shared" si="120"/>
+        <v>47797.636176428896</v>
       </c>
       <c r="DA29" s="3">
-        <f t="shared" si="92"/>
-        <v>51428.977689736304</v>
+        <f t="shared" si="120"/>
+        <v>48275.612538193185</v>
       </c>
       <c r="DB29" s="3">
-        <f t="shared" si="92"/>
-        <v>51943.267466633668</v>
+        <f t="shared" si="120"/>
+        <v>48758.368663575115</v>
       </c>
       <c r="DC29" s="3">
-        <f t="shared" si="92"/>
-        <v>52462.700141300003</v>
+        <f t="shared" si="120"/>
+        <v>49245.952350210864</v>
       </c>
       <c r="DD29" s="3">
-        <f t="shared" ref="DD29:EB29" si="93">DC29*(1+$AT$40)</f>
-        <v>52987.327142713002</v>
+        <f t="shared" si="120"/>
+        <v>49738.411873712976</v>
       </c>
       <c r="DE29" s="3">
-        <f t="shared" si="93"/>
-        <v>53517.200414140134</v>
+        <f t="shared" si="120"/>
+        <v>50235.795992450105</v>
       </c>
       <c r="DF29" s="3">
-        <f t="shared" si="93"/>
-        <v>54052.372418281535</v>
+        <f t="shared" si="120"/>
+        <v>50738.153952374603</v>
       </c>
       <c r="DG29" s="3">
-        <f t="shared" si="93"/>
-        <v>54592.896142464349</v>
+        <f t="shared" si="120"/>
+        <v>51245.53549189835</v>
       </c>
       <c r="DH29" s="3">
-        <f t="shared" si="93"/>
-        <v>55138.825103888994</v>
+        <f t="shared" si="120"/>
+        <v>51757.990846817331</v>
       </c>
       <c r="DI29" s="3">
-        <f t="shared" si="93"/>
-        <v>55690.213354927888</v>
+        <f t="shared" si="120"/>
+        <v>52275.570755285502</v>
       </c>
       <c r="DJ29" s="3">
-        <f t="shared" si="93"/>
-        <v>56247.115488477168</v>
+        <f t="shared" si="120"/>
+        <v>52798.326462838355</v>
       </c>
       <c r="DK29" s="3">
-        <f t="shared" si="93"/>
-        <v>56809.586643361938</v>
+        <f t="shared" si="120"/>
+        <v>53326.309727466738</v>
       </c>
       <c r="DL29" s="3">
-        <f t="shared" si="93"/>
-        <v>57377.682509795559</v>
+        <f t="shared" si="120"/>
+        <v>53859.572824741408</v>
       </c>
       <c r="DM29" s="3">
-        <f t="shared" si="93"/>
-        <v>57951.459334893516</v>
+        <f t="shared" ref="DM29:EK29" si="121">DL29*(1+$BC$40)</f>
+        <v>54398.16855298882</v>
       </c>
       <c r="DN29" s="3">
-        <f t="shared" si="93"/>
-        <v>58530.973928242449</v>
+        <f t="shared" si="121"/>
+        <v>54942.150238518712</v>
       </c>
       <c r="DO29" s="3">
-        <f t="shared" si="93"/>
-        <v>59116.283667524876</v>
+        <f t="shared" si="121"/>
+        <v>55491.571740903899</v>
       </c>
       <c r="DP29" s="3">
-        <f t="shared" si="93"/>
-        <v>59707.446504200125</v>
+        <f t="shared" si="121"/>
+        <v>56046.487458312935</v>
       </c>
       <c r="DQ29" s="3">
-        <f t="shared" si="93"/>
-        <v>60304.520969242127</v>
+        <f t="shared" si="121"/>
+        <v>56606.952332896064</v>
       </c>
       <c r="DR29" s="3">
-        <f t="shared" si="93"/>
-        <v>60907.566178934547</v>
+        <f t="shared" si="121"/>
+        <v>57173.021856225023</v>
       </c>
       <c r="DS29" s="3">
-        <f t="shared" si="93"/>
-        <v>61516.641840723896</v>
+        <f t="shared" si="121"/>
+        <v>57744.752074787277</v>
       </c>
       <c r="DT29" s="3">
-        <f t="shared" si="93"/>
-        <v>62131.808259131132</v>
+        <f t="shared" si="121"/>
+        <v>58322.199595535152</v>
       </c>
       <c r="DU29" s="3">
-        <f t="shared" si="93"/>
-        <v>62753.126341722447</v>
+        <f t="shared" si="121"/>
+        <v>58905.421591490507</v>
       </c>
       <c r="DV29" s="3">
-        <f t="shared" si="93"/>
-        <v>63380.65760513967</v>
+        <f t="shared" si="121"/>
+        <v>59494.475807405412</v>
       </c>
       <c r="DW29" s="3">
-        <f t="shared" si="93"/>
-        <v>64014.46418119107</v>
+        <f t="shared" si="121"/>
+        <v>60089.420565479464</v>
       </c>
       <c r="DX29" s="3">
-        <f t="shared" si="93"/>
-        <v>64654.608823002978</v>
+        <f t="shared" si="121"/>
+        <v>60690.314771134261</v>
       </c>
       <c r="DY29" s="3">
-        <f t="shared" si="93"/>
-        <v>65301.15491123301</v>
+        <f t="shared" si="121"/>
+        <v>61297.217918845607</v>
       </c>
       <c r="DZ29" s="3">
-        <f t="shared" si="93"/>
-        <v>65954.166460345339</v>
+        <f t="shared" si="121"/>
+        <v>61910.190098034065</v>
       </c>
       <c r="EA29" s="3">
-        <f t="shared" si="93"/>
-        <v>66613.708124948796</v>
+        <f t="shared" si="121"/>
+        <v>62529.291999014407</v>
       </c>
       <c r="EB29" s="3">
-        <f t="shared" si="93"/>
-        <v>67279.845206198283</v>
+        <f t="shared" si="121"/>
+        <v>63154.584919004556</v>
+      </c>
+      <c r="EC29" s="3">
+        <f t="shared" si="121"/>
+        <v>63786.130768194598</v>
+      </c>
+      <c r="ED29" s="3">
+        <f t="shared" si="121"/>
+        <v>64423.992075876544</v>
+      </c>
+      <c r="EE29" s="3">
+        <f t="shared" si="121"/>
+        <v>65068.23199663531</v>
+      </c>
+      <c r="EF29" s="3">
+        <f t="shared" si="121"/>
+        <v>65718.914316601658</v>
+      </c>
+      <c r="EG29" s="3">
+        <f t="shared" si="121"/>
+        <v>66376.103459767677</v>
+      </c>
+      <c r="EH29" s="3">
+        <f t="shared" si="121"/>
+        <v>67039.864494365349</v>
+      </c>
+      <c r="EI29" s="3">
+        <f t="shared" si="121"/>
+        <v>67710.263139308998</v>
+      </c>
+      <c r="EJ29" s="3">
+        <f t="shared" si="121"/>
+        <v>68387.36577070209</v>
+      </c>
+      <c r="EK29" s="3">
+        <f t="shared" si="121"/>
+        <v>69071.239428409113</v>
       </c>
     </row>
-    <row r="30" spans="2:132" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:141" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G30" s="6">
-        <f t="shared" ref="G30" si="94">G29/G31</f>
+        <f t="shared" ref="G30" si="122">G29/G31</f>
         <v>0.89829417444480208</v>
       </c>
       <c r="H30" s="6">
@@ -4115,129 +4984,162 @@
         <v>1.4223581379544683</v>
       </c>
       <c r="K30" s="6">
-        <f t="shared" ref="K30:T30" si="95">K29/K31</f>
+        <f t="shared" ref="K30:T30" si="123">K29/K31</f>
         <v>0.99965047186298495</v>
       </c>
       <c r="L30" s="6">
-        <f t="shared" si="95"/>
+        <f t="shared" si="123"/>
         <v>1.2973273942093542</v>
       </c>
       <c r="M30" s="6">
-        <f t="shared" si="95"/>
+        <f t="shared" si="123"/>
         <v>1.0718954248366013</v>
       </c>
       <c r="N30" s="6">
-        <f t="shared" si="95"/>
+        <f t="shared" si="123"/>
         <v>1.363238512035011</v>
       </c>
       <c r="O30" s="6">
-        <f t="shared" si="95"/>
+        <f t="shared" si="123"/>
         <v>0.96541681834728799</v>
       </c>
       <c r="P30" s="6">
-        <f t="shared" si="95"/>
+        <f t="shared" si="123"/>
         <v>1.3656227239621268</v>
       </c>
       <c r="Q30" s="6">
-        <f t="shared" si="95"/>
+        <f t="shared" si="123"/>
         <v>1.0918587896253602</v>
       </c>
       <c r="R30" s="6">
-        <f t="shared" si="95"/>
+        <f t="shared" si="123"/>
         <v>1.5407725321888412</v>
       </c>
       <c r="S30" s="6">
-        <f t="shared" si="95"/>
+        <f t="shared" si="123"/>
         <v>0.88877081119376555</v>
       </c>
       <c r="T30" s="6">
-        <f t="shared" si="95"/>
+        <f t="shared" si="123"/>
         <v>0.9701810436634718</v>
       </c>
       <c r="U30" s="6">
-        <f t="shared" ref="U30:Z30" si="96">U29/U31</f>
+        <f t="shared" ref="U30:AH30" si="124">U29/U31</f>
         <v>1.0407946080170274</v>
       </c>
       <c r="V30" s="6">
-        <f t="shared" si="96"/>
+        <f t="shared" si="124"/>
         <v>1.2568807339449541</v>
       </c>
       <c r="W30" s="6">
-        <f t="shared" si="96"/>
+        <f t="shared" si="124"/>
         <v>1.0371799368642582</v>
       </c>
       <c r="X30" s="6">
-        <f t="shared" si="96"/>
+        <f t="shared" si="124"/>
         <v>1.3443708609271523</v>
       </c>
       <c r="Y30" s="6">
-        <f t="shared" si="96"/>
+        <f t="shared" si="124"/>
         <v>1.2439109255393179</v>
       </c>
       <c r="Z30" s="6">
-        <f t="shared" si="96"/>
-        <v>1.3970656924147531</v>
-      </c>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="6"/>
+        <f t="shared" si="124"/>
+        <v>1.4050853361198188</v>
+      </c>
+      <c r="AA30" s="6">
+        <f t="shared" si="124"/>
+        <v>1.2681333791680991</v>
+      </c>
+      <c r="AB30" s="6">
+        <f t="shared" si="124"/>
+        <v>1.2875992265383291</v>
+      </c>
+      <c r="AC30" s="6">
+        <f t="shared" si="124"/>
+        <v>1.4364254898590587</v>
+      </c>
       <c r="AD30" s="6">
-        <f t="shared" ref="AD30:AF30" si="97">AD29/AD31</f>
+        <f t="shared" si="124"/>
+        <v>1.6995891715366103</v>
+      </c>
+      <c r="AE30" s="6">
+        <f t="shared" si="124"/>
+        <v>1.7307970866277074</v>
+      </c>
+      <c r="AF30" s="6">
+        <f t="shared" si="124"/>
+        <v>1.8459962951185975</v>
+      </c>
+      <c r="AG30" s="6">
+        <f t="shared" si="124"/>
+        <v>1.9734347292884149</v>
+      </c>
+      <c r="AH30" s="6">
+        <f t="shared" si="124"/>
+        <v>2.1961061378480573</v>
+      </c>
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="6"/>
+      <c r="AM30" s="6">
+        <f t="shared" ref="AM30:AO30" si="125">AM29/AM31</f>
         <v>2.5484941901825944</v>
       </c>
-      <c r="AE30" s="6">
-        <f t="shared" si="97"/>
+      <c r="AN30" s="6">
+        <f t="shared" si="125"/>
         <v>1.1439358187824447</v>
       </c>
-      <c r="AF30" s="6">
-        <f t="shared" si="97"/>
+      <c r="AO30" s="6">
+        <f t="shared" si="125"/>
         <v>3.334405144694534</v>
       </c>
-      <c r="AG30" s="6">
-        <f t="shared" ref="AG30" si="98">AG29/AG31</f>
+      <c r="AP30" s="6">
+        <f t="shared" ref="AP30" si="126">AP29/AP31</f>
         <v>3.6020036429872495</v>
       </c>
-      <c r="AH30" s="6">
-        <f>AH29/AH31</f>
+      <c r="AQ30" s="6">
+        <f>AQ29/AQ31</f>
         <v>4.852746525479815</v>
       </c>
-      <c r="AI30" s="6">
-        <f t="shared" ref="AI30:AJ30" si="99">AI29/AI31</f>
+      <c r="AR30" s="6">
+        <f t="shared" ref="AR30:AS30" si="127">AR29/AR31</f>
         <v>4.7713567839195976</v>
       </c>
-      <c r="AJ30" s="6">
-        <f t="shared" si="99"/>
+      <c r="AS30" s="6">
+        <f t="shared" si="127"/>
         <v>4.6409399005874379</v>
       </c>
-      <c r="AK30" s="6">
-        <f t="shared" ref="AK30:AQ30" si="100">AK29/AK31</f>
+      <c r="AT30" s="6">
+        <f t="shared" ref="AT30:AZ30" si="128">AT29/AT31</f>
         <v>7.0650279258924549</v>
       </c>
-      <c r="AL30" s="6">
-        <f t="shared" si="100"/>
-        <v>7.9071669154089452</v>
-      </c>
-      <c r="AM30" s="6">
-        <f t="shared" si="100"/>
-        <v>8.3023777789346109</v>
-      </c>
-      <c r="AN30" s="6">
-        <f t="shared" si="100"/>
-        <v>8.7119961477584038</v>
-      </c>
-      <c r="AO30" s="6">
-        <f t="shared" si="100"/>
-        <v>9.1364936611986938</v>
-      </c>
-      <c r="AP30" s="6">
-        <f t="shared" si="100"/>
-        <v>9.5763567330048716</v>
-      </c>
-      <c r="AQ30" s="6">
-        <f t="shared" si="100"/>
-        <v>10.03208700506603</v>
+      <c r="AU30" s="6">
+        <f t="shared" si="128"/>
+        <v>8.1288106569362828</v>
+      </c>
+      <c r="AV30" s="6">
+        <f t="shared" si="128"/>
+        <v>8.5325548045107524</v>
+      </c>
+      <c r="AW30" s="6">
+        <f t="shared" si="128"/>
+        <v>8.9509784696651362</v>
+      </c>
+      <c r="AX30" s="6">
+        <f t="shared" si="128"/>
+        <v>9.3845615882032227</v>
+      </c>
+      <c r="AY30" s="6">
+        <f t="shared" si="128"/>
+        <v>9.8337991204113795</v>
+      </c>
+      <c r="AZ30" s="6">
+        <f t="shared" si="128"/>
+        <v>10.299201512278604</v>
       </c>
     </row>
-    <row r="31" spans="2:132" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:141" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>1</v>
       </c>
@@ -4303,64 +5205,95 @@
         <v>2874</v>
       </c>
       <c r="Z31" s="5">
-        <f>+Y31</f>
-        <v>2874</v>
-      </c>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="5"/>
+        <v>2871</v>
+      </c>
+      <c r="AA31" s="5">
+        <v>2909</v>
+      </c>
+      <c r="AB31" s="5">
+        <f>+AA31</f>
+        <v>2909</v>
+      </c>
+      <c r="AC31" s="5">
+        <f t="shared" ref="AC31:AH31" si="129">+AB31</f>
+        <v>2909</v>
+      </c>
       <c r="AD31" s="5">
+        <f t="shared" si="129"/>
+        <v>2909</v>
+      </c>
+      <c r="AE31" s="5">
+        <f t="shared" si="129"/>
+        <v>2909</v>
+      </c>
+      <c r="AF31" s="5">
+        <f t="shared" si="129"/>
+        <v>2909</v>
+      </c>
+      <c r="AG31" s="5">
+        <f t="shared" si="129"/>
+        <v>2909</v>
+      </c>
+      <c r="AH31" s="5">
+        <f t="shared" si="129"/>
+        <v>2909</v>
+      </c>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="5">
         <v>4217</v>
       </c>
-      <c r="AE31" s="3">
+      <c r="AN31" s="3">
         <v>4238</v>
       </c>
-      <c r="AF31" s="5">
+      <c r="AO31" s="5">
         <v>3732</v>
       </c>
-      <c r="AG31" s="5">
+      <c r="AP31" s="5">
         <v>3294</v>
       </c>
-      <c r="AH31" s="5">
+      <c r="AQ31" s="5">
         <v>3022</v>
       </c>
-      <c r="AI31" s="5">
+      <c r="AR31" s="5">
         <v>2786</v>
       </c>
-      <c r="AJ31" s="3">
+      <c r="AS31" s="3">
         <f>AVERAGE(O31:R31)</f>
         <v>2766.25</v>
       </c>
-      <c r="AK31" s="3">
-        <f>AJ31</f>
+      <c r="AT31" s="3">
+        <f>AS31</f>
         <v>2766.25</v>
       </c>
-      <c r="AL31" s="3">
-        <f t="shared" ref="AL31:AQ31" si="101">AK31</f>
+      <c r="AU31" s="3">
+        <f t="shared" ref="AU31:AZ31" si="130">AT31</f>
         <v>2766.25</v>
       </c>
-      <c r="AM31" s="3">
-        <f t="shared" si="101"/>
+      <c r="AV31" s="3">
+        <f t="shared" si="130"/>
         <v>2766.25</v>
       </c>
-      <c r="AN31" s="3">
-        <f t="shared" si="101"/>
+      <c r="AW31" s="3">
+        <f t="shared" si="130"/>
         <v>2766.25</v>
       </c>
-      <c r="AO31" s="3">
-        <f t="shared" si="101"/>
+      <c r="AX31" s="3">
+        <f t="shared" si="130"/>
         <v>2766.25</v>
       </c>
-      <c r="AP31" s="3">
-        <f t="shared" si="101"/>
+      <c r="AY31" s="3">
+        <f t="shared" si="130"/>
         <v>2766.25</v>
       </c>
-      <c r="AQ31" s="3">
-        <f t="shared" si="101"/>
+      <c r="AZ31" s="3">
+        <f t="shared" si="130"/>
         <v>2766.25</v>
       </c>
     </row>
-    <row r="32" spans="2:132" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:141" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>29</v>
       </c>
@@ -4373,11 +5306,11 @@
       <c r="P32" s="4">
         <v>1.21</v>
       </c>
-      <c r="AI32" s="4">
+      <c r="AR32" s="4">
         <v>1.54</v>
       </c>
     </row>
-    <row r="34" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
@@ -4398,43 +5331,43 @@
         <v>5.4600516611739591E-2</v>
       </c>
       <c r="O34" s="7">
-        <f t="shared" ref="O34:R34" si="102">O18/K18-1</f>
+        <f t="shared" ref="O34:R34" si="131">O18/K18-1</f>
         <v>0.17650082236842102</v>
       </c>
       <c r="P34" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="131"/>
         <v>0.18484555984555984</v>
       </c>
       <c r="Q34" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="131"/>
         <v>0.17930181679824986</v>
       </c>
       <c r="R34" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="131"/>
         <v>0.16866554054054061</v>
       </c>
       <c r="S34" s="7">
-        <f t="shared" ref="S34" si="103">S18/O18-1</f>
+        <f t="shared" ref="S34" si="132">S18/O18-1</f>
         <v>8.8073394495412849E-2</v>
       </c>
       <c r="T34" s="7">
-        <f t="shared" ref="T34" si="104">T18/P18-1</f>
+        <f t="shared" ref="T34" si="133">T18/P18-1</f>
         <v>5.425661914460278E-2</v>
       </c>
       <c r="U34" s="7">
-        <f t="shared" ref="U34" si="105">U18/Q18-1</f>
+        <f t="shared" ref="U34" si="134">U18/Q18-1</f>
         <v>7.114050653331172E-2</v>
       </c>
       <c r="V34" s="7">
-        <f t="shared" ref="V34:Z34" si="106">V18/R18-1</f>
+        <f t="shared" ref="V34:AB34" si="135">V18/R18-1</f>
         <v>3.2521500325215058E-2</v>
       </c>
       <c r="W34" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="135"/>
         <v>6.857785272625061E-2</v>
       </c>
       <c r="X34" s="7">
-        <f t="shared" si="106"/>
+        <f t="shared" si="135"/>
         <v>8.6392087164824938E-2</v>
       </c>
       <c r="Y34" s="7">
@@ -4442,62 +5375,95 @@
         <v>6.4006024096385561E-2</v>
       </c>
       <c r="Z34" s="7">
-        <f t="shared" si="106"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="AA34" s="7"/>
-      <c r="AB34" s="7"/>
-      <c r="AC34" s="7"/>
-      <c r="AD34" s="7"/>
-      <c r="AF34" s="13"/>
-      <c r="AG34" s="13">
-        <f t="shared" ref="AG34:AH34" si="107">AG18/AF18-1</f>
+        <f t="shared" si="135"/>
+        <v>0.11310982011618953</v>
+      </c>
+      <c r="AA34" s="7">
+        <f t="shared" si="135"/>
+        <v>0.12166528894566775</v>
+      </c>
+      <c r="AB34" s="7">
+        <f t="shared" si="135"/>
+        <v>0.12384593498826368</v>
+      </c>
+      <c r="AC34" s="7">
+        <f t="shared" ref="AC34" si="136">AC18/Y18-1</f>
+        <v>0.17876150035385718</v>
+      </c>
+      <c r="AD34" s="7">
+        <f t="shared" ref="AD34" si="137">AD18/Z18-1</f>
+        <v>0.20072313399987407</v>
+      </c>
+      <c r="AE34" s="7">
+        <f t="shared" ref="AE34" si="138">AE18/AA18-1</f>
+        <v>0.25760083076510787</v>
+      </c>
+      <c r="AF34" s="7">
+        <f t="shared" ref="AF34" si="139">AF18/AB18-1</f>
+        <v>0.26480175821115637</v>
+      </c>
+      <c r="AG34" s="7">
+        <f t="shared" ref="AG34" si="140">AG18/AC18-1</f>
+        <v>0.25137008507495828</v>
+      </c>
+      <c r="AH34" s="7">
+        <f t="shared" ref="AH34" si="141">AH18/AD18-1</f>
+        <v>0.21976606563987633</v>
+      </c>
+      <c r="AI34" s="7"/>
+      <c r="AJ34" s="7"/>
+      <c r="AK34" s="7"/>
+      <c r="AL34" s="7"/>
+      <c r="AM34" s="7"/>
+      <c r="AO34" s="13"/>
+      <c r="AP34" s="13">
+        <f t="shared" ref="AP34:AQ34" si="142">AP18/AO18-1</f>
         <v>-1.108692350529028E-2</v>
       </c>
-      <c r="AH34" s="13">
-        <f t="shared" si="107"/>
+      <c r="AQ34" s="13">
+        <f t="shared" si="142"/>
         <v>3.6116514794716892E-2</v>
       </c>
-      <c r="AI34" s="13">
-        <f>AI18/AH18-1</f>
+      <c r="AR34" s="13">
+        <f>AR18/AQ18-1</f>
         <v>4.8444872650015958E-2</v>
       </c>
-      <c r="AJ34" s="13">
-        <f t="shared" ref="AJ34:AQ34" si="108">AJ18/AI18-1</f>
+      <c r="AS34" s="13">
+        <f t="shared" ref="AS34:AZ34" si="143">AS18/AR18-1</f>
         <v>0.17707351555136674</v>
       </c>
-      <c r="AK34" s="13">
-        <f t="shared" si="108"/>
+      <c r="AT34" s="13">
+        <f t="shared" si="143"/>
         <v>6.0174156741066964E-2</v>
       </c>
-      <c r="AL34" s="13">
-        <f t="shared" si="108"/>
-        <v>6.6772719548346959E-2</v>
-      </c>
-      <c r="AM34" s="13">
-        <f>AM18/AL18-1</f>
+      <c r="AU34" s="13">
+        <f t="shared" si="143"/>
+        <v>8.3797511376295875E-2</v>
+      </c>
+      <c r="AV34" s="13">
+        <f>AV18/AU18-1</f>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="AN34" s="13">
-        <f t="shared" si="108"/>
+      <c r="AW34" s="13">
+        <f t="shared" si="143"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="AO34" s="13">
-        <f t="shared" si="108"/>
+      <c r="AX34" s="13">
+        <f t="shared" si="143"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="AP34" s="13">
-        <f t="shared" si="108"/>
+      <c r="AY34" s="13">
+        <f t="shared" si="143"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="AQ34" s="13">
-        <f t="shared" si="108"/>
+      <c r="AZ34" s="13">
+        <f t="shared" si="143"/>
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
@@ -4516,58 +5482,73 @@
       <c r="W35" s="7">
         <v>0.08</v>
       </c>
-      <c r="X35" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y35" s="7"/>
-      <c r="Z35" s="7"/>
-      <c r="AA35" s="7"/>
+      <c r="X35" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="Y35" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="Z35" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="AA35" s="7">
+        <v>0.11</v>
+      </c>
       <c r="AB35" s="7"/>
       <c r="AC35" s="7"/>
       <c r="AD35" s="7"/>
-      <c r="AF35" s="13"/>
-      <c r="AG35" s="13"/>
-      <c r="AH35" s="13"/>
-      <c r="AI35" s="13"/>
-      <c r="AJ35" s="13"/>
-      <c r="AK35" s="13"/>
-      <c r="AL35" s="13"/>
-      <c r="AM35" s="13"/>
-      <c r="AN35" s="13"/>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="7"/>
+      <c r="AG35" s="7"/>
+      <c r="AH35" s="7"/>
+      <c r="AI35" s="7"/>
+      <c r="AJ35" s="7"/>
+      <c r="AK35" s="7"/>
+      <c r="AL35" s="7"/>
+      <c r="AM35" s="7"/>
       <c r="AO35" s="13"/>
       <c r="AP35" s="13"/>
       <c r="AQ35" s="13"/>
+      <c r="AR35" s="13"/>
+      <c r="AS35" s="13"/>
+      <c r="AT35" s="13"/>
+      <c r="AU35" s="13"/>
+      <c r="AV35" s="13"/>
+      <c r="AW35" s="13"/>
+      <c r="AX35" s="13"/>
+      <c r="AY35" s="13"/>
+      <c r="AZ35" s="13"/>
     </row>
-    <row r="36" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G36" s="7">
-        <f t="shared" ref="G36:M36" si="109">G20/G18</f>
+        <f t="shared" ref="G36:M36" si="144">G20/G18</f>
         <v>0.79929539874025834</v>
       </c>
       <c r="H36" s="7">
-        <f t="shared" si="109"/>
+        <f t="shared" si="144"/>
         <v>0.80214285714285716</v>
       </c>
       <c r="I36" s="7">
-        <f t="shared" si="109"/>
+        <f t="shared" si="144"/>
         <v>0.8101140307387209</v>
       </c>
       <c r="J36" s="7">
-        <f t="shared" si="109"/>
+        <f t="shared" si="144"/>
         <v>0.81099136011401085</v>
       </c>
       <c r="K36" s="7">
-        <f t="shared" si="109"/>
+        <f t="shared" si="144"/>
         <v>0.78381990131578949</v>
       </c>
       <c r="L36" s="7">
-        <f t="shared" si="109"/>
+        <f t="shared" si="144"/>
         <v>0.79160231660231661</v>
       </c>
       <c r="M36" s="7">
-        <f t="shared" si="109"/>
+        <f t="shared" si="144"/>
         <v>0.78902311423951299</v>
       </c>
       <c r="N36" s="7">
@@ -4575,207 +5556,345 @@
         <v>0.79763513513513518</v>
       </c>
       <c r="O36" s="7">
-        <f t="shared" ref="O36:Z36" si="110">O20/O18</f>
+        <f t="shared" ref="O36:AA36" si="145">O20/O18</f>
         <v>0.73464394932284838</v>
       </c>
       <c r="P36" s="7">
-        <f t="shared" si="110"/>
+        <f t="shared" si="145"/>
         <v>0.8</v>
       </c>
       <c r="Q36" s="7">
-        <f t="shared" si="110"/>
+        <f t="shared" si="145"/>
         <v>0.72261655105662204</v>
       </c>
       <c r="R36" s="7">
-        <f t="shared" si="110"/>
+        <f t="shared" si="145"/>
         <v>0.73043289730432892</v>
       </c>
       <c r="S36" s="7">
-        <f t="shared" si="110"/>
+        <f t="shared" si="145"/>
         <v>0.71011001365132898</v>
       </c>
       <c r="T36" s="7">
-        <f t="shared" si="110"/>
+        <f t="shared" si="145"/>
         <v>0.71099605903716867</v>
       </c>
       <c r="U36" s="7">
-        <f t="shared" si="110"/>
+        <f t="shared" si="145"/>
         <v>0.70865963855421688</v>
       </c>
       <c r="V36" s="7">
-        <f t="shared" si="110"/>
+        <f t="shared" si="145"/>
         <v>0.72541471267585922</v>
       </c>
       <c r="W36" s="7">
-        <f t="shared" si="110"/>
+        <f t="shared" si="145"/>
         <v>0.70647027880063129</v>
       </c>
       <c r="X36" s="7">
-        <f t="shared" si="110"/>
+        <f t="shared" si="145"/>
         <v>0.70943879365530982</v>
       </c>
       <c r="Y36" s="7">
-        <f t="shared" si="110"/>
+        <f t="shared" si="145"/>
         <v>0.70311394196744514</v>
       </c>
       <c r="Z36" s="7">
-        <f t="shared" si="110"/>
-        <v>0.71000000000000008</v>
-      </c>
-      <c r="AA36" s="7"/>
-      <c r="AB36" s="7"/>
-      <c r="AC36" s="7"/>
-      <c r="AD36" s="7"/>
-      <c r="AE36" s="7"/>
+        <f t="shared" si="145"/>
+        <v>0.70194302961705335</v>
+      </c>
+      <c r="AA36" s="7">
+        <f t="shared" si="145"/>
+        <v>0.67278574299879401</v>
+      </c>
+      <c r="AB36" s="7">
+        <f t="shared" ref="AB36:AH36" si="146">AB20/AB18</f>
+        <v>0.66</v>
+      </c>
+      <c r="AC36" s="7">
+        <f t="shared" si="146"/>
+        <v>0.65</v>
+      </c>
+      <c r="AD36" s="7">
+        <f t="shared" si="146"/>
+        <v>0.64</v>
+      </c>
+      <c r="AE36" s="7">
+        <f t="shared" si="146"/>
+        <v>0.63</v>
+      </c>
       <c r="AF36" s="7">
-        <f t="shared" ref="AF36:AH36" si="111">AF20/AF18</f>
+        <f t="shared" si="146"/>
+        <v>0.62</v>
+      </c>
+      <c r="AG36" s="7">
+        <f t="shared" si="146"/>
+        <v>0.61</v>
+      </c>
+      <c r="AH36" s="7">
+        <f t="shared" si="146"/>
+        <v>0.6</v>
+      </c>
+      <c r="AI36" s="7"/>
+      <c r="AJ36" s="7"/>
+      <c r="AK36" s="7"/>
+      <c r="AL36" s="7"/>
+      <c r="AM36" s="7"/>
+      <c r="AN36" s="7"/>
+      <c r="AO36" s="7">
+        <f t="shared" ref="AO36:AQ36" si="147">AO20/AO18</f>
         <v>0.79762567711233734</v>
       </c>
-      <c r="AG36" s="7">
-        <f t="shared" si="111"/>
+      <c r="AP36" s="7">
+        <f t="shared" si="147"/>
         <v>0.79681580833418653</v>
       </c>
-      <c r="AH36" s="7">
-        <f t="shared" si="111"/>
+      <c r="AQ36" s="7">
+        <f t="shared" si="147"/>
         <v>0.80594876355641198</v>
       </c>
-      <c r="AI36" s="7">
-        <f>AI20/AI18</f>
+      <c r="AR36" s="7">
+        <f>AR20/AR18</f>
         <v>0.79083411875589071</v>
       </c>
-      <c r="AJ36" s="7">
-        <f t="shared" ref="AJ36:AQ36" si="112">AJ20/AJ18</f>
+      <c r="AS36" s="7">
+        <f t="shared" ref="AS36:AZ36" si="148">AS20/AS18</f>
         <v>0.72847562806525878</v>
       </c>
-      <c r="AK36" s="7">
-        <f t="shared" si="112"/>
+      <c r="AT36" s="7">
+        <f t="shared" si="148"/>
         <v>0.8</v>
       </c>
-      <c r="AL36" s="7">
-        <f t="shared" si="112"/>
+      <c r="AU36" s="7">
+        <f t="shared" si="148"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="AM36" s="7">
-        <f t="shared" si="112"/>
+      <c r="AV36" s="7">
+        <f t="shared" si="148"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="AN36" s="7">
-        <f t="shared" si="112"/>
+      <c r="AW36" s="7">
+        <f t="shared" si="148"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="AO36" s="7">
-        <f t="shared" si="112"/>
+      <c r="AX36" s="7">
+        <f t="shared" si="148"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="AY36" s="7">
+        <f t="shared" si="148"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="AZ36" s="7">
+        <f t="shared" si="148"/>
         <v>0.8</v>
       </c>
-      <c r="AP36" s="7">
-        <f t="shared" si="112"/>
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="AQ36" s="7">
-        <f t="shared" si="112"/>
-        <v>0.8</v>
-      </c>
     </row>
-    <row r="37" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
-      <c r="W37" s="7"/>
-      <c r="X37" s="7"/>
-      <c r="Y37" s="7"/>
-      <c r="Z37" s="7"/>
-      <c r="AA37" s="7"/>
-      <c r="AB37" s="7"/>
-      <c r="AC37" s="7"/>
-      <c r="AD37" s="7"/>
-      <c r="AE37" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="G37" s="7">
+        <f t="shared" ref="G37:AA37" si="149">+G25/G18</f>
+        <v>0.40023486708658057</v>
+      </c>
+      <c r="H37" s="7">
+        <f t="shared" si="149"/>
+        <v>0.41836734693877553</v>
+      </c>
+      <c r="I37" s="7">
+        <f t="shared" si="149"/>
+        <v>0.4267724343083788</v>
+      </c>
+      <c r="J37" s="7">
+        <f t="shared" si="149"/>
+        <v>0.44597844482052196</v>
+      </c>
+      <c r="K37" s="7">
+        <f t="shared" si="149"/>
+        <v>0.38949424342105265</v>
+      </c>
+      <c r="L37" s="7">
+        <f t="shared" si="149"/>
+        <v>0.40289575289575291</v>
+      </c>
+      <c r="M37" s="7">
+        <f t="shared" si="149"/>
+        <v>0.39379815466565204</v>
+      </c>
+      <c r="N37" s="7">
+        <f t="shared" si="149"/>
+        <v>0.41190878378378376</v>
+      </c>
+      <c r="O37" s="7">
+        <f t="shared" si="149"/>
+        <v>0.32564438619484493</v>
+      </c>
+      <c r="P37" s="7">
+        <f t="shared" si="149"/>
+        <v>0.41384928716904279</v>
+      </c>
+      <c r="Q37" s="7">
+        <f t="shared" si="149"/>
+        <v>0.34368446523632845</v>
+      </c>
+      <c r="R37" s="7">
+        <f t="shared" si="149"/>
+        <v>0.37067283370672832</v>
+      </c>
+      <c r="S37" s="7">
+        <f t="shared" si="149"/>
+        <v>0.33791054364410184</v>
+      </c>
+      <c r="T37" s="7">
+        <f t="shared" si="149"/>
+        <v>0.34827293099451356</v>
+      </c>
+      <c r="U37" s="7">
+        <f t="shared" si="149"/>
+        <v>0.35722891566265058</v>
+      </c>
+      <c r="V37" s="7">
+        <f t="shared" si="149"/>
+        <v>0.39350458458738713</v>
+      </c>
+      <c r="W37" s="7">
+        <f t="shared" si="149"/>
+        <v>0.35327271360937851</v>
+      </c>
+      <c r="X37" s="7">
+        <f t="shared" si="149"/>
+        <v>0.35038053915641226</v>
+      </c>
+      <c r="Y37" s="7">
+        <f t="shared" si="149"/>
+        <v>0.35364472753007786</v>
+      </c>
+      <c r="Z37" s="7">
+        <f t="shared" si="149"/>
+        <v>0.36068666289379364</v>
+      </c>
+      <c r="AA37" s="7">
+        <f>+AA25/AA18</f>
+        <v>0.3424896154361517</v>
+      </c>
+      <c r="AB37" s="7">
+        <f t="shared" ref="AB37:AH37" si="150">+AB25/AB18</f>
+        <v>0.33731445587541892</v>
+      </c>
+      <c r="AC37" s="7">
+        <f t="shared" si="150"/>
+        <v>0.3505637641916679</v>
+      </c>
+      <c r="AD37" s="7">
+        <f t="shared" si="150"/>
+        <v>0.35294887170006961</v>
+      </c>
+      <c r="AE37" s="7">
+        <f t="shared" si="150"/>
+        <v>0.36473372418551003</v>
+      </c>
       <c r="AF37" s="7">
-        <f t="shared" ref="AF37:AH37" si="113">AF25/AF18</f>
+        <f t="shared" si="150"/>
+        <v>0.36232135791242592</v>
+      </c>
+      <c r="AG37" s="7">
+        <f t="shared" si="150"/>
+        <v>0.36832041873663646</v>
+      </c>
+      <c r="AH37" s="7">
+        <f t="shared" si="150"/>
+        <v>0.36231373560073588</v>
+      </c>
+      <c r="AI37" s="7"/>
+      <c r="AJ37" s="7"/>
+      <c r="AK37" s="7"/>
+      <c r="AL37" s="7"/>
+      <c r="AM37" s="7"/>
+      <c r="AN37" s="7"/>
+      <c r="AO37" s="7">
+        <f t="shared" ref="AO37:AQ37" si="151">AO25/AO18</f>
         <v>0.39768642737811977</v>
       </c>
-      <c r="AG37" s="7">
-        <f t="shared" si="113"/>
+      <c r="AP37" s="7">
+        <f t="shared" si="151"/>
         <v>0.40411590048121226</v>
       </c>
-      <c r="AH37" s="7">
-        <f t="shared" si="113"/>
+      <c r="AQ37" s="7">
+        <f t="shared" si="151"/>
         <v>0.42394822006472493</v>
       </c>
-      <c r="AI37" s="7">
-        <f>AI25/AI18</f>
+      <c r="AR37" s="7">
+        <f>AR25/AR18</f>
         <v>0.40009425070688032</v>
       </c>
-      <c r="AJ37" s="7">
-        <f t="shared" ref="AJ37:AQ37" si="114">AJ25/AJ18</f>
+      <c r="AS37" s="7">
+        <f t="shared" ref="AS37:AZ37" si="152">AS25/AS18</f>
         <v>0.34619157241517368</v>
       </c>
-      <c r="AK37" s="7">
-        <f t="shared" si="114"/>
+      <c r="AT37" s="7">
+        <f t="shared" si="152"/>
         <v>0.43414040520382929</v>
       </c>
-      <c r="AL37" s="7">
-        <f t="shared" si="114"/>
-        <v>0.45201661139858762</v>
-      </c>
-      <c r="AM37" s="7">
-        <f t="shared" si="114"/>
-        <v>0.45719452687449263</v>
-      </c>
-      <c r="AN37" s="7">
-        <f t="shared" si="114"/>
-        <v>0.46228723082199236</v>
-      </c>
-      <c r="AO37" s="7">
-        <f t="shared" si="114"/>
-        <v>0.46729622899387457</v>
-      </c>
-      <c r="AP37" s="7">
-        <f t="shared" si="114"/>
-        <v>0.47222299935005729</v>
-      </c>
-      <c r="AQ37" s="7">
-        <f t="shared" si="114"/>
-        <v>0.47706899258322671</v>
+      <c r="AU37" s="7">
+        <f t="shared" si="152"/>
+        <v>0.45748289517238966</v>
+      </c>
+      <c r="AV37" s="7">
+        <f t="shared" si="152"/>
+        <v>0.46257947356073481</v>
+      </c>
+      <c r="AW37" s="7">
+        <f t="shared" si="152"/>
+        <v>0.46759217896271521</v>
+      </c>
+      <c r="AX37" s="7">
+        <f t="shared" si="152"/>
+        <v>0.47252249347805841</v>
+      </c>
+      <c r="AY37" s="7">
+        <f t="shared" si="152"/>
+        <v>0.47737187185020574</v>
+      </c>
+      <c r="AZ37" s="7">
+        <f t="shared" si="152"/>
+        <v>0.48214174198369242</v>
       </c>
     </row>
-    <row r="38" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="G38" s="7">
+        <f t="shared" ref="G38:K38" si="153">G28/G27</f>
+        <v>0.10972886762360447</v>
+      </c>
+      <c r="H38" s="7">
+        <f t="shared" si="153"/>
+        <v>0.15142857142857144</v>
+      </c>
+      <c r="I38" s="7">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="7">
+        <f t="shared" si="153"/>
+        <v>2.877030162412993E-2</v>
+      </c>
       <c r="K38" s="7">
-        <f t="shared" ref="K38:N38" si="115">K28/K27</f>
+        <f t="shared" ref="K38:N38" si="154">K28/K27</f>
         <v>7.2632944228274973E-2</v>
       </c>
       <c r="L38" s="7">
-        <f t="shared" si="115"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="M38" s="7">
-        <f t="shared" si="115"/>
+        <f t="shared" si="154"/>
         <v>0.15001439677512238</v>
       </c>
       <c r="N38" s="7">
-        <f t="shared" si="115"/>
+        <f t="shared" si="154"/>
         <v>0.10424155283968368</v>
       </c>
       <c r="O38" s="7">
@@ -4783,137 +5902,170 @@
         <v>3.9130434782608699E-2</v>
       </c>
       <c r="P38" s="7">
-        <f t="shared" ref="P38:Z38" si="116">P28/P27</f>
+        <f t="shared" ref="P38:AA38" si="155">P28/P27</f>
         <v>9.7038285576691544E-2</v>
       </c>
       <c r="Q38" s="7">
-        <f t="shared" si="116"/>
+        <f t="shared" si="155"/>
         <v>9.6033402922755737E-2</v>
       </c>
       <c r="R38" s="7">
-        <f t="shared" si="116"/>
+        <f t="shared" si="155"/>
         <v>-5.1244509516837483E-2</v>
       </c>
       <c r="S38" s="7">
-        <f t="shared" si="116"/>
+        <f t="shared" si="155"/>
         <v>0.23668999087313661</v>
       </c>
       <c r="T38" s="7">
-        <f t="shared" si="116"/>
+        <f t="shared" si="155"/>
         <v>0.2418862690707351</v>
       </c>
       <c r="U38" s="7">
-        <f t="shared" si="116"/>
+        <f t="shared" si="155"/>
         <v>0.23969940399067116</v>
       </c>
       <c r="V38" s="7">
-        <f t="shared" si="116"/>
+        <f t="shared" si="155"/>
         <v>0.24533898305084745</v>
       </c>
       <c r="W38" s="7">
-        <f t="shared" si="116"/>
+        <f t="shared" si="155"/>
         <v>0.2376901263212168</v>
       </c>
       <c r="X38" s="7">
-        <f t="shared" si="116"/>
+        <f t="shared" si="155"/>
         <v>5.8349609375E-2</v>
       </c>
       <c r="Y38" s="7">
-        <f t="shared" si="116"/>
+        <f t="shared" si="155"/>
         <v>0.12527526302911671</v>
       </c>
       <c r="Z38" s="7">
-        <f t="shared" si="116"/>
-        <v>0.2</v>
-      </c>
-      <c r="AA38" s="7"/>
-      <c r="AB38" s="7"/>
-      <c r="AC38" s="7"/>
-      <c r="AD38" s="7"/>
-      <c r="AE38" s="7"/>
+        <f t="shared" si="155"/>
+        <v>0.15216477511559479</v>
+      </c>
+      <c r="AA38" s="7">
+        <f t="shared" si="155"/>
+        <v>0.11936022917164001</v>
+      </c>
+      <c r="AB38" s="7">
+        <f t="shared" ref="AB38:AH38" si="156">AB28/AB27</f>
+        <v>0.15</v>
+      </c>
+      <c r="AC38" s="7">
+        <f t="shared" si="156"/>
+        <v>0.15</v>
+      </c>
+      <c r="AD38" s="7">
+        <f t="shared" si="156"/>
+        <v>0.15</v>
+      </c>
+      <c r="AE38" s="7">
+        <f t="shared" si="156"/>
+        <v>0.15</v>
+      </c>
       <c r="AF38" s="7">
-        <f t="shared" ref="AF38:AQ38" si="117">AF28/AF27</f>
+        <f t="shared" si="156"/>
+        <v>0.15</v>
+      </c>
+      <c r="AG38" s="7">
+        <f t="shared" si="156"/>
+        <v>0.15</v>
+      </c>
+      <c r="AH38" s="7">
+        <f t="shared" si="156"/>
+        <v>0.15</v>
+      </c>
+      <c r="AI38" s="7"/>
+      <c r="AJ38" s="7"/>
+      <c r="AK38" s="7"/>
+      <c r="AL38" s="7"/>
+      <c r="AM38" s="7"/>
+      <c r="AN38" s="7"/>
+      <c r="AO38" s="7">
+        <f t="shared" ref="AO38:AZ38" si="157">AO28/AO27</f>
         <v>8.6946951353731011E-2</v>
       </c>
-      <c r="AG38" s="7">
-        <f t="shared" si="117"/>
+      <c r="AP38" s="7">
+        <f t="shared" si="157"/>
         <v>0.13978104835786268</v>
       </c>
-      <c r="AH38" s="7">
-        <f t="shared" si="117"/>
+      <c r="AQ38" s="7">
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
-      <c r="AI38" s="7">
-        <f t="shared" si="117"/>
+      <c r="AR38" s="7">
+        <f t="shared" si="157"/>
         <v>6.5518453427065027E-2</v>
       </c>
-      <c r="AJ38" s="7">
-        <f t="shared" si="117"/>
+      <c r="AS38" s="7">
+        <f t="shared" si="157"/>
         <v>4.6281851274050961E-2</v>
       </c>
-      <c r="AK38" s="7">
-        <f t="shared" si="117"/>
+      <c r="AT38" s="7">
+        <f t="shared" si="157"/>
         <v>0.15</v>
       </c>
-      <c r="AL38" s="7">
-        <f t="shared" si="117"/>
+      <c r="AU38" s="7">
+        <f t="shared" si="157"/>
         <v>0.15</v>
       </c>
-      <c r="AM38" s="7">
-        <f t="shared" si="117"/>
+      <c r="AV38" s="7">
+        <f t="shared" si="157"/>
         <v>0.15</v>
       </c>
-      <c r="AN38" s="7">
-        <f t="shared" si="117"/>
+      <c r="AW38" s="7">
+        <f t="shared" si="157"/>
         <v>0.15</v>
       </c>
-      <c r="AO38" s="7">
-        <f t="shared" si="117"/>
+      <c r="AX38" s="7">
+        <f t="shared" si="157"/>
         <v>0.15</v>
       </c>
-      <c r="AP38" s="7">
-        <f t="shared" si="117"/>
+      <c r="AY38" s="7">
+        <f t="shared" si="157"/>
         <v>0.15</v>
       </c>
-      <c r="AQ38" s="7">
-        <f t="shared" si="117"/>
+      <c r="AZ38" s="7">
+        <f t="shared" si="157"/>
         <v>0.15</v>
       </c>
     </row>
-    <row r="40" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N40" s="5">
-        <f t="shared" ref="N40:U40" si="118">N41-N50</f>
+        <f t="shared" ref="N40:U40" si="158">N41-N50</f>
         <v>-53957</v>
       </c>
       <c r="O40" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="P40" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="158"/>
         <v>-83569</v>
       </c>
       <c r="Q40" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="158"/>
         <v>-83042</v>
       </c>
       <c r="R40" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="S40" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="158"/>
         <v>-76858</v>
       </c>
       <c r="T40" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="158"/>
         <v>-80099</v>
       </c>
       <c r="U40" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="158"/>
         <v>-78076</v>
       </c>
       <c r="V40" s="5">
@@ -4924,51 +6076,72 @@
         <f>+W41-W50</f>
         <v>-73604</v>
       </c>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="5"/>
+      <c r="X40" s="5">
+        <f>+X41-X50</f>
+        <v>-77313</v>
+      </c>
+      <c r="Y40" s="5">
+        <f>+Y41-Y50</f>
+        <v>-78453</v>
+      </c>
+      <c r="Z40" s="5">
+        <f>+Z41-Z50</f>
+        <v>-81365</v>
+      </c>
+      <c r="AA40" s="5">
+        <f>+AA41-AA50</f>
+        <v>-80310</v>
+      </c>
       <c r="AB40" s="5"/>
-      <c r="AJ40" s="3">
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="5"/>
+      <c r="AJ40" s="5"/>
+      <c r="AK40" s="5"/>
+      <c r="AS40" s="3">
         <f>R40</f>
         <v>0</v>
       </c>
-      <c r="AK40" s="3">
-        <f>AJ40+AK29</f>
+      <c r="AT40" s="3">
+        <f>AS40+AT29</f>
         <v>19543.633500000004</v>
       </c>
-      <c r="AL40" s="3">
-        <f t="shared" ref="AL40:AQ40" si="119">AK40+AL29</f>
-        <v>41416.833979749994</v>
-      </c>
-      <c r="AM40" s="3">
-        <f t="shared" si="119"/>
-        <v>64383.286510727863</v>
-      </c>
-      <c r="AN40" s="3">
-        <f t="shared" si="119"/>
-        <v>88482.84585446454</v>
-      </c>
-      <c r="AO40" s="3">
-        <f t="shared" si="119"/>
-        <v>113756.67144475543</v>
-      </c>
-      <c r="AP40" s="3">
-        <f t="shared" si="119"/>
-        <v>140247.26825743014</v>
-      </c>
-      <c r="AQ40" s="3">
-        <f t="shared" si="119"/>
-        <v>167998.52893519404</v>
-      </c>
-      <c r="AS40" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT40" s="14">
+      <c r="AU40" s="3">
+        <f t="shared" ref="AU40:AZ40" si="159">AT40+AU29</f>
+        <v>42029.955979749997</v>
+      </c>
+      <c r="AV40" s="3">
+        <f t="shared" si="159"/>
+        <v>65633.135707727866</v>
+      </c>
+      <c r="AW40" s="3">
+        <f t="shared" si="159"/>
+        <v>90393.779899439047</v>
+      </c>
+      <c r="AX40" s="3">
+        <f t="shared" si="159"/>
+        <v>116353.82339280621</v>
+      </c>
+      <c r="AY40" s="3">
+        <f t="shared" si="159"/>
+        <v>143556.57020964418</v>
+      </c>
+      <c r="AZ40" s="3">
+        <f t="shared" si="159"/>
+        <v>172046.73639298487</v>
+      </c>
+      <c r="BB40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC40" s="14">
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:55" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>3</v>
       </c>
@@ -5017,27 +6190,48 @@
         <f>10616+295</f>
         <v>10911</v>
       </c>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="5"/>
+      <c r="X41" s="5">
+        <f>10941+370</f>
+        <v>11311</v>
+      </c>
+      <c r="Y41" s="5">
+        <f>17406+417</f>
+        <v>17823</v>
+      </c>
+      <c r="Z41" s="5">
+        <f>10786+417</f>
+        <v>11203</v>
+      </c>
+      <c r="AA41" s="5">
+        <f>10445+560</f>
+        <v>11005</v>
+      </c>
       <c r="AB41" s="5"/>
       <c r="AC41" s="5"/>
       <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
       <c r="AF41" s="5"/>
       <c r="AG41" s="5"/>
       <c r="AH41" s="5"/>
       <c r="AI41" s="5"/>
-      <c r="AS41" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT41" s="14">
+      <c r="AJ41" s="5"/>
+      <c r="AK41" s="5"/>
+      <c r="AL41" s="5"/>
+      <c r="AM41" s="5"/>
+      <c r="AO41" s="5"/>
+      <c r="AP41" s="5"/>
+      <c r="AQ41" s="5"/>
+      <c r="AR41" s="5"/>
+      <c r="BB41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BC41" s="14">
         <v>0.01</v>
       </c>
     </row>
-    <row r="42" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:55" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -5076,27 +6270,44 @@
       <c r="W42" s="5">
         <v>8021</v>
       </c>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
-      <c r="AA42" s="5"/>
+      <c r="X42" s="5">
+        <v>8177</v>
+      </c>
+      <c r="Y42" s="5">
+        <v>8051</v>
+      </c>
+      <c r="Z42" s="5">
+        <v>8558</v>
+      </c>
+      <c r="AA42" s="5">
+        <v>8843</v>
+      </c>
       <c r="AB42" s="5"/>
       <c r="AC42" s="5"/>
       <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
       <c r="AF42" s="5"/>
       <c r="AG42" s="5"/>
       <c r="AH42" s="5"/>
       <c r="AI42" s="5"/>
-      <c r="AS42" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT42" s="14">
+      <c r="AJ42" s="5"/>
+      <c r="AK42" s="5"/>
+      <c r="AL42" s="5"/>
+      <c r="AM42" s="5"/>
+      <c r="AO42" s="5"/>
+      <c r="AP42" s="5"/>
+      <c r="AQ42" s="5"/>
+      <c r="AR42" s="5"/>
+      <c r="BB42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC42" s="14">
         <v>0.06</v>
       </c>
     </row>
-    <row r="43" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:55" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -5135,28 +6346,45 @@
       <c r="W43" s="5">
         <v>4140</v>
       </c>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
-      <c r="AA43" s="5"/>
+      <c r="X43" s="5">
+        <v>4015</v>
+      </c>
+      <c r="Y43" s="5">
+        <v>4242</v>
+      </c>
+      <c r="Z43" s="5">
+        <v>4818</v>
+      </c>
+      <c r="AA43" s="5">
+        <v>4786</v>
+      </c>
       <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
       <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
       <c r="AF43" s="5"/>
       <c r="AG43" s="5"/>
       <c r="AH43" s="5"/>
       <c r="AI43" s="5"/>
-      <c r="AS43" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT43" s="3">
-        <f>NPV(AT42,AK29:EB29)+N40</f>
-        <v>446094.64697631676</v>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
+      <c r="AM43" s="5"/>
+      <c r="AO43" s="5"/>
+      <c r="AP43" s="5"/>
+      <c r="AQ43" s="5"/>
+      <c r="AR43" s="5"/>
+      <c r="BB43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC43" s="3">
+        <f>NPV(BC42,AT29:EK29)+N40</f>
+        <v>458996.73533945804</v>
       </c>
     </row>
-    <row r="44" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:55" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -5195,28 +6423,45 @@
       <c r="W44" s="5">
         <v>23094</v>
       </c>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="5"/>
+      <c r="X44" s="5">
+        <v>26432</v>
+      </c>
+      <c r="Y44" s="5">
+        <v>31970</v>
+      </c>
+      <c r="Z44" s="5">
+        <v>43522</v>
+      </c>
+      <c r="AA44" s="5">
+        <v>53194</v>
+      </c>
       <c r="AB44" s="5"/>
       <c r="AC44" s="5"/>
       <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
       <c r="AF44" s="5"/>
       <c r="AG44" s="5"/>
       <c r="AH44" s="5"/>
       <c r="AI44" s="5"/>
-      <c r="AS44" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT44" s="15">
-        <f>AT43/O31</f>
-        <v>162.39339169141491</v>
+      <c r="AJ44" s="5"/>
+      <c r="AK44" s="5"/>
+      <c r="AL44" s="5"/>
+      <c r="AM44" s="5"/>
+      <c r="AO44" s="5"/>
+      <c r="AP44" s="5"/>
+      <c r="AQ44" s="5"/>
+      <c r="AR44" s="5"/>
+      <c r="BB44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC44" s="15">
+        <f>BC43/O31</f>
+        <v>167.09018396048708</v>
       </c>
     </row>
-    <row r="45" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:55" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -5263,28 +6508,49 @@
         <f>62249+6270</f>
         <v>68519</v>
       </c>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
-      <c r="AA45" s="5"/>
+      <c r="X45" s="5">
+        <f>5679+62204</f>
+        <v>67883</v>
+      </c>
+      <c r="Y45" s="5">
+        <f>5131+62171</f>
+        <v>67302</v>
+      </c>
+      <c r="Z45" s="5">
+        <f>4587+62207</f>
+        <v>66794</v>
+      </c>
+      <c r="AA45" s="5">
+        <f>4167+62211</f>
+        <v>66378</v>
+      </c>
       <c r="AB45" s="5"/>
       <c r="AC45" s="5"/>
       <c r="AD45" s="5"/>
+      <c r="AE45" s="5"/>
       <c r="AF45" s="5"/>
       <c r="AG45" s="5"/>
       <c r="AH45" s="5"/>
       <c r="AI45" s="5"/>
-      <c r="AS45" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT45" s="14">
-        <f>AT44/Main!G2-1</f>
-        <v>-0.38017789430757665</v>
+      <c r="AJ45" s="5"/>
+      <c r="AK45" s="5"/>
+      <c r="AL45" s="5"/>
+      <c r="AM45" s="5"/>
+      <c r="AO45" s="5"/>
+      <c r="AP45" s="5"/>
+      <c r="AQ45" s="5"/>
+      <c r="AR45" s="5"/>
+      <c r="BB45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC45" s="14">
+        <f>BC44/Main!G2-1</f>
+        <v>-0.36225120625768292</v>
       </c>
     </row>
-    <row r="46" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:55" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -5323,21 +6589,38 @@
       <c r="W46" s="5">
         <v>12219</v>
       </c>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="5"/>
-      <c r="AA46" s="5"/>
+      <c r="X46" s="5">
+        <v>11984</v>
+      </c>
+      <c r="Y46" s="5">
+        <v>11799</v>
+      </c>
+      <c r="Z46" s="5">
+        <v>11877</v>
+      </c>
+      <c r="AA46" s="5">
+        <v>11734</v>
+      </c>
       <c r="AB46" s="5"/>
       <c r="AC46" s="5"/>
       <c r="AD46" s="5"/>
+      <c r="AE46" s="5"/>
       <c r="AF46" s="5"/>
       <c r="AG46" s="5"/>
       <c r="AH46" s="5"/>
       <c r="AI46" s="5"/>
+      <c r="AJ46" s="5"/>
+      <c r="AK46" s="5"/>
+      <c r="AL46" s="5"/>
+      <c r="AM46" s="5"/>
+      <c r="AO46" s="5"/>
+      <c r="AP46" s="5"/>
+      <c r="AQ46" s="5"/>
+      <c r="AR46" s="5"/>
     </row>
-    <row r="47" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:55" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -5376,21 +6659,38 @@
       <c r="W47" s="5">
         <v>17310</v>
       </c>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
-      <c r="AA47" s="5"/>
+      <c r="X47" s="5">
+        <v>18681</v>
+      </c>
+      <c r="Y47" s="5">
+        <v>20191</v>
+      </c>
+      <c r="Z47" s="5">
+        <v>21589</v>
+      </c>
+      <c r="AA47" s="5">
+        <v>24509</v>
+      </c>
       <c r="AB47" s="5"/>
       <c r="AC47" s="5"/>
       <c r="AD47" s="5"/>
+      <c r="AE47" s="5"/>
       <c r="AF47" s="5"/>
       <c r="AG47" s="5"/>
       <c r="AH47" s="5"/>
       <c r="AI47" s="5"/>
+      <c r="AJ47" s="5"/>
+      <c r="AK47" s="5"/>
+      <c r="AL47" s="5"/>
+      <c r="AM47" s="5"/>
+      <c r="AO47" s="5"/>
+      <c r="AP47" s="5"/>
+      <c r="AQ47" s="5"/>
+      <c r="AR47" s="5"/>
     </row>
-    <row r="48" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:55" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -5404,58 +6704,79 @@
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5">
-        <f t="shared" ref="N48:W48" si="120">SUM(N41:N47)</f>
+        <f t="shared" ref="N48:AA48" si="160">SUM(N41:N47)</f>
         <v>109297</v>
       </c>
       <c r="O48" s="5">
-        <f t="shared" si="120"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="P48" s="5">
-        <f t="shared" si="120"/>
+        <f t="shared" si="160"/>
         <v>128469</v>
       </c>
       <c r="Q48" s="5">
-        <f t="shared" si="120"/>
+        <f t="shared" si="160"/>
         <v>131620</v>
       </c>
       <c r="R48" s="5">
-        <f t="shared" si="120"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="S48" s="5">
-        <f t="shared" si="120"/>
+        <f t="shared" si="160"/>
         <v>136662</v>
       </c>
       <c r="T48" s="5">
-        <f t="shared" si="120"/>
+        <f t="shared" si="160"/>
         <v>134324</v>
       </c>
       <c r="U48" s="5">
-        <f t="shared" si="120"/>
+        <f t="shared" si="160"/>
         <v>137082</v>
       </c>
       <c r="V48" s="5">
-        <f t="shared" si="120"/>
+        <f t="shared" si="160"/>
         <v>140976</v>
       </c>
       <c r="W48" s="5">
-        <f t="shared" si="120"/>
+        <f t="shared" si="160"/>
         <v>144214</v>
       </c>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="5"/>
-      <c r="Z48" s="5"/>
-      <c r="AA48" s="5"/>
+      <c r="X48" s="5">
+        <f t="shared" si="160"/>
+        <v>148483</v>
+      </c>
+      <c r="Y48" s="5">
+        <f t="shared" si="160"/>
+        <v>161378</v>
+      </c>
+      <c r="Z48" s="5">
+        <f t="shared" si="160"/>
+        <v>168361</v>
+      </c>
+      <c r="AA48" s="5">
+        <f t="shared" si="160"/>
+        <v>180449</v>
+      </c>
       <c r="AB48" s="5"/>
       <c r="AC48" s="5"/>
       <c r="AD48" s="5"/>
+      <c r="AE48" s="5"/>
       <c r="AF48" s="5"/>
       <c r="AG48" s="5"/>
       <c r="AH48" s="5"/>
       <c r="AI48" s="5"/>
+      <c r="AJ48" s="5"/>
+      <c r="AK48" s="5"/>
+      <c r="AL48" s="5"/>
+      <c r="AM48" s="5"/>
+      <c r="AO48" s="5"/>
+      <c r="AP48" s="5"/>
+      <c r="AQ48" s="5"/>
+      <c r="AR48" s="5"/>
     </row>
-    <row r="50" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>4</v>
       </c>
@@ -5504,21 +6825,42 @@
         <f>9201+75314</f>
         <v>84515</v>
       </c>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
-      <c r="AA50" s="5"/>
+      <c r="X50" s="5">
+        <f>8162+80462</f>
+        <v>88624</v>
+      </c>
+      <c r="Y50" s="5">
+        <f>8167+88109</f>
+        <v>96276</v>
+      </c>
+      <c r="Z50" s="5">
+        <f>7271+85297</f>
+        <v>92568</v>
+      </c>
+      <c r="AA50" s="5">
+        <f>9079+82236</f>
+        <v>91315</v>
+      </c>
       <c r="AB50" s="5"/>
       <c r="AC50" s="5"/>
       <c r="AD50" s="5"/>
+      <c r="AE50" s="5"/>
       <c r="AF50" s="5"/>
       <c r="AG50" s="5"/>
       <c r="AH50" s="5"/>
       <c r="AI50" s="5"/>
+      <c r="AJ50" s="5"/>
+      <c r="AK50" s="5"/>
+      <c r="AL50" s="5"/>
+      <c r="AM50" s="5"/>
+      <c r="AO50" s="5"/>
+      <c r="AP50" s="5"/>
+      <c r="AQ50" s="5"/>
+      <c r="AR50" s="5"/>
     </row>
-    <row r="51" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -5557,21 +6899,38 @@
       <c r="W51" s="5">
         <v>2207</v>
       </c>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
-      <c r="AA51" s="5"/>
+      <c r="X51" s="5">
+        <v>2679</v>
+      </c>
+      <c r="Y51" s="5">
+        <v>2423</v>
+      </c>
+      <c r="Z51" s="5">
+        <v>5113</v>
+      </c>
+      <c r="AA51" s="5">
+        <v>8203</v>
+      </c>
       <c r="AB51" s="5"/>
       <c r="AC51" s="5"/>
       <c r="AD51" s="5"/>
+      <c r="AE51" s="5"/>
       <c r="AF51" s="5"/>
       <c r="AG51" s="5"/>
       <c r="AH51" s="5"/>
       <c r="AI51" s="5"/>
+      <c r="AJ51" s="5"/>
+      <c r="AK51" s="5"/>
+      <c r="AL51" s="5"/>
+      <c r="AM51" s="5"/>
+      <c r="AO51" s="5"/>
+      <c r="AP51" s="5"/>
+      <c r="AQ51" s="5"/>
+      <c r="AR51" s="5"/>
     </row>
-    <row r="52" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -5610,21 +6969,38 @@
       <c r="W52" s="5">
         <v>1772</v>
       </c>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="5"/>
-      <c r="AA52" s="5"/>
+      <c r="X52" s="5">
+        <v>1653</v>
+      </c>
+      <c r="Y52" s="5">
+        <v>1839</v>
+      </c>
+      <c r="Z52" s="5">
+        <v>2243</v>
+      </c>
+      <c r="AA52" s="5">
+        <v>1794</v>
+      </c>
       <c r="AB52" s="5"/>
       <c r="AC52" s="5"/>
       <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
       <c r="AF52" s="5"/>
       <c r="AG52" s="5"/>
       <c r="AH52" s="5"/>
       <c r="AI52" s="5"/>
+      <c r="AJ52" s="5"/>
+      <c r="AK52" s="5"/>
+      <c r="AL52" s="5"/>
+      <c r="AM52" s="5"/>
+      <c r="AO52" s="5"/>
+      <c r="AP52" s="5"/>
+      <c r="AQ52" s="5"/>
+      <c r="AR52" s="5"/>
     </row>
-    <row r="53" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -5663,21 +7039,38 @@
       <c r="W53" s="5">
         <v>11455</v>
       </c>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
-      <c r="AA53" s="5"/>
+      <c r="X53" s="5">
+        <v>9430</v>
+      </c>
+      <c r="Y53" s="5">
+        <v>9019</v>
+      </c>
+      <c r="Z53" s="5">
+        <v>9387</v>
+      </c>
+      <c r="AA53" s="5">
+        <v>12098</v>
+      </c>
       <c r="AB53" s="5"/>
       <c r="AC53" s="5"/>
       <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
       <c r="AF53" s="5"/>
       <c r="AG53" s="5"/>
       <c r="AH53" s="5"/>
       <c r="AI53" s="5"/>
+      <c r="AJ53" s="5"/>
+      <c r="AK53" s="5"/>
+      <c r="AL53" s="5"/>
+      <c r="AM53" s="5"/>
+      <c r="AO53" s="5"/>
+      <c r="AP53" s="5"/>
+      <c r="AQ53" s="5"/>
+      <c r="AR53" s="5"/>
     </row>
-    <row r="54" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -5716,21 +7109,38 @@
       <c r="W54" s="5">
         <v>7410</v>
       </c>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="5"/>
-      <c r="AA54" s="5"/>
+      <c r="X54" s="5">
+        <v>7128</v>
+      </c>
+      <c r="Y54" s="5">
+        <v>8175</v>
+      </c>
+      <c r="Z54" s="5">
+        <v>8629</v>
+      </c>
+      <c r="AA54" s="5">
+        <v>8700</v>
+      </c>
       <c r="AB54" s="5"/>
       <c r="AC54" s="5"/>
       <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
       <c r="AF54" s="5"/>
       <c r="AG54" s="5"/>
       <c r="AH54" s="5"/>
       <c r="AI54" s="5"/>
+      <c r="AJ54" s="5"/>
+      <c r="AK54" s="5"/>
+      <c r="AL54" s="5"/>
+      <c r="AM54" s="5"/>
+      <c r="AO54" s="5"/>
+      <c r="AP54" s="5"/>
+      <c r="AQ54" s="5"/>
+      <c r="AR54" s="5"/>
     </row>
-    <row r="55" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -5777,21 +7187,40 @@
         <f>3442+11038</f>
         <v>14480</v>
       </c>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="5"/>
-      <c r="AA55" s="5"/>
+      <c r="X55" s="5">
+        <f>2864+9553</f>
+        <v>12417</v>
+      </c>
+      <c r="Y55" s="5">
+        <f>2208+9813</f>
+        <v>12021</v>
+      </c>
+      <c r="Z55" s="5">
+        <v>10269</v>
+      </c>
+      <c r="AA55" s="5">
+        <v>10583</v>
+      </c>
       <c r="AB55" s="5"/>
       <c r="AC55" s="5"/>
       <c r="AD55" s="5"/>
+      <c r="AE55" s="5"/>
       <c r="AF55" s="5"/>
       <c r="AG55" s="5"/>
       <c r="AH55" s="5"/>
       <c r="AI55" s="5"/>
+      <c r="AJ55" s="5"/>
+      <c r="AK55" s="5"/>
+      <c r="AL55" s="5"/>
+      <c r="AM55" s="5"/>
+      <c r="AO55" s="5"/>
+      <c r="AP55" s="5"/>
+      <c r="AQ55" s="5"/>
+      <c r="AR55" s="5"/>
     </row>
-    <row r="56" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -5830,21 +7259,40 @@
       <c r="W56" s="5">
         <v>11106</v>
       </c>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="5"/>
-      <c r="Z56" s="5"/>
-      <c r="AA56" s="5"/>
+      <c r="X56" s="5">
+        <v>12316</v>
+      </c>
+      <c r="Y56" s="5">
+        <v>14364</v>
+      </c>
+      <c r="Z56" s="5">
+        <f>11536+7647</f>
+        <v>19183</v>
+      </c>
+      <c r="AA56" s="5">
+        <f>8996+14094</f>
+        <v>23090</v>
+      </c>
       <c r="AB56" s="5"/>
       <c r="AC56" s="5"/>
       <c r="AD56" s="5"/>
+      <c r="AE56" s="5"/>
       <c r="AF56" s="5"/>
       <c r="AG56" s="5"/>
       <c r="AH56" s="5"/>
       <c r="AI56" s="5"/>
+      <c r="AJ56" s="5"/>
+      <c r="AK56" s="5"/>
+      <c r="AL56" s="5"/>
+      <c r="AM56" s="5"/>
+      <c r="AO56" s="5"/>
+      <c r="AP56" s="5"/>
+      <c r="AQ56" s="5"/>
+      <c r="AR56" s="5"/>
     </row>
-    <row r="57" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -5884,21 +7332,38 @@
       <c r="W57" s="5">
         <v>11269</v>
       </c>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="5"/>
-      <c r="Z57" s="5"/>
-      <c r="AA57" s="5"/>
+      <c r="X57" s="5">
+        <v>14236</v>
+      </c>
+      <c r="Y57" s="5">
+        <v>17261</v>
+      </c>
+      <c r="Z57" s="5">
+        <v>20969</v>
+      </c>
+      <c r="AA57" s="5">
+        <v>24666</v>
+      </c>
       <c r="AB57" s="5"/>
       <c r="AC57" s="5"/>
       <c r="AD57" s="5"/>
+      <c r="AE57" s="5"/>
       <c r="AF57" s="5"/>
       <c r="AG57" s="5"/>
       <c r="AH57" s="5"/>
       <c r="AI57" s="5"/>
+      <c r="AJ57" s="5"/>
+      <c r="AK57" s="5"/>
+      <c r="AL57" s="5"/>
+      <c r="AM57" s="5"/>
+      <c r="AO57" s="5"/>
+      <c r="AP57" s="5"/>
+      <c r="AQ57" s="5"/>
+      <c r="AR57" s="5"/>
     </row>
-    <row r="58" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -5948,21 +7413,42 @@
         <f>SUM(W50:W57)</f>
         <v>144214</v>
       </c>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="5"/>
-      <c r="Z58" s="5"/>
-      <c r="AA58" s="5"/>
+      <c r="X58" s="5">
+        <f>SUM(X50:X57)</f>
+        <v>148483</v>
+      </c>
+      <c r="Y58" s="5">
+        <f>SUM(Y50:Y57)</f>
+        <v>161378</v>
+      </c>
+      <c r="Z58" s="5">
+        <f>SUM(Z50:Z57)</f>
+        <v>168361</v>
+      </c>
+      <c r="AA58" s="5">
+        <f>SUM(AA50:AA57)</f>
+        <v>180449</v>
+      </c>
       <c r="AB58" s="5"/>
       <c r="AC58" s="5"/>
       <c r="AD58" s="5"/>
+      <c r="AE58" s="5"/>
       <c r="AF58" s="5"/>
       <c r="AG58" s="5"/>
       <c r="AH58" s="5"/>
       <c r="AI58" s="5"/>
+      <c r="AJ58" s="5"/>
+      <c r="AK58" s="5"/>
+      <c r="AL58" s="5"/>
+      <c r="AM58" s="5"/>
+      <c r="AO58" s="5"/>
+      <c r="AP58" s="5"/>
+      <c r="AQ58" s="5"/>
+      <c r="AR58" s="5"/>
     </row>
-    <row r="60" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -5981,43 +7467,64 @@
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
       <c r="S60" s="5">
-        <f t="shared" ref="S60:V60" si="121">+S29</f>
+        <f t="shared" ref="S60:V60" si="161">+S29</f>
         <v>2509</v>
       </c>
       <c r="T60" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="161"/>
         <v>2733</v>
       </c>
       <c r="U60" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="161"/>
         <v>2934</v>
       </c>
       <c r="V60" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="161"/>
         <v>3562</v>
       </c>
       <c r="W60" s="5">
         <f>+W29</f>
         <v>2957</v>
       </c>
-      <c r="X60" s="5"/>
-      <c r="Y60" s="5"/>
-      <c r="Z60" s="5"/>
-      <c r="AA60" s="5"/>
+      <c r="X60" s="5">
+        <f t="shared" ref="X60:AA60" si="162">+X29</f>
+        <v>3857</v>
+      </c>
+      <c r="Y60" s="5">
+        <f t="shared" si="162"/>
+        <v>3575</v>
+      </c>
+      <c r="Z60" s="5">
+        <f t="shared" si="162"/>
+        <v>4034</v>
+      </c>
+      <c r="AA60" s="5">
+        <f t="shared" si="162"/>
+        <v>3689</v>
+      </c>
       <c r="AB60" s="5"/>
       <c r="AC60" s="5"/>
       <c r="AD60" s="5"/>
+      <c r="AE60" s="5"/>
       <c r="AF60" s="5"/>
       <c r="AG60" s="5"/>
       <c r="AH60" s="5"/>
-      <c r="AI60" s="5">
-        <f>+AI29</f>
+      <c r="AI60" s="5"/>
+      <c r="AJ60" s="5"/>
+      <c r="AK60" s="5"/>
+      <c r="AL60" s="5"/>
+      <c r="AM60" s="5"/>
+      <c r="AO60" s="5"/>
+      <c r="AP60" s="5"/>
+      <c r="AQ60" s="5"/>
+      <c r="AR60" s="5">
+        <f>+AR29</f>
         <v>13293</v>
       </c>
     </row>
-    <row r="61" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -6053,23 +7560,43 @@
       <c r="W61" s="5">
         <v>2929</v>
       </c>
-      <c r="X61" s="5"/>
-      <c r="Y61" s="5"/>
-      <c r="Z61" s="5"/>
-      <c r="AA61" s="5"/>
+      <c r="X61" s="5">
+        <f>6080-W61</f>
+        <v>3151</v>
+      </c>
+      <c r="Y61" s="5">
+        <f>9016-X61-W61</f>
+        <v>2936</v>
+      </c>
+      <c r="Z61" s="5">
+        <f>12443-Y61-X61-W61</f>
+        <v>3427</v>
+      </c>
+      <c r="AA61" s="5">
+        <v>2927</v>
+      </c>
       <c r="AB61" s="5"/>
       <c r="AC61" s="5"/>
       <c r="AD61" s="5"/>
+      <c r="AE61" s="5"/>
       <c r="AF61" s="5"/>
       <c r="AG61" s="5"/>
       <c r="AH61" s="5"/>
-      <c r="AI61" s="5">
+      <c r="AI61" s="5"/>
+      <c r="AJ61" s="5"/>
+      <c r="AK61" s="5"/>
+      <c r="AL61" s="5"/>
+      <c r="AM61" s="5"/>
+      <c r="AO61" s="5"/>
+      <c r="AP61" s="5"/>
+      <c r="AQ61" s="5"/>
+      <c r="AR61" s="5">
         <v>6717</v>
       </c>
     </row>
-    <row r="62" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -6105,23 +7632,43 @@
       <c r="W62" s="5">
         <v>804</v>
       </c>
-      <c r="X62" s="5"/>
-      <c r="Y62" s="5"/>
-      <c r="Z62" s="5"/>
-      <c r="AA62" s="5"/>
+      <c r="X62" s="5">
+        <f>1712-W62</f>
+        <v>908</v>
+      </c>
+      <c r="Y62" s="5">
+        <f>2715-X62-W62</f>
+        <v>1003</v>
+      </c>
+      <c r="Z62" s="5">
+        <f>3867-Y62-X62-W62</f>
+        <v>1152</v>
+      </c>
+      <c r="AA62" s="5">
+        <v>1351</v>
+      </c>
       <c r="AB62" s="5"/>
       <c r="AC62" s="5"/>
       <c r="AD62" s="5"/>
+      <c r="AE62" s="5"/>
       <c r="AF62" s="5"/>
       <c r="AG62" s="5"/>
       <c r="AH62" s="5"/>
-      <c r="AI62" s="5">
+      <c r="AI62" s="5"/>
+      <c r="AJ62" s="5"/>
+      <c r="AK62" s="5"/>
+      <c r="AL62" s="5"/>
+      <c r="AM62" s="5"/>
+      <c r="AO62" s="5"/>
+      <c r="AP62" s="5"/>
+      <c r="AQ62" s="5"/>
+      <c r="AR62" s="5">
         <v>1972</v>
       </c>
     </row>
-    <row r="63" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -6157,23 +7704,43 @@
       <c r="W63" s="5">
         <v>624</v>
       </c>
-      <c r="X63" s="5"/>
-      <c r="Y63" s="5"/>
-      <c r="Z63" s="5"/>
-      <c r="AA63" s="5"/>
+      <c r="X63" s="5">
+        <f>1215-W63</f>
+        <v>591</v>
+      </c>
+      <c r="Y63" s="5">
+        <f>1763-X63-W63</f>
+        <v>548</v>
+      </c>
+      <c r="Z63" s="5">
+        <f>2307-Y63-X63-W63</f>
+        <v>544</v>
+      </c>
+      <c r="AA63" s="5">
+        <v>420</v>
+      </c>
       <c r="AB63" s="5"/>
       <c r="AC63" s="5"/>
       <c r="AD63" s="5"/>
+      <c r="AE63" s="5"/>
       <c r="AF63" s="5"/>
       <c r="AG63" s="5"/>
       <c r="AH63" s="5"/>
-      <c r="AI63" s="5">
+      <c r="AI63" s="5"/>
+      <c r="AJ63" s="5"/>
+      <c r="AK63" s="5"/>
+      <c r="AL63" s="5"/>
+      <c r="AM63" s="5"/>
+      <c r="AO63" s="5"/>
+      <c r="AP63" s="5"/>
+      <c r="AQ63" s="5"/>
+      <c r="AR63" s="5">
         <v>1150</v>
       </c>
     </row>
-    <row r="64" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -6209,23 +7776,43 @@
       <c r="W64" s="5">
         <v>-151</v>
       </c>
-      <c r="X64" s="5"/>
-      <c r="Y64" s="5"/>
-      <c r="Z64" s="5"/>
-      <c r="AA64" s="5"/>
+      <c r="X64" s="5">
+        <f>-601-W64</f>
+        <v>-450</v>
+      </c>
+      <c r="Y64" s="5">
+        <f>-1097-X64-W64</f>
+        <v>-496</v>
+      </c>
+      <c r="Z64" s="5">
+        <f>-1637-Y64-X64-W64</f>
+        <v>-540</v>
+      </c>
+      <c r="AA64" s="5">
+        <v>515</v>
+      </c>
       <c r="AB64" s="5"/>
       <c r="AC64" s="5"/>
       <c r="AD64" s="5"/>
+      <c r="AE64" s="5"/>
       <c r="AF64" s="5"/>
       <c r="AG64" s="5"/>
       <c r="AH64" s="5"/>
-      <c r="AI64" s="5">
+      <c r="AI64" s="5"/>
+      <c r="AJ64" s="5"/>
+      <c r="AK64" s="5"/>
+      <c r="AL64" s="5"/>
+      <c r="AM64" s="5"/>
+      <c r="AO64" s="5"/>
+      <c r="AP64" s="5"/>
+      <c r="AQ64" s="5"/>
+      <c r="AR64" s="5">
         <v>-1146</v>
       </c>
     </row>
-    <row r="65" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -6261,23 +7848,43 @@
       <c r="W65" s="5">
         <v>1007</v>
       </c>
-      <c r="X65" s="5"/>
-      <c r="Y65" s="5"/>
-      <c r="Z65" s="5"/>
-      <c r="AA65" s="5"/>
+      <c r="X65" s="5">
+        <f>2176-W65</f>
+        <v>1169</v>
+      </c>
+      <c r="Y65" s="5">
+        <f>3374-X65-W65</f>
+        <v>1198</v>
+      </c>
+      <c r="Z65" s="5">
+        <f>4674-Y65-X65-W65</f>
+        <v>1300</v>
+      </c>
+      <c r="AA65" s="5">
+        <v>1124</v>
+      </c>
       <c r="AB65" s="5"/>
       <c r="AC65" s="5"/>
       <c r="AD65" s="5"/>
+      <c r="AE65" s="5"/>
       <c r="AF65" s="5"/>
       <c r="AG65" s="5"/>
       <c r="AH65" s="5"/>
-      <c r="AI65" s="5">
+      <c r="AI65" s="5"/>
+      <c r="AJ65" s="5"/>
+      <c r="AK65" s="5"/>
+      <c r="AL65" s="5"/>
+      <c r="AM65" s="5"/>
+      <c r="AO65" s="5"/>
+      <c r="AP65" s="5"/>
+      <c r="AQ65" s="5"/>
+      <c r="AR65" s="5">
         <v>2613</v>
       </c>
     </row>
-    <row r="66" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -6313,23 +7920,43 @@
       <c r="W66" s="5">
         <v>130</v>
       </c>
-      <c r="X66" s="5"/>
-      <c r="Y66" s="5"/>
-      <c r="Z66" s="5"/>
-      <c r="AA66" s="5"/>
+      <c r="X66" s="5">
+        <f>298-W66</f>
+        <v>168</v>
+      </c>
+      <c r="Y66" s="5">
+        <f>422-X66-W66</f>
+        <v>124</v>
+      </c>
+      <c r="Z66" s="5">
+        <f>667-Y66-X66-W66</f>
+        <v>245</v>
+      </c>
+      <c r="AA66" s="5">
+        <v>164</v>
+      </c>
       <c r="AB66" s="5"/>
       <c r="AC66" s="5"/>
       <c r="AD66" s="5"/>
+      <c r="AE66" s="5"/>
       <c r="AF66" s="5"/>
       <c r="AG66" s="5"/>
       <c r="AH66" s="5"/>
-      <c r="AI66" s="5">
+      <c r="AI66" s="5"/>
+      <c r="AJ66" s="5"/>
+      <c r="AK66" s="5"/>
+      <c r="AL66" s="5"/>
+      <c r="AM66" s="5"/>
+      <c r="AO66" s="5"/>
+      <c r="AP66" s="5"/>
+      <c r="AQ66" s="5"/>
+      <c r="AR66" s="5">
         <v>220</v>
       </c>
     </row>
-    <row r="67" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -6367,24 +7994,45 @@
         <f>-81+367-531+24+2305</f>
         <v>2084</v>
       </c>
-      <c r="X67" s="5"/>
-      <c r="Y67" s="5"/>
-      <c r="Z67" s="5"/>
-      <c r="AA67" s="5"/>
+      <c r="X67" s="5">
+        <f>-451+676-1143-1685+454-W67</f>
+        <v>-4233</v>
+      </c>
+      <c r="Y67" s="5">
+        <f>-312+603-633-1222+35-X67-W67</f>
+        <v>620</v>
+      </c>
+      <c r="Z67" s="5">
+        <f>-653+266-608-659+154-Y67-X67-W67</f>
+        <v>29</v>
+      </c>
+      <c r="AA67" s="5">
+        <f>-245+59-334-391+2550</f>
+        <v>1639</v>
+      </c>
       <c r="AB67" s="5"/>
       <c r="AC67" s="5"/>
       <c r="AD67" s="5"/>
+      <c r="AE67" s="5"/>
       <c r="AF67" s="5"/>
       <c r="AG67" s="5"/>
       <c r="AH67" s="5"/>
-      <c r="AI67" s="5">
+      <c r="AI67" s="5"/>
+      <c r="AJ67" s="5"/>
+      <c r="AK67" s="5"/>
+      <c r="AL67" s="5"/>
+      <c r="AM67" s="5"/>
+      <c r="AO67" s="5"/>
+      <c r="AP67" s="5"/>
+      <c r="AQ67" s="5"/>
+      <c r="AR67" s="5">
         <f>-874+11-733-398+7</f>
         <v>-1987</v>
       </c>
     </row>
-    <row r="68" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -6403,47 +8051,68 @@
       <c r="Q68" s="5"/>
       <c r="R68" s="5"/>
       <c r="S68" s="5">
-        <f t="shared" ref="S68:V68" si="122">SUM(S61:S67)</f>
+        <f t="shared" ref="S68:V68" si="163">SUM(S61:S67)</f>
         <v>6974</v>
       </c>
       <c r="T68" s="5">
-        <f t="shared" si="122"/>
+        <f t="shared" si="163"/>
         <v>143</v>
       </c>
       <c r="U68" s="5">
-        <f t="shared" si="122"/>
+        <f t="shared" si="163"/>
         <v>5475</v>
       </c>
       <c r="V68" s="5">
-        <f t="shared" si="122"/>
+        <f t="shared" si="163"/>
         <v>6081</v>
       </c>
       <c r="W68" s="5">
         <f>SUM(W61:W67)</f>
         <v>7427</v>
       </c>
-      <c r="X68" s="5"/>
-      <c r="Y68" s="5"/>
-      <c r="Z68" s="5"/>
-      <c r="AA68" s="5"/>
+      <c r="X68" s="5">
+        <f t="shared" ref="X68:AA68" si="164">SUM(X61:X67)</f>
+        <v>1304</v>
+      </c>
+      <c r="Y68" s="5">
+        <f t="shared" si="164"/>
+        <v>5933</v>
+      </c>
+      <c r="Z68" s="5">
+        <f t="shared" si="164"/>
+        <v>6157</v>
+      </c>
+      <c r="AA68" s="5">
+        <f t="shared" si="164"/>
+        <v>8140</v>
+      </c>
       <c r="AB68" s="5"/>
       <c r="AC68" s="5"/>
       <c r="AD68" s="5"/>
+      <c r="AE68" s="5"/>
       <c r="AF68" s="5"/>
-      <c r="AG68" s="5">
+      <c r="AG68" s="5"/>
+      <c r="AH68" s="5"/>
+      <c r="AI68" s="5"/>
+      <c r="AJ68" s="5"/>
+      <c r="AK68" s="5"/>
+      <c r="AL68" s="5"/>
+      <c r="AM68" s="5"/>
+      <c r="AO68" s="5"/>
+      <c r="AP68" s="5">
         <v>13139</v>
       </c>
-      <c r="AH68" s="5">
+      <c r="AQ68" s="5">
         <v>15887</v>
       </c>
-      <c r="AI68" s="5">
-        <f>SUM(AI61:AI67)</f>
+      <c r="AR68" s="5">
+        <f>SUM(AR61:AR67)</f>
         <v>9539</v>
       </c>
     </row>
-    <row r="70" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -6491,24 +8160,35 @@
         <f>-21215-Y70-X70-W70</f>
         <v>-9080</v>
       </c>
-      <c r="AA70" s="5"/>
+      <c r="AA70" s="5">
+        <v>-8502</v>
+      </c>
       <c r="AB70" s="5"/>
       <c r="AC70" s="5"/>
       <c r="AD70" s="5"/>
+      <c r="AE70" s="5"/>
       <c r="AF70" s="5"/>
-      <c r="AG70" s="5">
+      <c r="AG70" s="5"/>
+      <c r="AH70" s="5"/>
+      <c r="AI70" s="5"/>
+      <c r="AJ70" s="5"/>
+      <c r="AK70" s="5"/>
+      <c r="AL70" s="5"/>
+      <c r="AM70" s="5"/>
+      <c r="AO70" s="5"/>
+      <c r="AP70" s="5">
         <v>-1564</v>
       </c>
-      <c r="AH70" s="5">
+      <c r="AQ70" s="5">
         <v>-2135</v>
       </c>
-      <c r="AI70" s="5">
+      <c r="AR70" s="5">
         <v>-4511</v>
       </c>
     </row>
-    <row r="71" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -6544,23 +8224,40 @@
       <c r="W71" s="5">
         <v>0</v>
       </c>
-      <c r="X71" s="5"/>
-      <c r="Y71" s="5"/>
-      <c r="Z71" s="5"/>
-      <c r="AA71" s="5"/>
+      <c r="X71" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="5">
+        <v>0</v>
+      </c>
       <c r="AB71" s="5"/>
       <c r="AC71" s="5"/>
       <c r="AD71" s="5"/>
+      <c r="AE71" s="5"/>
       <c r="AF71" s="5"/>
       <c r="AG71" s="5"/>
       <c r="AH71" s="5"/>
-      <c r="AI71" s="5">
+      <c r="AI71" s="5"/>
+      <c r="AJ71" s="5"/>
+      <c r="AK71" s="5"/>
+      <c r="AL71" s="5"/>
+      <c r="AM71" s="5"/>
+      <c r="AO71" s="5"/>
+      <c r="AP71" s="5"/>
+      <c r="AQ71" s="5"/>
+      <c r="AR71" s="5">
         <v>-148</v>
       </c>
     </row>
-    <row r="72" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -6598,21 +8295,42 @@
         <f>15-477</f>
         <v>-462</v>
       </c>
-      <c r="X72" s="5"/>
-      <c r="Y72" s="5"/>
-      <c r="Z72" s="5"/>
-      <c r="AA72" s="5"/>
+      <c r="X72" s="5">
+        <f>356-636-W72</f>
+        <v>182</v>
+      </c>
+      <c r="Y72" s="5">
+        <f>-838+444-X72-W72</f>
+        <v>-114</v>
+      </c>
+      <c r="Z72" s="5">
+        <f>-1272+776-Y72-X72-W72</f>
+        <v>-102</v>
+      </c>
+      <c r="AA72" s="5">
+        <f>-471+255</f>
+        <v>-216</v>
+      </c>
       <c r="AB72" s="5"/>
       <c r="AC72" s="5"/>
       <c r="AD72" s="5"/>
+      <c r="AE72" s="5"/>
       <c r="AF72" s="5"/>
       <c r="AG72" s="5"/>
       <c r="AH72" s="5"/>
       <c r="AI72" s="5"/>
+      <c r="AJ72" s="5"/>
+      <c r="AK72" s="5"/>
+      <c r="AL72" s="5"/>
+      <c r="AM72" s="5"/>
+      <c r="AO72" s="5"/>
+      <c r="AP72" s="5"/>
+      <c r="AQ72" s="5"/>
+      <c r="AR72" s="5"/>
     </row>
-    <row r="73" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
@@ -6650,19 +8368,40 @@
         <f>SUM(W70:W72)</f>
         <v>-2765</v>
       </c>
-      <c r="X73" s="5"/>
-      <c r="Y73" s="5"/>
-      <c r="Z73" s="5"/>
-      <c r="AA73" s="5"/>
+      <c r="X73" s="5">
+        <f>SUM(X70:X72)</f>
+        <v>-3788</v>
+      </c>
+      <c r="Y73" s="5">
+        <f>SUM(Y70:Y72)</f>
+        <v>-5976</v>
+      </c>
+      <c r="Z73" s="5">
+        <f>SUM(Z70:Z72)</f>
+        <v>-9182</v>
+      </c>
+      <c r="AA73" s="5">
+        <f>SUM(AA70:AA72)</f>
+        <v>-8718</v>
+      </c>
       <c r="AB73" s="5"/>
       <c r="AC73" s="5"/>
       <c r="AD73" s="5"/>
+      <c r="AE73" s="5"/>
       <c r="AF73" s="5"/>
       <c r="AG73" s="5"/>
       <c r="AH73" s="5"/>
       <c r="AI73" s="5"/>
+      <c r="AJ73" s="5"/>
+      <c r="AK73" s="5"/>
+      <c r="AL73" s="5"/>
+      <c r="AM73" s="5"/>
+      <c r="AO73" s="5"/>
+      <c r="AP73" s="5"/>
+      <c r="AQ73" s="5"/>
+      <c r="AR73" s="5"/>
     </row>
-    <row r="74" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -6691,14 +8430,23 @@
       <c r="AB74" s="5"/>
       <c r="AC74" s="5"/>
       <c r="AD74" s="5"/>
+      <c r="AE74" s="5"/>
       <c r="AF74" s="5"/>
       <c r="AG74" s="5"/>
       <c r="AH74" s="5"/>
       <c r="AI74" s="5"/>
+      <c r="AJ74" s="5"/>
+      <c r="AK74" s="5"/>
+      <c r="AL74" s="5"/>
+      <c r="AM74" s="5"/>
+      <c r="AO74" s="5"/>
+      <c r="AP74" s="5"/>
+      <c r="AQ74" s="5"/>
+      <c r="AR74" s="5"/>
     </row>
-    <row r="75" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -6716,27 +8464,63 @@
       <c r="P75" s="5"/>
       <c r="Q75" s="5"/>
       <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="5"/>
-      <c r="U75" s="5"/>
-      <c r="V75" s="5"/>
-      <c r="W75" s="5"/>
-      <c r="X75" s="5"/>
-      <c r="Y75" s="5"/>
-      <c r="Z75" s="5"/>
-      <c r="AA75" s="5"/>
+      <c r="S75" s="5">
+        <f>-150+308-1060</f>
+        <v>-902</v>
+      </c>
+      <c r="T75" s="5">
+        <f>-600+426-1733-S75</f>
+        <v>-1005</v>
+      </c>
+      <c r="U75" s="5">
+        <f>-1050+454-1865-T75-S75</f>
+        <v>-554</v>
+      </c>
+      <c r="V75" s="5">
+        <f>-1202+742-2040-U75-T75-S75</f>
+        <v>-39</v>
+      </c>
+      <c r="W75" s="5">
+        <f>-150+179-851</f>
+        <v>-822</v>
+      </c>
+      <c r="X75" s="5">
+        <f>-300+307-898-W75</f>
+        <v>-69</v>
+      </c>
+      <c r="Y75" s="5">
+        <f>-450+520-900-X75-W75</f>
+        <v>61</v>
+      </c>
+      <c r="Z75" s="5">
+        <f>-600+653-900-Y75-X75-W75</f>
+        <v>-17</v>
+      </c>
+      <c r="AA75" s="5">
+        <f>-95+1170-17</f>
+        <v>1058</v>
+      </c>
       <c r="AB75" s="5"/>
       <c r="AC75" s="5"/>
       <c r="AD75" s="5"/>
+      <c r="AE75" s="5"/>
       <c r="AF75" s="5"/>
       <c r="AG75" s="5"/>
       <c r="AH75" s="5"/>
-      <c r="AI75" s="5">
-        <f>-10272+19788+6363</f>
-        <v>15879</v>
-      </c>
+      <c r="AI75" s="5"/>
+      <c r="AJ75" s="5"/>
+      <c r="AK75" s="5"/>
+      <c r="AL75" s="5"/>
+      <c r="AM75" s="5"/>
+      <c r="AO75" s="5"/>
+      <c r="AP75" s="5"/>
+      <c r="AQ75" s="5"/>
+      <c r="AR75" s="5"/>
     </row>
-    <row r="76" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -6753,194 +8537,414 @@
       <c r="P76" s="5"/>
       <c r="Q76" s="5"/>
       <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="5"/>
-      <c r="U76" s="5"/>
-      <c r="V76" s="5"/>
-      <c r="W76" s="5"/>
-      <c r="X76" s="5"/>
-      <c r="Y76" s="5"/>
-      <c r="Z76" s="5"/>
-      <c r="AA76" s="5"/>
+      <c r="S76" s="5">
+        <v>-1091</v>
+      </c>
+      <c r="T76" s="5">
+        <f>-2190-S76</f>
+        <v>-1099</v>
+      </c>
+      <c r="U76" s="5">
+        <f>-3289-T76-S76</f>
+        <v>-1099</v>
+      </c>
+      <c r="V76" s="5">
+        <f>-4391-U76-T76-S76</f>
+        <v>-1102</v>
+      </c>
+      <c r="W76" s="5">
+        <v>-1103</v>
+      </c>
+      <c r="X76" s="5">
+        <f>-2221-W76</f>
+        <v>-1118</v>
+      </c>
+      <c r="Y76" s="5">
+        <f>-3340-X76-W76</f>
+        <v>-1119</v>
+      </c>
+      <c r="Z76" s="5">
+        <f>-4743-Y76-X76-W76</f>
+        <v>-1403</v>
+      </c>
+      <c r="AA76" s="5">
+        <v>-1413</v>
+      </c>
       <c r="AB76" s="5"/>
       <c r="AC76" s="5"/>
       <c r="AD76" s="5"/>
+      <c r="AE76" s="5"/>
       <c r="AF76" s="5"/>
       <c r="AG76" s="5"/>
       <c r="AH76" s="5"/>
-      <c r="AI76" s="5">
-        <f>SUM(AI70:AI75)</f>
-        <v>11220</v>
-      </c>
+      <c r="AI76" s="5"/>
+      <c r="AJ76" s="5"/>
+      <c r="AK76" s="5"/>
+      <c r="AL76" s="5"/>
+      <c r="AM76" s="5"/>
+      <c r="AO76" s="5"/>
+      <c r="AP76" s="5"/>
+      <c r="AQ76" s="5"/>
+      <c r="AR76" s="5"/>
     </row>
-    <row r="77" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B77" s="1" t="s">
-        <v>109</v>
-      </c>
+    <row r="77" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="5"/>
       <c r="S77" s="5">
-        <f>-150+308-1060</f>
-        <v>-902</v>
-      </c>
-      <c r="T77" s="5">
-        <f>-600+426-1733-S77</f>
-        <v>-1005</v>
-      </c>
-      <c r="U77" s="5">
-        <f>-1050+454-1865-T77-S77</f>
-        <v>-554</v>
-      </c>
-      <c r="V77" s="5">
-        <f>-1202+742-2040-U77-T77-S77</f>
-        <v>-39</v>
-      </c>
-      <c r="W77" s="5">
-        <f>-150+179-851</f>
-        <v>-822</v>
-      </c>
-    </row>
-    <row r="78" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B78" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="S78" s="5">
-        <v>-1091</v>
-      </c>
-      <c r="T78" s="5">
-        <f>-2190-S78</f>
-        <v>-1099</v>
-      </c>
-      <c r="U78" s="5">
-        <f>-3289-T78-S78</f>
-        <v>-1099</v>
-      </c>
-      <c r="V78" s="5">
-        <f>-4391-U78-T78-S78</f>
-        <v>-1102</v>
-      </c>
-      <c r="W78" s="5">
-        <v>-1103</v>
-      </c>
-    </row>
-    <row r="79" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B79" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S79" s="5">
         <f>-562-1000</f>
         <v>-1562</v>
       </c>
-      <c r="T79" s="5">
-        <f>1749-3500-S79</f>
+      <c r="T77" s="5">
+        <f>1749-3500-S77</f>
         <v>-189</v>
       </c>
-      <c r="U79" s="5">
-        <f>936-3500-T79-S79</f>
+      <c r="U77" s="5">
+        <f>936-3500-T77-S77</f>
         <v>-813</v>
       </c>
-      <c r="V79" s="5">
-        <f>-167-3500+4-U79-T79-S79</f>
+      <c r="V77" s="5">
+        <f>-167-3500+4-U77-T77-S77</f>
         <v>-1099</v>
       </c>
-      <c r="W79" s="5">
+      <c r="W77" s="5">
         <f>-396+5627-7630</f>
         <v>-2399</v>
       </c>
+      <c r="X77" s="5">
+        <f>-396+11837-9700-W77</f>
+        <v>4140</v>
+      </c>
+      <c r="Y77" s="5">
+        <f>-396+19548-9771-X77-W77</f>
+        <v>7640</v>
+      </c>
+      <c r="Z77" s="5">
+        <f>1889+19548-15841-Y77-X77-W77</f>
+        <v>-3785</v>
+      </c>
+      <c r="AA77" s="5">
+        <f>-238-1052</f>
+        <v>-1290</v>
+      </c>
+      <c r="AB77" s="5"/>
+      <c r="AC77" s="5"/>
+      <c r="AD77" s="5"/>
+      <c r="AE77" s="5"/>
+      <c r="AF77" s="5"/>
+      <c r="AG77" s="5"/>
+      <c r="AH77" s="5"/>
+      <c r="AI77" s="5"/>
+      <c r="AJ77" s="5"/>
+      <c r="AK77" s="5"/>
+      <c r="AL77" s="5"/>
+      <c r="AM77" s="5"/>
+      <c r="AO77" s="5"/>
+      <c r="AP77" s="5"/>
+      <c r="AQ77" s="5"/>
+      <c r="AR77" s="5"/>
     </row>
-    <row r="80" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B80" s="1" t="s">
-        <v>77</v>
-      </c>
+    <row r="78" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="5">
+        <v>27</v>
+      </c>
+      <c r="T78" s="5">
+        <f>31-S78</f>
+        <v>4</v>
+      </c>
+      <c r="U78" s="5">
+        <f>34-T78-S78</f>
+        <v>3</v>
+      </c>
+      <c r="V78" s="5">
+        <f>0-U78-T78-S78</f>
+        <v>-34</v>
+      </c>
+      <c r="W78" s="5">
+        <v>-261</v>
+      </c>
+      <c r="X78" s="5">
+        <f>-276-W78</f>
+        <v>-15</v>
+      </c>
+      <c r="Y78" s="5">
+        <f>-299-X78-W78</f>
+        <v>-23</v>
+      </c>
+      <c r="Z78" s="5">
+        <f>1092-Y78-X78-W78</f>
+        <v>1391</v>
+      </c>
+      <c r="AA78" s="5">
+        <v>1855</v>
+      </c>
+      <c r="AB78" s="5"/>
+      <c r="AC78" s="5"/>
+      <c r="AD78" s="5"/>
+      <c r="AE78" s="5"/>
+      <c r="AF78" s="5"/>
+      <c r="AG78" s="5"/>
+      <c r="AH78" s="5"/>
+      <c r="AI78" s="5"/>
+      <c r="AJ78" s="5"/>
+      <c r="AK78" s="5"/>
+      <c r="AL78" s="5"/>
+      <c r="AM78" s="5"/>
+      <c r="AO78" s="5"/>
+      <c r="AP78" s="5"/>
+      <c r="AQ78" s="5"/>
+      <c r="AR78" s="5"/>
+    </row>
+    <row r="79" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="5"/>
+      <c r="S79" s="5">
+        <f>SUM(S75:S78)</f>
+        <v>-3528</v>
+      </c>
+      <c r="T79" s="5">
+        <f>SUM(T75:T78)</f>
+        <v>-2289</v>
+      </c>
+      <c r="U79" s="5">
+        <f>SUM(U75:U78)</f>
+        <v>-2463</v>
+      </c>
+      <c r="V79" s="5">
+        <f>SUM(V75:V78)</f>
+        <v>-2274</v>
+      </c>
+      <c r="W79" s="5">
+        <f>SUM(W75:W78)</f>
+        <v>-4585</v>
+      </c>
+      <c r="X79" s="5">
+        <f t="shared" ref="X79:AA79" si="165">SUM(X75:X78)</f>
+        <v>2938</v>
+      </c>
+      <c r="Y79" s="5">
+        <f t="shared" si="165"/>
+        <v>6559</v>
+      </c>
+      <c r="Z79" s="5">
+        <f t="shared" si="165"/>
+        <v>-3814</v>
+      </c>
+      <c r="AA79" s="5">
+        <f t="shared" si="165"/>
+        <v>210</v>
+      </c>
+      <c r="AB79" s="5"/>
+      <c r="AC79" s="5"/>
+      <c r="AD79" s="5"/>
+      <c r="AE79" s="5"/>
+      <c r="AF79" s="5"/>
+      <c r="AG79" s="5"/>
+      <c r="AH79" s="5"/>
+      <c r="AI79" s="5"/>
+      <c r="AJ79" s="5"/>
+      <c r="AK79" s="5"/>
+      <c r="AL79" s="5"/>
+      <c r="AM79" s="5"/>
+      <c r="AO79" s="5"/>
+      <c r="AP79" s="5"/>
+      <c r="AQ79" s="5"/>
+      <c r="AR79" s="5"/>
+    </row>
+    <row r="80" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5"/>
       <c r="S80" s="5">
+        <v>-36</v>
+      </c>
+      <c r="T80" s="5">
+        <f>-10-S80</f>
+        <v>26</v>
+      </c>
+      <c r="U80" s="5">
+        <f>-2-T80-S80</f>
+        <v>8</v>
+      </c>
+      <c r="V80" s="5">
+        <f>-70-U80-T80-S80</f>
+        <v>-68</v>
+      </c>
+      <c r="W80" s="5">
+        <v>85</v>
+      </c>
+      <c r="X80" s="5">
+        <f>-44-W80</f>
+        <v>-129</v>
+      </c>
+      <c r="Y80" s="5">
+        <f>-95-X80-W80</f>
+        <v>-51</v>
+      </c>
+      <c r="Z80" s="5">
+        <f>124-Y80-X80-W80</f>
+        <v>219</v>
+      </c>
+      <c r="AA80" s="5">
         <v>27</v>
       </c>
-      <c r="T80" s="5">
-        <f>31-S80</f>
-        <v>4</v>
-      </c>
-      <c r="U80" s="5">
-        <f>34-T80-S80</f>
-        <v>3</v>
-      </c>
-      <c r="V80" s="5">
-        <f>0-U80-T80-S80</f>
-        <v>-34</v>
-      </c>
-      <c r="W80" s="5">
-        <v>-261</v>
-      </c>
+      <c r="AB80" s="5"/>
+      <c r="AC80" s="5"/>
+      <c r="AD80" s="5"/>
+      <c r="AE80" s="5"/>
+      <c r="AF80" s="5"/>
+      <c r="AG80" s="5"/>
+      <c r="AH80" s="5"/>
+      <c r="AI80" s="5"/>
+      <c r="AJ80" s="5"/>
+      <c r="AK80" s="5"/>
+      <c r="AL80" s="5"/>
+      <c r="AM80" s="5"/>
+      <c r="AO80" s="5"/>
+      <c r="AP80" s="5"/>
+      <c r="AQ80" s="5"/>
+      <c r="AR80" s="5"/>
     </row>
-    <row r="81" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B81" s="1" t="s">
-        <v>111</v>
-      </c>
+    <row r="81" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="5"/>
       <c r="S81" s="5">
-        <f>SUM(S77:S80)</f>
-        <v>-3528</v>
+        <f>+S79+S80+S73+S68</f>
+        <v>1848</v>
       </c>
       <c r="T81" s="5">
-        <f>SUM(T77:T80)</f>
-        <v>-2289</v>
+        <f>+T79+T80+T73+T68</f>
+        <v>-3369</v>
       </c>
       <c r="U81" s="5">
-        <f>SUM(U77:U80)</f>
-        <v>-2463</v>
+        <f>+U79+U80+U73+U68</f>
+        <v>1237</v>
       </c>
       <c r="V81" s="5">
-        <f>SUM(V77:V80)</f>
-        <v>-2274</v>
+        <f>+V79+V80+V73+V68</f>
+        <v>973</v>
       </c>
       <c r="W81" s="5">
-        <f>SUM(W77:W80)</f>
-        <v>-4585</v>
-      </c>
-    </row>
-    <row r="82" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B82" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="S82" s="4">
-        <v>-36</v>
-      </c>
-      <c r="T82" s="4">
-        <f>-10-S82</f>
-        <v>26</v>
-      </c>
-      <c r="U82" s="4">
-        <f>-2-T82-S82</f>
-        <v>8</v>
-      </c>
-      <c r="V82" s="4">
-        <f>-70-U82-T82-S82</f>
-        <v>-68</v>
-      </c>
-      <c r="W82" s="5">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B83" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="S83" s="5">
-        <f>+S81+S82+S73+S68</f>
-        <v>1848</v>
-      </c>
-      <c r="T83" s="5">
-        <f>+T81+T82+T73+T68</f>
-        <v>-3369</v>
-      </c>
-      <c r="U83" s="5">
-        <f>+U81+U82+U73+U68</f>
-        <v>1237</v>
-      </c>
-      <c r="V83" s="5">
-        <f>+V81+V82+V73+V68</f>
-        <v>973</v>
-      </c>
-      <c r="W83" s="5">
-        <f>+W81+W82+W73+W68</f>
+        <f>+W79+W80+W73+W68</f>
         <v>162</v>
       </c>
+      <c r="X81" s="5">
+        <f t="shared" ref="X81:AA81" si="166">+X79+X80+X73+X68</f>
+        <v>325</v>
+      </c>
+      <c r="Y81" s="5">
+        <f t="shared" si="166"/>
+        <v>6465</v>
+      </c>
+      <c r="Z81" s="5">
+        <f t="shared" si="166"/>
+        <v>-6620</v>
+      </c>
+      <c r="AA81" s="5">
+        <f t="shared" si="166"/>
+        <v>-341</v>
+      </c>
+      <c r="AB81" s="5"/>
+      <c r="AC81" s="5"/>
+      <c r="AD81" s="5"/>
+      <c r="AE81" s="5"/>
+      <c r="AF81" s="5"/>
+      <c r="AG81" s="5"/>
+      <c r="AH81" s="5"/>
+      <c r="AI81" s="5"/>
+      <c r="AJ81" s="5"/>
+      <c r="AK81" s="5"/>
+      <c r="AL81" s="5"/>
+      <c r="AM81" s="5"/>
+      <c r="AO81" s="5"/>
+      <c r="AP81" s="5"/>
+      <c r="AQ81" s="5"/>
+      <c r="AR81" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/ORCL.xlsx
+++ b/ORCL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373E2630-2351-46F8-9175-1F615CE55660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0021465B-E1B5-4C08-BF3E-7B36ADDC5BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="240" windowWidth="22090" windowHeight="20070" tabRatio="319" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50300" yWindow="3270" windowWidth="23470" windowHeight="16810" tabRatio="319" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1020,7 +1020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AD04C5-FAB4-8B42-B6A2-F2686B3BB573}">
   <dimension ref="B2:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1117,11 +1117,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284BEAAF-34CF-A143-8837-7F659B2590CD}">
   <dimension ref="A1:EK81"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="T68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
+      <selection pane="bottomRight" activeCell="AA70" sqref="AA70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1611,31 +1611,31 @@
         <v>3839</v>
       </c>
       <c r="AB8" s="5">
-        <f>+X8*1.05</f>
+        <f t="shared" ref="AB8:AH8" si="5">+X8*1.05</f>
         <v>3678.15</v>
       </c>
       <c r="AC8" s="5">
-        <f>+Y8*1.05</f>
+        <f t="shared" si="5"/>
         <v>3735.9</v>
       </c>
       <c r="AD8" s="5">
-        <f>+Z8*1.05</f>
+        <f t="shared" si="5"/>
         <v>3929.1000000000004</v>
       </c>
       <c r="AE8" s="5">
-        <f>+AA8*1.05</f>
+        <f t="shared" si="5"/>
         <v>4030.9500000000003</v>
       </c>
       <c r="AF8" s="5">
-        <f>+AB8*1.05</f>
+        <f t="shared" si="5"/>
         <v>3862.0575000000003</v>
       </c>
       <c r="AG8" s="5">
-        <f>+AC8*1.05</f>
+        <f t="shared" si="5"/>
         <v>3922.6950000000002</v>
       </c>
       <c r="AH8" s="5">
-        <f>+AD8*1.05</f>
+        <f t="shared" si="5"/>
         <v>4125.5550000000003</v>
       </c>
       <c r="AN8" s="4"/>
@@ -1745,11 +1745,11 @@
         <v>10235</v>
       </c>
       <c r="AV9" s="5">
-        <f t="shared" ref="AV9:AV16" si="5">SUM(AA9:AD9)</f>
+        <f t="shared" ref="AV9:AV16" si="6">SUM(AA9:AD9)</f>
         <v>18347</v>
       </c>
       <c r="AW9" s="5">
-        <f t="shared" ref="AW9:AX9" si="6">SUM(AE9:AH9)</f>
+        <f t="shared" ref="AW9" si="7">SUM(AE9:AH9)</f>
         <v>34000</v>
       </c>
       <c r="AX9" s="5">
@@ -1822,31 +1822,31 @@
         <v>7186</v>
       </c>
       <c r="AB11" s="5">
-        <f t="shared" ref="AB11:AH11" si="7">+AB9+AB8</f>
+        <f t="shared" ref="AB11:AH11" si="8">+AB9+AB8</f>
         <v>7678.15</v>
       </c>
       <c r="AC11" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8735.9</v>
       </c>
       <c r="AD11" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9929.1</v>
       </c>
       <c r="AE11" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11030.95</v>
       </c>
       <c r="AF11" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11862.057500000001</v>
       </c>
       <c r="AG11" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12922.695</v>
       </c>
       <c r="AH11" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14125.555</v>
       </c>
       <c r="AI11" s="5"/>
@@ -1858,15 +1858,15 @@
         <v>15882</v>
       </c>
       <c r="AT11" s="5">
-        <f t="shared" ref="AT11:AT16" si="8">SUM(S11:V11)</f>
+        <f t="shared" ref="AT11:AT16" si="9">SUM(S11:V11)</f>
         <v>19775</v>
       </c>
       <c r="AU11" s="5">
-        <f t="shared" ref="AU11:AV16" si="9">SUM(W11:Z11)</f>
+        <f t="shared" ref="AU11:AU16" si="10">SUM(W11:Z11)</f>
         <v>24507</v>
       </c>
       <c r="AV11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>33529.15</v>
       </c>
       <c r="AW11" s="4"/>
@@ -1934,27 +1934,27 @@
         <v>4869</v>
       </c>
       <c r="AC12" s="18">
-        <f t="shared" ref="AC12:AH12" si="10">+Y12</f>
+        <f t="shared" ref="AC12:AH12" si="11">+Y12</f>
         <v>4797</v>
       </c>
       <c r="AD12" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4961</v>
       </c>
       <c r="AE12" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4955</v>
       </c>
       <c r="AF12" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4869</v>
       </c>
       <c r="AG12" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4797</v>
       </c>
       <c r="AH12" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4961</v>
       </c>
       <c r="AI12" s="18"/>
@@ -1972,15 +1972,15 @@
         <v>19426</v>
       </c>
       <c r="AT12" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>19608</v>
       </c>
       <c r="AU12" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>19523</v>
       </c>
       <c r="AV12" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19582</v>
       </c>
       <c r="AW12" s="17"/>
@@ -2021,15 +2021,15 @@
         <v>7612</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" ref="O13:P13" si="11">+O12+O11</f>
+        <f t="shared" ref="O13:P13" si="12">+O12+O11</f>
         <v>8417</v>
       </c>
       <c r="P13" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8598</v>
       </c>
       <c r="Q13" s="5">
-        <f t="shared" ref="Q13" si="12">+Q12+Q11</f>
+        <f t="shared" ref="Q13" si="13">+Q12+Q11</f>
         <v>8923</v>
       </c>
       <c r="R13" s="5">
@@ -2037,19 +2037,19 @@
         <v>9370</v>
       </c>
       <c r="S13" s="5">
-        <f t="shared" ref="S13" si="13">+S12+S11</f>
+        <f t="shared" ref="S13" si="14">+S12+S11</f>
         <v>9547</v>
       </c>
       <c r="T13" s="5">
-        <f t="shared" ref="T13" si="14">+T12+T11</f>
+        <f t="shared" ref="T13" si="15">+T12+T11</f>
         <v>9639</v>
       </c>
       <c r="U13" s="5">
-        <f t="shared" ref="U13" si="15">+U12+U11</f>
+        <f t="shared" ref="U13" si="16">+U12+U11</f>
         <v>9963</v>
       </c>
       <c r="V13" s="5">
-        <f t="shared" ref="V13" si="16">+V12+V11</f>
+        <f t="shared" ref="V13" si="17">+V12+V11</f>
         <v>10234</v>
       </c>
       <c r="W13" s="5">
@@ -2070,31 +2070,31 @@
         <v>12141</v>
       </c>
       <c r="AB13" s="5">
-        <f t="shared" ref="AB13:AH13" si="17">+AB11+AB12</f>
+        <f t="shared" ref="AB13:AH13" si="18">+AB11+AB12</f>
         <v>12547.15</v>
       </c>
       <c r="AC13" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>13532.9</v>
       </c>
       <c r="AD13" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>14890.1</v>
       </c>
       <c r="AE13" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>15985.95</v>
       </c>
       <c r="AF13" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>16731.057500000003</v>
       </c>
       <c r="AG13" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>17719.695</v>
       </c>
       <c r="AH13" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>19086.555</v>
       </c>
       <c r="AI13" s="5"/>
@@ -2212,27 +2212,27 @@
         <v>1195</v>
       </c>
       <c r="AC14" s="20">
-        <f t="shared" ref="AC14:AC16" si="18">+Y14</f>
+        <f t="shared" ref="AC14:AC16" si="19">+Y14</f>
         <v>1129</v>
       </c>
       <c r="AD14" s="20">
-        <f t="shared" ref="AD14:AD16" si="19">+Z14</f>
+        <f t="shared" ref="AD14:AD16" si="20">+Z14</f>
         <v>2007</v>
       </c>
       <c r="AE14" s="20">
-        <f t="shared" ref="AE14:AE16" si="20">+AA14</f>
+        <f t="shared" ref="AE14:AE16" si="21">+AA14</f>
         <v>766</v>
       </c>
       <c r="AF14" s="20">
-        <f t="shared" ref="AF14:AF16" si="21">+AB14</f>
+        <f t="shared" ref="AF14:AF16" si="22">+AB14</f>
         <v>1195</v>
       </c>
       <c r="AG14" s="20">
-        <f t="shared" ref="AG14:AG16" si="22">+AC14</f>
+        <f t="shared" ref="AG14:AG16" si="23">+AC14</f>
         <v>1129</v>
       </c>
       <c r="AH14" s="20">
-        <f t="shared" ref="AH14:AH16" si="23">+AD14</f>
+        <f t="shared" ref="AH14:AH16" si="24">+AD14</f>
         <v>2007</v>
       </c>
       <c r="AI14" s="20"/>
@@ -2258,19 +2258,19 @@
         <v>5878</v>
       </c>
       <c r="AS14" s="5">
-        <f t="shared" ref="AS14:AS16" si="24">SUM(O14:R14)</f>
+        <f t="shared" ref="AS14:AS16" si="25">SUM(O14:R14)</f>
         <v>5779</v>
       </c>
       <c r="AT14" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5081</v>
       </c>
       <c r="AU14" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5201</v>
       </c>
       <c r="AV14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5097</v>
       </c>
     </row>
@@ -2346,31 +2346,31 @@
         <v>670</v>
       </c>
       <c r="AB15" s="20">
-        <f t="shared" ref="AB15:AB16" si="25">+X15</f>
+        <f t="shared" ref="AB15:AB16" si="26">+X15</f>
         <v>728</v>
       </c>
       <c r="AC15" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>703</v>
       </c>
       <c r="AD15" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>850</v>
       </c>
       <c r="AE15" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>670</v>
       </c>
       <c r="AF15" s="20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>728</v>
       </c>
       <c r="AG15" s="20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>703</v>
       </c>
       <c r="AH15" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>850</v>
       </c>
       <c r="AI15" s="5"/>
@@ -2396,19 +2396,19 @@
         <v>3183</v>
       </c>
       <c r="AS15" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3274</v>
       </c>
       <c r="AT15" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3066</v>
       </c>
       <c r="AU15" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2936</v>
       </c>
       <c r="AV15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2951</v>
       </c>
     </row>
@@ -2484,31 +2484,31 @@
         <v>1349</v>
       </c>
       <c r="AB16" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1330</v>
       </c>
       <c r="AC16" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1291</v>
       </c>
       <c r="AD16" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1348</v>
       </c>
       <c r="AE16" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1349</v>
       </c>
       <c r="AF16" s="20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1330</v>
       </c>
       <c r="AG16" s="20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1291</v>
       </c>
       <c r="AH16" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1348</v>
       </c>
       <c r="AI16" s="5"/>
@@ -2534,19 +2534,19 @@
         <v>3205</v>
       </c>
       <c r="AS16" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5594</v>
       </c>
       <c r="AT16" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5431</v>
       </c>
       <c r="AU16" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5232</v>
       </c>
       <c r="AV16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5318</v>
       </c>
     </row>
@@ -2559,83 +2559,83 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9">
-        <f t="shared" ref="G18:Q18" si="26">SUM(G13:G16)</f>
+        <f t="shared" ref="G18:Q18" si="27">SUM(G13:G16)</f>
         <v>9367</v>
       </c>
       <c r="H18" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9800</v>
       </c>
       <c r="I18" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>10085</v>
       </c>
       <c r="J18" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>11227</v>
       </c>
       <c r="K18" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9728</v>
       </c>
       <c r="L18" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>10360</v>
       </c>
       <c r="M18" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>10513</v>
       </c>
       <c r="N18" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>11840</v>
       </c>
       <c r="O18" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>11445</v>
       </c>
       <c r="P18" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>12275</v>
       </c>
       <c r="Q18" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>12398</v>
       </c>
       <c r="R18" s="9">
-        <f t="shared" ref="R18:AH18" si="27">SUM(R13:R16)</f>
+        <f t="shared" ref="R18:AH18" si="28">SUM(R13:R16)</f>
         <v>13837</v>
       </c>
       <c r="S18" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>12453</v>
       </c>
       <c r="T18" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>12941</v>
       </c>
       <c r="U18" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>13280</v>
       </c>
       <c r="V18" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>14287</v>
       </c>
       <c r="W18" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>13307</v>
       </c>
       <c r="X18" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>14059</v>
       </c>
       <c r="Y18" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>14130</v>
       </c>
       <c r="Z18" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>15903</v>
       </c>
       <c r="AA18" s="9">
@@ -2643,31 +2643,31 @@
         <v>14926</v>
       </c>
       <c r="AB18" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>15800.15</v>
       </c>
       <c r="AC18" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>16655.900000000001</v>
       </c>
       <c r="AD18" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>19095.099999999999</v>
       </c>
       <c r="AE18" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>18770.95</v>
       </c>
       <c r="AF18" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>19984.057500000003</v>
       </c>
       <c r="AG18" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>20842.695</v>
       </c>
       <c r="AH18" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>23291.555</v>
       </c>
       <c r="AI18" s="9"/>
@@ -2675,19 +2675,19 @@
       <c r="AK18" s="9"/>
       <c r="AL18" s="9"/>
       <c r="AM18" s="9">
-        <f t="shared" ref="AM18:AP18" si="28">SUM(AM13:AM16)</f>
+        <f t="shared" ref="AM18:AP18" si="29">SUM(AM13:AM16)</f>
         <v>37728</v>
       </c>
       <c r="AN18" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>39831</v>
       </c>
       <c r="AO18" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>39506</v>
       </c>
       <c r="AP18" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>39068</v>
       </c>
       <c r="AQ18" s="9">
@@ -2711,23 +2711,23 @@
         <v>57399</v>
       </c>
       <c r="AV18" s="9">
-        <f t="shared" ref="AV18:AZ18" si="29">AU18*1.03</f>
+        <f t="shared" ref="AV18:AZ18" si="30">AU18*1.03</f>
         <v>59120.97</v>
       </c>
       <c r="AW18" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>60894.599099999999</v>
       </c>
       <c r="AX18" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>62721.437073000001</v>
       </c>
       <c r="AY18" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>64603.080185190003</v>
       </c>
       <c r="AZ18" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>66541.1725907457</v>
       </c>
     </row>
@@ -2828,27 +2828,27 @@
         <v>5372.0509999999995</v>
       </c>
       <c r="AC19" s="5">
-        <f t="shared" ref="AC19:AH19" si="30">+AC18-AC20</f>
+        <f t="shared" ref="AC19:AH19" si="31">+AC18-AC20</f>
         <v>5829.5650000000005</v>
       </c>
       <c r="AD19" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>6874.235999999999</v>
       </c>
       <c r="AE19" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>6945.2515000000003</v>
       </c>
       <c r="AF19" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>7593.9418500000011</v>
       </c>
       <c r="AG19" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>8128.6510500000004</v>
       </c>
       <c r="AH19" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>9316.6220000000012</v>
       </c>
       <c r="AI19" s="5"/>
@@ -2888,27 +2888,27 @@
         <v>10592.2</v>
       </c>
       <c r="AU19" s="3">
-        <f t="shared" ref="AU19:AZ19" si="31">AU18*0.2</f>
+        <f t="shared" ref="AU19:AZ19" si="32">AU18*0.2</f>
         <v>11479.800000000001</v>
       </c>
       <c r="AV19" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>11824.194000000001</v>
       </c>
       <c r="AW19" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>12178.919820000001</v>
       </c>
       <c r="AX19" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>12544.287414600001</v>
       </c>
       <c r="AY19" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>12920.616037038002</v>
       </c>
       <c r="AZ19" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>13308.23451814914</v>
       </c>
     </row>
@@ -2921,7 +2921,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5">
-        <f t="shared" ref="G20" si="32">G18-G19</f>
+        <f t="shared" ref="G20" si="33">G18-G19</f>
         <v>7487</v>
       </c>
       <c r="H20" s="5">
@@ -2937,27 +2937,27 @@
         <v>9105</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" ref="K20:O20" si="33">K18-K19</f>
+        <f t="shared" ref="K20:O20" si="34">K18-K19</f>
         <v>7625</v>
       </c>
       <c r="L20" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>8201</v>
       </c>
       <c r="M20" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>8295</v>
       </c>
       <c r="N20" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9444</v>
       </c>
       <c r="O20" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>8408</v>
       </c>
       <c r="P20" s="5">
-        <f t="shared" ref="P20" si="34">P18*0.8</f>
+        <f t="shared" ref="P20" si="35">P18*0.8</f>
         <v>9820</v>
       </c>
       <c r="Q20" s="5">
@@ -2965,43 +2965,43 @@
         <v>8959</v>
       </c>
       <c r="R20" s="5">
-        <f t="shared" ref="R20:S20" si="35">+R18-R19</f>
+        <f t="shared" ref="R20:S20" si="36">+R18-R19</f>
         <v>10107</v>
       </c>
       <c r="S20" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>8843</v>
       </c>
       <c r="T20" s="5">
-        <f t="shared" ref="T20:AA20" si="36">+T18-T19</f>
+        <f t="shared" ref="T20:AA20" si="37">+T18-T19</f>
         <v>9201</v>
       </c>
       <c r="U20" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>9411</v>
       </c>
       <c r="V20" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>10364</v>
       </c>
       <c r="W20" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>9401</v>
       </c>
       <c r="X20" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>9974</v>
       </c>
       <c r="Y20" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>9935</v>
       </c>
       <c r="Z20" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>11163</v>
       </c>
       <c r="AA20" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>10042</v>
       </c>
       <c r="AB20" s="5">
@@ -3037,19 +3037,19 @@
       <c r="AK20" s="5"/>
       <c r="AL20" s="5"/>
       <c r="AM20" s="5">
-        <f t="shared" ref="AM20:AO20" si="37">AM18-AM19</f>
+        <f t="shared" ref="AM20:AO20" si="38">AM18-AM19</f>
         <v>30259</v>
       </c>
       <c r="AN20" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>31750</v>
       </c>
       <c r="AO20" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>31511</v>
       </c>
       <c r="AP20" s="5">
-        <f t="shared" ref="AP20" si="38">AP18-AP19</f>
+        <f t="shared" ref="AP20" si="39">AP18-AP19</f>
         <v>31130</v>
       </c>
       <c r="AQ20" s="5">
@@ -3057,7 +3057,7 @@
         <v>32624</v>
       </c>
       <c r="AR20" s="5">
-        <f t="shared" ref="AR20" si="39">AR18-AR19</f>
+        <f t="shared" ref="AR20" si="40">AR18-AR19</f>
         <v>33563</v>
       </c>
       <c r="AS20" s="3">
@@ -3065,31 +3065,31 @@
         <v>36391</v>
       </c>
       <c r="AT20" s="3">
-        <f t="shared" ref="AT20:AZ20" si="40">AT18-AT19</f>
+        <f t="shared" ref="AT20:AZ20" si="41">AT18-AT19</f>
         <v>42368.800000000003</v>
       </c>
       <c r="AU20" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>45919.199999999997</v>
       </c>
       <c r="AV20" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>47296.775999999998</v>
       </c>
       <c r="AW20" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>48715.679279999997</v>
       </c>
       <c r="AX20" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>50177.149658399998</v>
       </c>
       <c r="AY20" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>51682.464148152001</v>
       </c>
       <c r="AZ20" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>53232.93807259656</v>
       </c>
     </row>
@@ -3165,31 +3165,31 @@
         <v>2063</v>
       </c>
       <c r="AB21" s="5">
-        <f t="shared" ref="AB21:AB22" si="41">+X21*1.01</f>
+        <f t="shared" ref="AB21" si="42">+X21*1.01</f>
         <v>2211.9</v>
       </c>
       <c r="AC21" s="5">
-        <f t="shared" ref="AC21:AC23" si="42">+Y21*1.01</f>
+        <f t="shared" ref="AC21:AC23" si="43">+Y21*1.01</f>
         <v>2140.19</v>
       </c>
       <c r="AD21" s="5">
-        <f t="shared" ref="AD21:AD23" si="43">+Z21*1.01</f>
+        <f t="shared" ref="AD21:AD23" si="44">+Z21*1.01</f>
         <v>2329.06</v>
       </c>
       <c r="AE21" s="5">
-        <f t="shared" ref="AE21:AE23" si="44">+AA21*1.01</f>
+        <f t="shared" ref="AE21:AE23" si="45">+AA21*1.01</f>
         <v>2083.63</v>
       </c>
       <c r="AF21" s="5">
-        <f t="shared" ref="AF21:AF23" si="45">+AB21*1.01</f>
+        <f t="shared" ref="AF21:AF23" si="46">+AB21*1.01</f>
         <v>2234.0190000000002</v>
       </c>
       <c r="AG21" s="5">
-        <f t="shared" ref="AG21:AG23" si="46">+AC21*1.01</f>
+        <f t="shared" ref="AG21:AG23" si="47">+AC21*1.01</f>
         <v>2161.5918999999999</v>
       </c>
       <c r="AH21" s="5">
-        <f t="shared" ref="AH21:AH23" si="47">+AD21*1.01</f>
+        <f t="shared" ref="AH21:AH23" si="48">+AD21*1.01</f>
         <v>2352.3505999999998</v>
       </c>
       <c r="AI21" s="5"/>
@@ -3215,7 +3215,7 @@
         <v>8047</v>
       </c>
       <c r="AS21" s="3">
-        <f t="shared" ref="AS21:AS23" si="48">SUM(O21:R21)</f>
+        <f t="shared" ref="AS21:AS23" si="49">SUM(O21:R21)</f>
         <v>8832</v>
       </c>
       <c r="AT21" s="3">
@@ -3223,27 +3223,27 @@
         <v>9008.64</v>
       </c>
       <c r="AU21" s="3">
-        <f t="shared" ref="AU21:AZ21" si="49">AT21*1.02</f>
+        <f t="shared" ref="AU21:AZ21" si="50">AT21*1.02</f>
         <v>9188.8127999999997</v>
       </c>
       <c r="AV21" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>9372.5890560000007</v>
       </c>
       <c r="AW21" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>9560.040837120001</v>
       </c>
       <c r="AX21" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>9751.241653862402</v>
       </c>
       <c r="AY21" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>9946.2664869396503</v>
       </c>
       <c r="AZ21" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>10145.191816678444</v>
       </c>
     </row>
@@ -3323,27 +3323,27 @@
         <v>2495.71</v>
       </c>
       <c r="AC22" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>2453.29</v>
       </c>
       <c r="AD22" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>2680.54</v>
       </c>
       <c r="AE22" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>2515.91</v>
       </c>
       <c r="AF22" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2520.6671000000001</v>
       </c>
       <c r="AG22" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>2477.8229000000001</v>
       </c>
       <c r="AH22" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>2707.3454000000002</v>
       </c>
       <c r="AI22" s="5"/>
@@ -3369,35 +3369,35 @@
         <v>7219</v>
       </c>
       <c r="AS22" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>8686</v>
       </c>
       <c r="AT22" s="3">
-        <f t="shared" ref="AT22:AZ22" si="50">AS22*1.01</f>
+        <f t="shared" ref="AT22:AZ22" si="51">AS22*1.01</f>
         <v>8772.86</v>
       </c>
       <c r="AU22" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>8860.588600000001</v>
       </c>
       <c r="AV22" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>8949.1944860000003</v>
       </c>
       <c r="AW22" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>9038.6864308599997</v>
       </c>
       <c r="AX22" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>9129.0732951686005</v>
       </c>
       <c r="AY22" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>9220.3640281202861</v>
       </c>
       <c r="AZ22" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>9312.5676684014888</v>
       </c>
     </row>
@@ -3473,31 +3473,31 @@
         <v>376</v>
       </c>
       <c r="AB23" s="5">
-        <f t="shared" ref="AB23" si="51">+X23*1.01</f>
+        <f t="shared" ref="AB23" si="52">+X23*1.01</f>
         <v>390.87</v>
       </c>
       <c r="AC23" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>393.9</v>
       </c>
       <c r="AD23" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>471.67</v>
       </c>
       <c r="AE23" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>379.76</v>
       </c>
       <c r="AF23" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>394.77870000000001</v>
       </c>
       <c r="AG23" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>397.839</v>
       </c>
       <c r="AH23" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>476.38670000000002</v>
       </c>
       <c r="AI23" s="5"/>
@@ -3523,35 +3523,35 @@
         <v>1317</v>
       </c>
       <c r="AS23" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1579</v>
       </c>
       <c r="AT23" s="3">
-        <f t="shared" ref="AT23:AZ23" si="52">AS23*1.01</f>
+        <f t="shared" ref="AT23:AZ23" si="53">AS23*1.01</f>
         <v>1594.79</v>
       </c>
       <c r="AU23" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1610.7379000000001</v>
       </c>
       <c r="AV23" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1626.8452790000001</v>
       </c>
       <c r="AW23" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1643.1137317900002</v>
       </c>
       <c r="AX23" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1659.5448691079002</v>
       </c>
       <c r="AY23" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1676.1403177989794</v>
       </c>
       <c r="AZ23" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1692.9017209769693</v>
       </c>
     </row>
@@ -3560,47 +3560,47 @@
         <v>22</v>
       </c>
       <c r="C24" s="5">
-        <f t="shared" ref="C24:M24" si="53">SUM(C21:C23)</f>
+        <f t="shared" ref="C24:M24" si="54">SUM(C21:C23)</f>
         <v>0</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="E24" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" ref="G24" si="54">SUM(G21:G23)</f>
+        <f t="shared" ref="G24" si="55">SUM(G21:G23)</f>
         <v>3738</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>3761</v>
       </c>
       <c r="I24" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>3866</v>
       </c>
       <c r="J24" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>4098</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>3836</v>
       </c>
       <c r="L24" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>4027</v>
       </c>
       <c r="M24" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>4155</v>
       </c>
       <c r="N24" s="5">
@@ -3608,83 +3608,83 @@
         <v>4567</v>
       </c>
       <c r="O24" s="5">
-        <f t="shared" ref="O24:T24" si="55">SUM(O21:O23)</f>
+        <f t="shared" ref="O24:T24" si="56">SUM(O21:O23)</f>
         <v>4681</v>
       </c>
       <c r="P24" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>4740</v>
       </c>
       <c r="Q24" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>4698</v>
       </c>
       <c r="R24" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>4978</v>
       </c>
       <c r="S24" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>4635</v>
       </c>
       <c r="T24" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>4694</v>
       </c>
       <c r="U24" s="5">
-        <f t="shared" ref="U24:AA24" si="56">SUM(U21:U23)</f>
+        <f t="shared" ref="U24:AA24" si="57">SUM(U21:U23)</f>
         <v>4667</v>
       </c>
       <c r="V24" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>4742</v>
       </c>
       <c r="W24" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>4700</v>
       </c>
       <c r="X24" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>5048</v>
       </c>
       <c r="Y24" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>4938</v>
       </c>
       <c r="Z24" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>5427</v>
       </c>
       <c r="AA24" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>4930</v>
       </c>
       <c r="AB24" s="5">
-        <f t="shared" ref="AB24:AH24" si="57">SUM(AB21:AB23)</f>
+        <f t="shared" ref="AB24:AH24" si="58">SUM(AB21:AB23)</f>
         <v>5098.4800000000005</v>
       </c>
       <c r="AC24" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>4987.3799999999992</v>
       </c>
       <c r="AD24" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>5481.27</v>
       </c>
       <c r="AE24" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>4979.3</v>
       </c>
       <c r="AF24" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>5149.4648000000007</v>
       </c>
       <c r="AG24" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>5037.2538000000004</v>
       </c>
       <c r="AH24" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>5536.0826999999999</v>
       </c>
       <c r="AI24" s="5"/>
@@ -3692,19 +3692,19 @@
       <c r="AK24" s="5"/>
       <c r="AL24" s="5"/>
       <c r="AM24" s="5">
-        <f t="shared" ref="AM24:AO24" si="58">SUM(AM21:AM23)</f>
+        <f t="shared" ref="AM24:AO24" si="59">SUM(AM21:AM23)</f>
         <v>15532</v>
       </c>
       <c r="AN24" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>15811</v>
       </c>
       <c r="AO24" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>15800</v>
       </c>
       <c r="AP24" s="5">
-        <f t="shared" ref="AP24" si="59">SUM(AP21:AP23)</f>
+        <f t="shared" ref="AP24" si="60">SUM(AP21:AP23)</f>
         <v>15342</v>
       </c>
       <c r="AQ24" s="5">
@@ -3716,35 +3716,35 @@
         <v>16583</v>
       </c>
       <c r="AS24" s="5">
-        <f t="shared" ref="AS24" si="60">SUM(AS21:AS23)</f>
+        <f t="shared" ref="AS24" si="61">SUM(AS21:AS23)</f>
         <v>19097</v>
       </c>
       <c r="AT24" s="5">
-        <f t="shared" ref="AT24" si="61">SUM(AT21:AT23)</f>
+        <f t="shared" ref="AT24" si="62">SUM(AT21:AT23)</f>
         <v>19376.29</v>
       </c>
       <c r="AU24" s="5">
-        <f t="shared" ref="AU24" si="62">SUM(AU21:AU23)</f>
+        <f t="shared" ref="AU24" si="63">SUM(AU21:AU23)</f>
         <v>19660.139300000003</v>
       </c>
       <c r="AV24" s="5">
-        <f t="shared" ref="AV24" si="63">SUM(AV21:AV23)</f>
+        <f t="shared" ref="AV24" si="64">SUM(AV21:AV23)</f>
         <v>19948.628821000002</v>
       </c>
       <c r="AW24" s="5">
-        <f t="shared" ref="AW24" si="64">SUM(AW21:AW23)</f>
+        <f t="shared" ref="AW24" si="65">SUM(AW21:AW23)</f>
         <v>20241.84099977</v>
       </c>
       <c r="AX24" s="5">
-        <f t="shared" ref="AX24" si="65">SUM(AX21:AX23)</f>
+        <f t="shared" ref="AX24" si="66">SUM(AX21:AX23)</f>
         <v>20539.859818138902</v>
       </c>
       <c r="AY24" s="5">
-        <f t="shared" ref="AY24" si="66">SUM(AY21:AY23)</f>
+        <f t="shared" ref="AY24" si="67">SUM(AY21:AY23)</f>
         <v>20842.770832858914</v>
       </c>
       <c r="AZ24" s="5">
-        <f t="shared" ref="AZ24" si="67">SUM(AZ21:AZ23)</f>
+        <f t="shared" ref="AZ24" si="68">SUM(AZ21:AZ23)</f>
         <v>21150.661206056902</v>
       </c>
     </row>
@@ -3753,47 +3753,47 @@
         <v>23</v>
       </c>
       <c r="C25" s="5">
-        <f t="shared" ref="C25:M25" si="68">C20-C24</f>
+        <f t="shared" ref="C25:M25" si="69">C20-C24</f>
         <v>0</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" ref="G25" si="69">G20-G24</f>
+        <f t="shared" ref="G25" si="70">G20-G24</f>
         <v>3749</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>4100</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>4304</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>5007</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>3789</v>
       </c>
       <c r="L25" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>4174</v>
       </c>
       <c r="M25" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>4140</v>
       </c>
       <c r="N25" s="5">
@@ -3801,83 +3801,83 @@
         <v>4877</v>
       </c>
       <c r="O25" s="5">
-        <f t="shared" ref="O25:T25" si="70">O20-O24</f>
+        <f t="shared" ref="O25:T25" si="71">O20-O24</f>
         <v>3727</v>
       </c>
       <c r="P25" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>5080</v>
       </c>
       <c r="Q25" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>4261</v>
       </c>
       <c r="R25" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>5129</v>
       </c>
       <c r="S25" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>4208</v>
       </c>
       <c r="T25" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>4507</v>
       </c>
       <c r="U25" s="5">
-        <f t="shared" ref="U25:AA25" si="71">U20-U24</f>
+        <f t="shared" ref="U25:AA25" si="72">U20-U24</f>
         <v>4744</v>
       </c>
       <c r="V25" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>5622</v>
       </c>
       <c r="W25" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>4701</v>
       </c>
       <c r="X25" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>4926</v>
       </c>
       <c r="Y25" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>4997</v>
       </c>
       <c r="Z25" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>5736</v>
       </c>
       <c r="AA25" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>5112</v>
       </c>
       <c r="AB25" s="5">
-        <f t="shared" ref="AB25:AH25" si="72">AB20-AB24</f>
+        <f t="shared" ref="AB25:AH25" si="73">AB20-AB24</f>
         <v>5329.6189999999997</v>
       </c>
       <c r="AC25" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>5838.9550000000017</v>
       </c>
       <c r="AD25" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>6739.5939999999991</v>
       </c>
       <c r="AE25" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>6846.3985000000002</v>
       </c>
       <c r="AF25" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>7240.6508500000009</v>
       </c>
       <c r="AG25" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>7676.7901499999989</v>
       </c>
       <c r="AH25" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>8438.8502999999982</v>
       </c>
       <c r="AI25" s="5"/>
@@ -3885,19 +3885,19 @@
       <c r="AK25" s="5"/>
       <c r="AL25" s="5"/>
       <c r="AM25" s="5">
-        <f t="shared" ref="AM25:AO25" si="73">AM20-AM24</f>
+        <f t="shared" ref="AM25:AO25" si="74">AM20-AM24</f>
         <v>14727</v>
       </c>
       <c r="AN25" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>15939</v>
       </c>
       <c r="AO25" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>15711</v>
       </c>
       <c r="AP25" s="5">
-        <f t="shared" ref="AP25" si="74">AP20-AP24</f>
+        <f t="shared" ref="AP25" si="75">AP20-AP24</f>
         <v>15788</v>
       </c>
       <c r="AQ25" s="5">
@@ -3909,35 +3909,35 @@
         <v>16980</v>
       </c>
       <c r="AS25" s="5">
-        <f t="shared" ref="AS25" si="75">AS20-AS24</f>
+        <f t="shared" ref="AS25" si="76">AS20-AS24</f>
         <v>17294</v>
       </c>
       <c r="AT25" s="5">
-        <f t="shared" ref="AT25" si="76">AT20-AT24</f>
+        <f t="shared" ref="AT25" si="77">AT20-AT24</f>
         <v>22992.510000000002</v>
       </c>
       <c r="AU25" s="5">
-        <f t="shared" ref="AU25" si="77">AU20-AU24</f>
+        <f t="shared" ref="AU25" si="78">AU20-AU24</f>
         <v>26259.060699999995</v>
       </c>
       <c r="AV25" s="5">
-        <f t="shared" ref="AV25" si="78">AV20-AV24</f>
+        <f t="shared" ref="AV25" si="79">AV20-AV24</f>
         <v>27348.147178999996</v>
       </c>
       <c r="AW25" s="5">
-        <f t="shared" ref="AW25" si="79">AW20-AW24</f>
+        <f t="shared" ref="AW25" si="80">AW20-AW24</f>
         <v>28473.838280229997</v>
       </c>
       <c r="AX25" s="5">
-        <f t="shared" ref="AX25" si="80">AX20-AX24</f>
+        <f t="shared" ref="AX25" si="81">AX20-AX24</f>
         <v>29637.289840261095</v>
       </c>
       <c r="AY25" s="5">
-        <f t="shared" ref="AY25" si="81">AY20-AY24</f>
+        <f t="shared" ref="AY25" si="82">AY20-AY24</f>
         <v>30839.693315293087</v>
       </c>
       <c r="AZ25" s="5">
-        <f t="shared" ref="AZ25" si="82">AZ20-AZ24</f>
+        <f t="shared" ref="AZ25" si="83">AZ20-AZ24</f>
         <v>32082.276866539658</v>
       </c>
     </row>
@@ -4027,27 +4027,27 @@
         <v>-923</v>
       </c>
       <c r="AC26" s="5">
-        <f t="shared" ref="AC26:AH26" si="83">+AB26</f>
+        <f t="shared" ref="AC26:AH26" si="84">+AB26</f>
         <v>-923</v>
       </c>
       <c r="AD26" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>-923</v>
       </c>
       <c r="AE26" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>-923</v>
       </c>
       <c r="AF26" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>-923</v>
       </c>
       <c r="AG26" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>-923</v>
       </c>
       <c r="AH26" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>-923</v>
       </c>
       <c r="AI26" s="5"/>
@@ -4073,35 +4073,35 @@
         <v>-2755</v>
       </c>
       <c r="AS26" s="3">
-        <f t="shared" ref="AS26:AS28" si="84">SUM(O26:R26)</f>
+        <f t="shared" ref="AS26:AS28" si="85">SUM(O26:R26)</f>
         <v>-3833</v>
       </c>
       <c r="AT26" s="3">
-        <f t="shared" ref="AT26:AZ26" si="85">AS40*$BC$41</f>
+        <f t="shared" ref="AT26:AZ26" si="86">AS40*$BC$41</f>
         <v>0</v>
       </c>
       <c r="AU26" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>195.43633500000004</v>
       </c>
       <c r="AV26" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>420.29955979749997</v>
       </c>
       <c r="AW26" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>656.33135707727865</v>
       </c>
       <c r="AX26" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>903.9377989943905</v>
       </c>
       <c r="AY26" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>1163.538233928062</v>
       </c>
       <c r="AZ26" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>1435.5657020964418</v>
       </c>
     </row>
@@ -4110,31 +4110,31 @@
         <v>25</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" ref="G27" si="86">+G25+G26</f>
+        <f t="shared" ref="G27" si="87">+G25+G26</f>
         <v>3135</v>
       </c>
       <c r="H27" s="5">
-        <f t="shared" ref="H27:J27" si="87">+H25+H26</f>
+        <f t="shared" ref="H27:J27" si="88">+H25+H26</f>
         <v>3500</v>
       </c>
       <c r="I27" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>3719</v>
       </c>
       <c r="J27" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>4310</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" ref="K27" si="88">+K25+K26</f>
+        <f t="shared" ref="K27" si="89">+K25+K26</f>
         <v>3084</v>
       </c>
       <c r="L27" s="5">
-        <f t="shared" ref="L27" si="89">+L25+L26</f>
+        <f t="shared" ref="L27" si="90">+L25+L26</f>
         <v>3495</v>
       </c>
       <c r="M27" s="5">
-        <f t="shared" ref="M27" si="90">+M25+M26</f>
+        <f t="shared" ref="M27" si="91">+M25+M26</f>
         <v>3473</v>
       </c>
       <c r="N27" s="5">
@@ -4142,83 +4142,83 @@
         <v>4173</v>
       </c>
       <c r="O27" s="5">
-        <f t="shared" ref="O27:T27" si="91">+O25+O26</f>
+        <f t="shared" ref="O27:T27" si="92">+O25+O26</f>
         <v>2760</v>
       </c>
       <c r="P27" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>4153</v>
       </c>
       <c r="Q27" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>3353</v>
       </c>
       <c r="R27" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>4098</v>
       </c>
       <c r="S27" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>3287</v>
       </c>
       <c r="T27" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>3605</v>
       </c>
       <c r="U27" s="5">
-        <f t="shared" ref="U27:AH27" si="92">+U25+U26</f>
+        <f t="shared" ref="U27:AH27" si="93">+U25+U26</f>
         <v>3859</v>
       </c>
       <c r="V27" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>4720</v>
       </c>
       <c r="W27" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>3879</v>
       </c>
       <c r="X27" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>4096</v>
       </c>
       <c r="Y27" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>4087</v>
       </c>
       <c r="Z27" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>4758</v>
       </c>
       <c r="AA27" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>4189</v>
       </c>
       <c r="AB27" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>4406.6189999999997</v>
       </c>
       <c r="AC27" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>4915.9550000000017</v>
       </c>
       <c r="AD27" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>5816.5939999999991</v>
       </c>
       <c r="AE27" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>5923.3985000000002</v>
       </c>
       <c r="AF27" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>6317.6508500000009</v>
       </c>
       <c r="AG27" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>6753.7901499999989</v>
       </c>
       <c r="AH27" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>7515.8502999999982</v>
       </c>
       <c r="AI27" s="5"/>
@@ -4226,23 +4226,23 @@
       <c r="AK27" s="5"/>
       <c r="AL27" s="5"/>
       <c r="AM27" s="5">
-        <f t="shared" ref="AM27:AO27" si="93">+AM25+AM26</f>
+        <f t="shared" ref="AM27:AO27" si="94">+AM25+AM26</f>
         <v>12929</v>
       </c>
       <c r="AN27" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>13914</v>
       </c>
       <c r="AO27" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>13629</v>
       </c>
       <c r="AP27" s="5">
-        <f t="shared" ref="AP27:AQ27" si="94">+AP25+AP26</f>
+        <f t="shared" ref="AP27:AQ27" si="95">+AP25+AP26</f>
         <v>13793</v>
       </c>
       <c r="AQ27" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>14665</v>
       </c>
       <c r="AR27" s="5">
@@ -4250,35 +4250,35 @@
         <v>14225</v>
       </c>
       <c r="AS27" s="5">
-        <f t="shared" ref="AS27" si="95">+AS25+AS26</f>
+        <f t="shared" ref="AS27" si="96">+AS25+AS26</f>
         <v>13461</v>
       </c>
       <c r="AT27" s="5">
-        <f t="shared" ref="AT27" si="96">+AT25+AT26</f>
+        <f t="shared" ref="AT27" si="97">+AT25+AT26</f>
         <v>22992.510000000002</v>
       </c>
       <c r="AU27" s="5">
-        <f t="shared" ref="AU27" si="97">+AU25+AU26</f>
+        <f t="shared" ref="AU27" si="98">+AU25+AU26</f>
         <v>26454.497034999993</v>
       </c>
       <c r="AV27" s="5">
-        <f t="shared" ref="AV27" si="98">+AV25+AV26</f>
+        <f t="shared" ref="AV27" si="99">+AV25+AV26</f>
         <v>27768.446738797495</v>
       </c>
       <c r="AW27" s="5">
-        <f t="shared" ref="AW27" si="99">+AW25+AW26</f>
+        <f t="shared" ref="AW27" si="100">+AW25+AW26</f>
         <v>29130.169637307274</v>
       </c>
       <c r="AX27" s="5">
-        <f t="shared" ref="AX27" si="100">+AX25+AX26</f>
+        <f t="shared" ref="AX27" si="101">+AX25+AX26</f>
         <v>30541.227639255485</v>
       </c>
       <c r="AY27" s="5">
-        <f t="shared" ref="AY27" si="101">+AY25+AY26</f>
+        <f t="shared" ref="AY27" si="102">+AY25+AY26</f>
         <v>32003.231549221149</v>
       </c>
       <c r="AZ27" s="5">
-        <f t="shared" ref="AZ27" si="102">+AZ25+AZ26</f>
+        <f t="shared" ref="AZ27" si="103">+AZ25+AZ26</f>
         <v>33517.842568636101</v>
       </c>
     </row>
@@ -4354,27 +4354,27 @@
         <v>660.99284999999998</v>
       </c>
       <c r="AC28" s="5">
-        <f t="shared" ref="AC28:AH28" si="103">+AC27*0.15</f>
+        <f t="shared" ref="AC28:AH28" si="104">+AC27*0.15</f>
         <v>737.39325000000019</v>
       </c>
       <c r="AD28" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>872.48909999999989</v>
       </c>
       <c r="AE28" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>888.50977499999999</v>
       </c>
       <c r="AF28" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>947.64762750000011</v>
       </c>
       <c r="AG28" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>1013.0685224999997</v>
       </c>
       <c r="AH28" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>1127.3775449999996</v>
       </c>
       <c r="AI28" s="5"/>
@@ -4399,7 +4399,7 @@
         <v>932</v>
       </c>
       <c r="AS28" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>623</v>
       </c>
       <c r="AT28" s="3">
@@ -4415,7 +4415,7 @@
         <v>4165.2670108196244</v>
       </c>
       <c r="AW28" s="3">
-        <f t="shared" ref="AW28:AZ28" si="104">AW27*0.15</f>
+        <f t="shared" ref="AW28:AZ28" si="105">AW27*0.15</f>
         <v>4369.5254455960912</v>
       </c>
       <c r="AX28" s="3">
@@ -4423,11 +4423,11 @@
         <v>4581.1841458883227</v>
       </c>
       <c r="AY28" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>4800.4847323831718</v>
       </c>
       <c r="AZ28" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>5027.6763852954145</v>
       </c>
     </row>
@@ -4436,7 +4436,7 @@
         <v>27</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" ref="G29" si="105">G27-G28</f>
+        <f t="shared" ref="G29" si="106">G27-G28</f>
         <v>2791</v>
       </c>
       <c r="H29" s="5">
@@ -4452,15 +4452,15 @@
         <v>4186</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" ref="K29:M29" si="106">K27-K28</f>
+        <f t="shared" ref="K29:M29" si="107">K27-K28</f>
         <v>2860</v>
       </c>
       <c r="L29" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>3495</v>
       </c>
       <c r="M29" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>2952</v>
       </c>
       <c r="N29" s="5">
@@ -4468,102 +4468,102 @@
         <v>3738</v>
       </c>
       <c r="O29" s="5">
-        <f t="shared" ref="O29:T29" si="107">O27-O28</f>
+        <f t="shared" ref="O29:T29" si="108">O27-O28</f>
         <v>2652</v>
       </c>
       <c r="P29" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>3750</v>
       </c>
       <c r="Q29" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>3031</v>
       </c>
       <c r="R29" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>4308</v>
       </c>
       <c r="S29" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>2509</v>
       </c>
       <c r="T29" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>2733</v>
       </c>
       <c r="U29" s="5">
-        <f t="shared" ref="U29:AH29" si="108">U27-U28</f>
+        <f t="shared" ref="U29:AH29" si="109">U27-U28</f>
         <v>2934</v>
       </c>
       <c r="V29" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>3562</v>
       </c>
       <c r="W29" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>2957</v>
       </c>
       <c r="X29" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>3857</v>
       </c>
       <c r="Y29" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>3575</v>
       </c>
       <c r="Z29" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>4034</v>
       </c>
       <c r="AA29" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>3689</v>
       </c>
       <c r="AB29" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>3745.6261499999996</v>
       </c>
       <c r="AC29" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>4178.5617500000017</v>
       </c>
       <c r="AD29" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>4944.1048999999994</v>
       </c>
       <c r="AE29" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>5034.8887250000007</v>
       </c>
       <c r="AF29" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>5370.0032225000004</v>
       </c>
       <c r="AG29" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>5740.7216274999992</v>
       </c>
       <c r="AH29" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>6388.4727549999989</v>
       </c>
       <c r="AI29" s="5"/>
       <c r="AJ29" s="5"/>
       <c r="AK29" s="5"/>
       <c r="AM29" s="5">
-        <f t="shared" ref="AM29:AO29" si="109">AM27-AM28</f>
+        <f t="shared" ref="AM29:AO29" si="110">AM27-AM28</f>
         <v>10747</v>
       </c>
       <c r="AN29" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>4848</v>
       </c>
       <c r="AO29" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>12444</v>
       </c>
       <c r="AP29" s="5">
-        <f t="shared" ref="AP29" si="110">AP27-AP28</f>
+        <f t="shared" ref="AP29" si="111">AP27-AP28</f>
         <v>11865</v>
       </c>
       <c r="AQ29" s="5">
@@ -4575,391 +4575,391 @@
         <v>13293</v>
       </c>
       <c r="AS29" s="5">
-        <f t="shared" ref="AS29" si="111">AS27-AS28</f>
+        <f t="shared" ref="AS29" si="112">AS27-AS28</f>
         <v>12838</v>
       </c>
       <c r="AT29" s="5">
-        <f t="shared" ref="AT29" si="112">AT27-AT28</f>
+        <f t="shared" ref="AT29" si="113">AT27-AT28</f>
         <v>19543.633500000004</v>
       </c>
       <c r="AU29" s="5">
-        <f t="shared" ref="AU29" si="113">AU27-AU28</f>
+        <f t="shared" ref="AU29" si="114">AU27-AU28</f>
         <v>22486.322479749993</v>
       </c>
       <c r="AV29" s="5">
-        <f t="shared" ref="AV29" si="114">AV27-AV28</f>
+        <f t="shared" ref="AV29" si="115">AV27-AV28</f>
         <v>23603.179727977869</v>
       </c>
       <c r="AW29" s="5">
-        <f t="shared" ref="AW29" si="115">AW27-AW28</f>
+        <f t="shared" ref="AW29" si="116">AW27-AW28</f>
         <v>24760.644191711181</v>
       </c>
       <c r="AX29" s="5">
-        <f t="shared" ref="AX29" si="116">AX27-AX28</f>
+        <f t="shared" ref="AX29" si="117">AX27-AX28</f>
         <v>25960.043493367164</v>
       </c>
       <c r="AY29" s="5">
-        <f t="shared" ref="AY29" si="117">AY27-AY28</f>
+        <f t="shared" ref="AY29" si="118">AY27-AY28</f>
         <v>27202.746816837978</v>
       </c>
       <c r="AZ29" s="5">
-        <f t="shared" ref="AZ29" si="118">AZ27-AZ28</f>
+        <f t="shared" ref="AZ29" si="119">AZ27-AZ28</f>
         <v>28490.166183340687</v>
       </c>
       <c r="BA29" s="3">
-        <f t="shared" ref="BA29:CF29" si="119">AZ29*(1+$BC$40)</f>
+        <f t="shared" ref="BA29:CF29" si="120">AZ29*(1+$BC$40)</f>
         <v>28775.067845174093</v>
       </c>
       <c r="BB29" s="3">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>29062.818523625836</v>
       </c>
       <c r="BC29" s="3">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>29353.446708862095</v>
       </c>
       <c r="BD29" s="3">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>29646.981175950717</v>
       </c>
       <c r="BE29" s="3">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>29943.450987710225</v>
       </c>
       <c r="BF29" s="3">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>30242.885497587326</v>
       </c>
       <c r="BG29" s="3">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>30545.3143525632</v>
       </c>
       <c r="BH29" s="3">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>30850.767496088833</v>
       </c>
       <c r="BI29" s="3">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>31159.275171049721</v>
       </c>
       <c r="BJ29" s="3">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>31470.867922760219</v>
       </c>
       <c r="BK29" s="3">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>31785.576601987821</v>
       </c>
       <c r="BL29" s="3">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>32103.4323680077</v>
       </c>
       <c r="BM29" s="3">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>32424.466691687776</v>
       </c>
       <c r="BN29" s="3">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>32748.711358604654</v>
       </c>
       <c r="BO29" s="3">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>33076.198472190699</v>
       </c>
       <c r="BP29" s="3">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>33406.96045691261</v>
       </c>
       <c r="BQ29" s="3">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>33741.030061481739</v>
       </c>
       <c r="BR29" s="3">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>34078.440362096553</v>
       </c>
       <c r="BS29" s="3">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>34419.224765717518</v>
       </c>
       <c r="BT29" s="3">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>34763.417013374696</v>
       </c>
       <c r="BU29" s="3">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>35111.05118350844</v>
       </c>
       <c r="BV29" s="3">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>35462.161695343522</v>
       </c>
       <c r="BW29" s="3">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>35816.783312296961</v>
       </c>
       <c r="BX29" s="3">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>36174.951145419931</v>
       </c>
       <c r="BY29" s="3">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>36536.700656874127</v>
       </c>
       <c r="BZ29" s="3">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>36902.067663442867</v>
       </c>
       <c r="CA29" s="3">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>37271.088340077295</v>
       </c>
       <c r="CB29" s="3">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>37643.799223478069</v>
       </c>
       <c r="CC29" s="3">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>38020.237215712848</v>
       </c>
       <c r="CD29" s="3">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>38400.43958786998</v>
       </c>
       <c r="CE29" s="3">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>38784.443983748679</v>
       </c>
       <c r="CF29" s="3">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>39172.288423586164</v>
       </c>
       <c r="CG29" s="3">
-        <f t="shared" ref="CG29:DL29" si="120">CF29*(1+$BC$40)</f>
+        <f t="shared" ref="CG29:DL29" si="121">CF29*(1+$BC$40)</f>
         <v>39564.011307822024</v>
       </c>
       <c r="CH29" s="3">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>39959.651420900242</v>
       </c>
       <c r="CI29" s="3">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>40359.247935109248</v>
       </c>
       <c r="CJ29" s="3">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>40762.840414460341</v>
       </c>
       <c r="CK29" s="3">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>41170.468818604946</v>
       </c>
       <c r="CL29" s="3">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>41582.173506790998</v>
       </c>
       <c r="CM29" s="3">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>41997.995241858909</v>
       </c>
       <c r="CN29" s="3">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>42417.975194277496</v>
       </c>
       <c r="CO29" s="3">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>42842.154946220275</v>
       </c>
       <c r="CP29" s="3">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>43270.576495682479</v>
       </c>
       <c r="CQ29" s="3">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>43703.282260639302</v>
       </c>
       <c r="CR29" s="3">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>44140.315083245696</v>
       </c>
       <c r="CS29" s="3">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>44581.718234078151</v>
       </c>
       <c r="CT29" s="3">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>45027.535416418934</v>
       </c>
       <c r="CU29" s="3">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>45477.810770583121</v>
       </c>
       <c r="CV29" s="3">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>45932.588878288952</v>
       </c>
       <c r="CW29" s="3">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>46391.914767071845</v>
       </c>
       <c r="CX29" s="3">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>46855.833914742565</v>
       </c>
       <c r="CY29" s="3">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>47324.392253889993</v>
       </c>
       <c r="CZ29" s="3">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>47797.636176428896</v>
       </c>
       <c r="DA29" s="3">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>48275.612538193185</v>
       </c>
       <c r="DB29" s="3">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>48758.368663575115</v>
       </c>
       <c r="DC29" s="3">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>49245.952350210864</v>
       </c>
       <c r="DD29" s="3">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>49738.411873712976</v>
       </c>
       <c r="DE29" s="3">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>50235.795992450105</v>
       </c>
       <c r="DF29" s="3">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>50738.153952374603</v>
       </c>
       <c r="DG29" s="3">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>51245.53549189835</v>
       </c>
       <c r="DH29" s="3">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>51757.990846817331</v>
       </c>
       <c r="DI29" s="3">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>52275.570755285502</v>
       </c>
       <c r="DJ29" s="3">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>52798.326462838355</v>
       </c>
       <c r="DK29" s="3">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>53326.309727466738</v>
       </c>
       <c r="DL29" s="3">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>53859.572824741408</v>
       </c>
       <c r="DM29" s="3">
-        <f t="shared" ref="DM29:EK29" si="121">DL29*(1+$BC$40)</f>
+        <f t="shared" ref="DM29:EK29" si="122">DL29*(1+$BC$40)</f>
         <v>54398.16855298882</v>
       </c>
       <c r="DN29" s="3">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>54942.150238518712</v>
       </c>
       <c r="DO29" s="3">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>55491.571740903899</v>
       </c>
       <c r="DP29" s="3">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>56046.487458312935</v>
       </c>
       <c r="DQ29" s="3">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>56606.952332896064</v>
       </c>
       <c r="DR29" s="3">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>57173.021856225023</v>
       </c>
       <c r="DS29" s="3">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>57744.752074787277</v>
       </c>
       <c r="DT29" s="3">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>58322.199595535152</v>
       </c>
       <c r="DU29" s="3">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>58905.421591490507</v>
       </c>
       <c r="DV29" s="3">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>59494.475807405412</v>
       </c>
       <c r="DW29" s="3">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>60089.420565479464</v>
       </c>
       <c r="DX29" s="3">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>60690.314771134261</v>
       </c>
       <c r="DY29" s="3">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>61297.217918845607</v>
       </c>
       <c r="DZ29" s="3">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>61910.190098034065</v>
       </c>
       <c r="EA29" s="3">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>62529.291999014407</v>
       </c>
       <c r="EB29" s="3">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>63154.584919004556</v>
       </c>
       <c r="EC29" s="3">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>63786.130768194598</v>
       </c>
       <c r="ED29" s="3">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>64423.992075876544</v>
       </c>
       <c r="EE29" s="3">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>65068.23199663531</v>
       </c>
       <c r="EF29" s="3">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>65718.914316601658</v>
       </c>
       <c r="EG29" s="3">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>66376.103459767677</v>
       </c>
       <c r="EH29" s="3">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>67039.864494365349</v>
       </c>
       <c r="EI29" s="3">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>67710.263139308998</v>
       </c>
       <c r="EJ29" s="3">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>68387.36577070209</v>
       </c>
       <c r="EK29" s="3">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>69071.239428409113</v>
       </c>
     </row>
@@ -4968,7 +4968,7 @@
         <v>28</v>
       </c>
       <c r="G30" s="6">
-        <f t="shared" ref="G30" si="122">G29/G31</f>
+        <f t="shared" ref="G30" si="123">G29/G31</f>
         <v>0.89829417444480208</v>
       </c>
       <c r="H30" s="6">
@@ -4984,118 +4984,118 @@
         <v>1.4223581379544683</v>
       </c>
       <c r="K30" s="6">
-        <f t="shared" ref="K30:T30" si="123">K29/K31</f>
+        <f t="shared" ref="K30:T30" si="124">K29/K31</f>
         <v>0.99965047186298495</v>
       </c>
       <c r="L30" s="6">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>1.2973273942093542</v>
       </c>
       <c r="M30" s="6">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>1.0718954248366013</v>
       </c>
       <c r="N30" s="6">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>1.363238512035011</v>
       </c>
       <c r="O30" s="6">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.96541681834728799</v>
       </c>
       <c r="P30" s="6">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>1.3656227239621268</v>
       </c>
       <c r="Q30" s="6">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>1.0918587896253602</v>
       </c>
       <c r="R30" s="6">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>1.5407725321888412</v>
       </c>
       <c r="S30" s="6">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.88877081119376555</v>
       </c>
       <c r="T30" s="6">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.9701810436634718</v>
       </c>
       <c r="U30" s="6">
-        <f t="shared" ref="U30:AH30" si="124">U29/U31</f>
+        <f t="shared" ref="U30:AH30" si="125">U29/U31</f>
         <v>1.0407946080170274</v>
       </c>
       <c r="V30" s="6">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>1.2568807339449541</v>
       </c>
       <c r="W30" s="6">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>1.0371799368642582</v>
       </c>
       <c r="X30" s="6">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>1.3443708609271523</v>
       </c>
       <c r="Y30" s="6">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>1.2439109255393179</v>
       </c>
       <c r="Z30" s="6">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>1.4050853361198188</v>
       </c>
       <c r="AA30" s="6">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>1.2681333791680991</v>
       </c>
       <c r="AB30" s="6">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>1.2875992265383291</v>
       </c>
       <c r="AC30" s="6">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>1.4364254898590587</v>
       </c>
       <c r="AD30" s="6">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>1.6995891715366103</v>
       </c>
       <c r="AE30" s="6">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>1.7307970866277074</v>
       </c>
       <c r="AF30" s="6">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>1.8459962951185975</v>
       </c>
       <c r="AG30" s="6">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>1.9734347292884149</v>
       </c>
       <c r="AH30" s="6">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>2.1961061378480573</v>
       </c>
       <c r="AI30" s="6"/>
       <c r="AJ30" s="6"/>
       <c r="AK30" s="6"/>
       <c r="AM30" s="6">
-        <f t="shared" ref="AM30:AO30" si="125">AM29/AM31</f>
+        <f t="shared" ref="AM30:AO30" si="126">AM29/AM31</f>
         <v>2.5484941901825944</v>
       </c>
       <c r="AN30" s="6">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>1.1439358187824447</v>
       </c>
       <c r="AO30" s="6">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>3.334405144694534</v>
       </c>
       <c r="AP30" s="6">
-        <f t="shared" ref="AP30" si="126">AP29/AP31</f>
+        <f t="shared" ref="AP30" si="127">AP29/AP31</f>
         <v>3.6020036429872495</v>
       </c>
       <c r="AQ30" s="6">
@@ -5103,39 +5103,39 @@
         <v>4.852746525479815</v>
       </c>
       <c r="AR30" s="6">
-        <f t="shared" ref="AR30:AS30" si="127">AR29/AR31</f>
+        <f t="shared" ref="AR30:AS30" si="128">AR29/AR31</f>
         <v>4.7713567839195976</v>
       </c>
       <c r="AS30" s="6">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>4.6409399005874379</v>
       </c>
       <c r="AT30" s="6">
-        <f t="shared" ref="AT30:AZ30" si="128">AT29/AT31</f>
+        <f t="shared" ref="AT30:AZ30" si="129">AT29/AT31</f>
         <v>7.0650279258924549</v>
       </c>
       <c r="AU30" s="6">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>8.1288106569362828</v>
       </c>
       <c r="AV30" s="6">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>8.5325548045107524</v>
       </c>
       <c r="AW30" s="6">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>8.9509784696651362</v>
       </c>
       <c r="AX30" s="6">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>9.3845615882032227</v>
       </c>
       <c r="AY30" s="6">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>9.8337991204113795</v>
       </c>
       <c r="AZ30" s="6">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>10.299201512278604</v>
       </c>
     </row>
@@ -5215,27 +5215,27 @@
         <v>2909</v>
       </c>
       <c r="AC31" s="5">
-        <f t="shared" ref="AC31:AH31" si="129">+AB31</f>
+        <f t="shared" ref="AC31:AH31" si="130">+AB31</f>
         <v>2909</v>
       </c>
       <c r="AD31" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>2909</v>
       </c>
       <c r="AE31" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>2909</v>
       </c>
       <c r="AF31" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>2909</v>
       </c>
       <c r="AG31" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>2909</v>
       </c>
       <c r="AH31" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>2909</v>
       </c>
       <c r="AI31" s="5"/>
@@ -5269,27 +5269,27 @@
         <v>2766.25</v>
       </c>
       <c r="AU31" s="3">
-        <f t="shared" ref="AU31:AZ31" si="130">AT31</f>
+        <f t="shared" ref="AU31:AZ31" si="131">AT31</f>
         <v>2766.25</v>
       </c>
       <c r="AV31" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>2766.25</v>
       </c>
       <c r="AW31" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>2766.25</v>
       </c>
       <c r="AX31" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>2766.25</v>
       </c>
       <c r="AY31" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>2766.25</v>
       </c>
       <c r="AZ31" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>2766.25</v>
       </c>
     </row>
@@ -5331,43 +5331,43 @@
         <v>5.4600516611739591E-2</v>
       </c>
       <c r="O34" s="7">
-        <f t="shared" ref="O34:R34" si="131">O18/K18-1</f>
+        <f t="shared" ref="O34:R34" si="132">O18/K18-1</f>
         <v>0.17650082236842102</v>
       </c>
       <c r="P34" s="7">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0.18484555984555984</v>
       </c>
       <c r="Q34" s="7">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0.17930181679824986</v>
       </c>
       <c r="R34" s="7">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0.16866554054054061</v>
       </c>
       <c r="S34" s="7">
-        <f t="shared" ref="S34" si="132">S18/O18-1</f>
+        <f t="shared" ref="S34" si="133">S18/O18-1</f>
         <v>8.8073394495412849E-2</v>
       </c>
       <c r="T34" s="7">
-        <f t="shared" ref="T34" si="133">T18/P18-1</f>
+        <f t="shared" ref="T34" si="134">T18/P18-1</f>
         <v>5.425661914460278E-2</v>
       </c>
       <c r="U34" s="7">
-        <f t="shared" ref="U34" si="134">U18/Q18-1</f>
+        <f t="shared" ref="U34" si="135">U18/Q18-1</f>
         <v>7.114050653331172E-2</v>
       </c>
       <c r="V34" s="7">
-        <f t="shared" ref="V34:AB34" si="135">V18/R18-1</f>
+        <f t="shared" ref="V34:AB34" si="136">V18/R18-1</f>
         <v>3.2521500325215058E-2</v>
       </c>
       <c r="W34" s="7">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>6.857785272625061E-2</v>
       </c>
       <c r="X34" s="7">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>8.6392087164824938E-2</v>
       </c>
       <c r="Y34" s="7">
@@ -5375,39 +5375,39 @@
         <v>6.4006024096385561E-2</v>
       </c>
       <c r="Z34" s="7">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0.11310982011618953</v>
       </c>
       <c r="AA34" s="7">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0.12166528894566775</v>
       </c>
       <c r="AB34" s="7">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0.12384593498826368</v>
       </c>
       <c r="AC34" s="7">
-        <f t="shared" ref="AC34" si="136">AC18/Y18-1</f>
+        <f t="shared" ref="AC34" si="137">AC18/Y18-1</f>
         <v>0.17876150035385718</v>
       </c>
       <c r="AD34" s="7">
-        <f t="shared" ref="AD34" si="137">AD18/Z18-1</f>
+        <f t="shared" ref="AD34" si="138">AD18/Z18-1</f>
         <v>0.20072313399987407</v>
       </c>
       <c r="AE34" s="7">
-        <f t="shared" ref="AE34" si="138">AE18/AA18-1</f>
+        <f t="shared" ref="AE34" si="139">AE18/AA18-1</f>
         <v>0.25760083076510787</v>
       </c>
       <c r="AF34" s="7">
-        <f t="shared" ref="AF34" si="139">AF18/AB18-1</f>
+        <f t="shared" ref="AF34" si="140">AF18/AB18-1</f>
         <v>0.26480175821115637</v>
       </c>
       <c r="AG34" s="7">
-        <f t="shared" ref="AG34" si="140">AG18/AC18-1</f>
+        <f t="shared" ref="AG34" si="141">AG18/AC18-1</f>
         <v>0.25137008507495828</v>
       </c>
       <c r="AH34" s="7">
-        <f t="shared" ref="AH34" si="141">AH18/AD18-1</f>
+        <f t="shared" ref="AH34" si="142">AH18/AD18-1</f>
         <v>0.21976606563987633</v>
       </c>
       <c r="AI34" s="7"/>
@@ -5417,11 +5417,11 @@
       <c r="AM34" s="7"/>
       <c r="AO34" s="13"/>
       <c r="AP34" s="13">
-        <f t="shared" ref="AP34:AQ34" si="142">AP18/AO18-1</f>
+        <f t="shared" ref="AP34:AQ34" si="143">AP18/AO18-1</f>
         <v>-1.108692350529028E-2</v>
       </c>
       <c r="AQ34" s="13">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>3.6116514794716892E-2</v>
       </c>
       <c r="AR34" s="13">
@@ -5429,15 +5429,15 @@
         <v>4.8444872650015958E-2</v>
       </c>
       <c r="AS34" s="13">
-        <f t="shared" ref="AS34:AZ34" si="143">AS18/AR18-1</f>
+        <f t="shared" ref="AS34:AZ34" si="144">AS18/AR18-1</f>
         <v>0.17707351555136674</v>
       </c>
       <c r="AT34" s="13">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>6.0174156741066964E-2</v>
       </c>
       <c r="AU34" s="13">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>8.3797511376295875E-2</v>
       </c>
       <c r="AV34" s="13">
@@ -5445,19 +5445,19 @@
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AW34" s="13">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AX34" s="13">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AY34" s="13">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AZ34" s="13">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
@@ -5524,31 +5524,31 @@
         <v>18</v>
       </c>
       <c r="G36" s="7">
-        <f t="shared" ref="G36:M36" si="144">G20/G18</f>
+        <f t="shared" ref="G36:M36" si="145">G20/G18</f>
         <v>0.79929539874025834</v>
       </c>
       <c r="H36" s="7">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0.80214285714285716</v>
       </c>
       <c r="I36" s="7">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0.8101140307387209</v>
       </c>
       <c r="J36" s="7">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0.81099136011401085</v>
       </c>
       <c r="K36" s="7">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0.78381990131578949</v>
       </c>
       <c r="L36" s="7">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0.79160231660231661</v>
       </c>
       <c r="M36" s="7">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0.78902311423951299</v>
       </c>
       <c r="N36" s="7">
@@ -5556,83 +5556,83 @@
         <v>0.79763513513513518</v>
       </c>
       <c r="O36" s="7">
-        <f t="shared" ref="O36:AA36" si="145">O20/O18</f>
+        <f t="shared" ref="O36:AA36" si="146">O20/O18</f>
         <v>0.73464394932284838</v>
       </c>
       <c r="P36" s="7">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>0.8</v>
       </c>
       <c r="Q36" s="7">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>0.72261655105662204</v>
       </c>
       <c r="R36" s="7">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>0.73043289730432892</v>
       </c>
       <c r="S36" s="7">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>0.71011001365132898</v>
       </c>
       <c r="T36" s="7">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>0.71099605903716867</v>
       </c>
       <c r="U36" s="7">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>0.70865963855421688</v>
       </c>
       <c r="V36" s="7">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>0.72541471267585922</v>
       </c>
       <c r="W36" s="7">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>0.70647027880063129</v>
       </c>
       <c r="X36" s="7">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>0.70943879365530982</v>
       </c>
       <c r="Y36" s="7">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>0.70311394196744514</v>
       </c>
       <c r="Z36" s="7">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>0.70194302961705335</v>
       </c>
       <c r="AA36" s="7">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>0.67278574299879401</v>
       </c>
       <c r="AB36" s="7">
-        <f t="shared" ref="AB36:AH36" si="146">AB20/AB18</f>
+        <f t="shared" ref="AB36:AH36" si="147">AB20/AB18</f>
         <v>0.66</v>
       </c>
       <c r="AC36" s="7">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0.65</v>
       </c>
       <c r="AD36" s="7">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0.64</v>
       </c>
       <c r="AE36" s="7">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0.63</v>
       </c>
       <c r="AF36" s="7">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0.62</v>
       </c>
       <c r="AG36" s="7">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0.61</v>
       </c>
       <c r="AH36" s="7">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0.6</v>
       </c>
       <c r="AI36" s="7"/>
@@ -5642,15 +5642,15 @@
       <c r="AM36" s="7"/>
       <c r="AN36" s="7"/>
       <c r="AO36" s="7">
-        <f t="shared" ref="AO36:AQ36" si="147">AO20/AO18</f>
+        <f t="shared" ref="AO36:AQ36" si="148">AO20/AO18</f>
         <v>0.79762567711233734</v>
       </c>
       <c r="AP36" s="7">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0.79681580833418653</v>
       </c>
       <c r="AQ36" s="7">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0.80594876355641198</v>
       </c>
       <c r="AR36" s="7">
@@ -5658,35 +5658,35 @@
         <v>0.79083411875589071</v>
       </c>
       <c r="AS36" s="7">
-        <f t="shared" ref="AS36:AZ36" si="148">AS20/AS18</f>
+        <f t="shared" ref="AS36:AZ36" si="149">AS20/AS18</f>
         <v>0.72847562806525878</v>
       </c>
       <c r="AT36" s="7">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.8</v>
       </c>
       <c r="AU36" s="7">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.79999999999999993</v>
       </c>
       <c r="AV36" s="7">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.79999999999999993</v>
       </c>
       <c r="AW36" s="7">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.79999999999999993</v>
       </c>
       <c r="AX36" s="7">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.79999999999999993</v>
       </c>
       <c r="AY36" s="7">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.79999999999999993</v>
       </c>
       <c r="AZ36" s="7">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.8</v>
       </c>
     </row>
@@ -5695,83 +5695,83 @@
         <v>89</v>
       </c>
       <c r="G37" s="7">
-        <f t="shared" ref="G37:AA37" si="149">+G25/G18</f>
+        <f t="shared" ref="G37:Z37" si="150">+G25/G18</f>
         <v>0.40023486708658057</v>
       </c>
       <c r="H37" s="7">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.41836734693877553</v>
       </c>
       <c r="I37" s="7">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.4267724343083788</v>
       </c>
       <c r="J37" s="7">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.44597844482052196</v>
       </c>
       <c r="K37" s="7">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.38949424342105265</v>
       </c>
       <c r="L37" s="7">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.40289575289575291</v>
       </c>
       <c r="M37" s="7">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.39379815466565204</v>
       </c>
       <c r="N37" s="7">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.41190878378378376</v>
       </c>
       <c r="O37" s="7">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.32564438619484493</v>
       </c>
       <c r="P37" s="7">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.41384928716904279</v>
       </c>
       <c r="Q37" s="7">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.34368446523632845</v>
       </c>
       <c r="R37" s="7">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.37067283370672832</v>
       </c>
       <c r="S37" s="7">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.33791054364410184</v>
       </c>
       <c r="T37" s="7">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.34827293099451356</v>
       </c>
       <c r="U37" s="7">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.35722891566265058</v>
       </c>
       <c r="V37" s="7">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.39350458458738713</v>
       </c>
       <c r="W37" s="7">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.35327271360937851</v>
       </c>
       <c r="X37" s="7">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.35038053915641226</v>
       </c>
       <c r="Y37" s="7">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.35364472753007786</v>
       </c>
       <c r="Z37" s="7">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.36068666289379364</v>
       </c>
       <c r="AA37" s="7">
@@ -5779,31 +5779,31 @@
         <v>0.3424896154361517</v>
       </c>
       <c r="AB37" s="7">
-        <f t="shared" ref="AB37:AH37" si="150">+AB25/AB18</f>
+        <f t="shared" ref="AB37:AH37" si="151">+AB25/AB18</f>
         <v>0.33731445587541892</v>
       </c>
       <c r="AC37" s="7">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.3505637641916679</v>
       </c>
       <c r="AD37" s="7">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.35294887170006961</v>
       </c>
       <c r="AE37" s="7">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.36473372418551003</v>
       </c>
       <c r="AF37" s="7">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.36232135791242592</v>
       </c>
       <c r="AG37" s="7">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.36832041873663646</v>
       </c>
       <c r="AH37" s="7">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.36231373560073588</v>
       </c>
       <c r="AI37" s="7"/>
@@ -5813,15 +5813,15 @@
       <c r="AM37" s="7"/>
       <c r="AN37" s="7"/>
       <c r="AO37" s="7">
-        <f t="shared" ref="AO37:AQ37" si="151">AO25/AO18</f>
+        <f t="shared" ref="AO37:AQ37" si="152">AO25/AO18</f>
         <v>0.39768642737811977</v>
       </c>
       <c r="AP37" s="7">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.40411590048121226</v>
       </c>
       <c r="AQ37" s="7">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.42394822006472493</v>
       </c>
       <c r="AR37" s="7">
@@ -5829,35 +5829,35 @@
         <v>0.40009425070688032</v>
       </c>
       <c r="AS37" s="7">
-        <f t="shared" ref="AS37:AZ37" si="152">AS25/AS18</f>
+        <f t="shared" ref="AS37:AZ37" si="153">AS25/AS18</f>
         <v>0.34619157241517368</v>
       </c>
       <c r="AT37" s="7">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.43414040520382929</v>
       </c>
       <c r="AU37" s="7">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.45748289517238966</v>
       </c>
       <c r="AV37" s="7">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.46257947356073481</v>
       </c>
       <c r="AW37" s="7">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.46759217896271521</v>
       </c>
       <c r="AX37" s="7">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.47252249347805841</v>
       </c>
       <c r="AY37" s="7">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.47737187185020574</v>
       </c>
       <c r="AZ37" s="7">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.48214174198369242</v>
       </c>
     </row>
@@ -5866,35 +5866,35 @@
         <v>82</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" ref="G38:K38" si="153">G28/G27</f>
+        <f t="shared" ref="G38:J38" si="154">G28/G27</f>
         <v>0.10972886762360447</v>
       </c>
       <c r="H38" s="7">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.15142857142857144</v>
       </c>
       <c r="I38" s="7">
-        <f t="shared" si="153"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="7">
-        <f t="shared" si="153"/>
-        <v>2.877030162412993E-2</v>
-      </c>
-      <c r="K38" s="7">
-        <f t="shared" ref="K38:N38" si="154">K28/K27</f>
-        <v>7.2632944228274973E-2</v>
-      </c>
-      <c r="L38" s="7">
         <f t="shared" si="154"/>
         <v>0</v>
       </c>
+      <c r="J38" s="7">
+        <f t="shared" si="154"/>
+        <v>2.877030162412993E-2</v>
+      </c>
+      <c r="K38" s="7">
+        <f t="shared" ref="K38:N38" si="155">K28/K27</f>
+        <v>7.2632944228274973E-2</v>
+      </c>
+      <c r="L38" s="7">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
       <c r="M38" s="7">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.15001439677512238</v>
       </c>
       <c r="N38" s="7">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.10424155283968368</v>
       </c>
       <c r="O38" s="7">
@@ -5902,79 +5902,79 @@
         <v>3.9130434782608699E-2</v>
       </c>
       <c r="P38" s="7">
-        <f t="shared" ref="P38:AA38" si="155">P28/P27</f>
+        <f t="shared" ref="P38:AA38" si="156">P28/P27</f>
         <v>9.7038285576691544E-2</v>
       </c>
       <c r="Q38" s="7">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>9.6033402922755737E-2</v>
       </c>
       <c r="R38" s="7">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>-5.1244509516837483E-2</v>
       </c>
       <c r="S38" s="7">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.23668999087313661</v>
       </c>
       <c r="T38" s="7">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.2418862690707351</v>
       </c>
       <c r="U38" s="7">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.23969940399067116</v>
       </c>
       <c r="V38" s="7">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.24533898305084745</v>
       </c>
       <c r="W38" s="7">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.2376901263212168</v>
       </c>
       <c r="X38" s="7">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>5.8349609375E-2</v>
       </c>
       <c r="Y38" s="7">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.12527526302911671</v>
       </c>
       <c r="Z38" s="7">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.15216477511559479</v>
       </c>
       <c r="AA38" s="7">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.11936022917164001</v>
       </c>
       <c r="AB38" s="7">
-        <f t="shared" ref="AB38:AH38" si="156">AB28/AB27</f>
+        <f t="shared" ref="AB38:AH38" si="157">AB28/AB27</f>
         <v>0.15</v>
       </c>
       <c r="AC38" s="7">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.15</v>
       </c>
       <c r="AD38" s="7">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.15</v>
       </c>
       <c r="AE38" s="7">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.15</v>
       </c>
       <c r="AF38" s="7">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.15</v>
       </c>
       <c r="AG38" s="7">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.15</v>
       </c>
       <c r="AH38" s="7">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.15</v>
       </c>
       <c r="AI38" s="7"/>
@@ -5984,51 +5984,51 @@
       <c r="AM38" s="7"/>
       <c r="AN38" s="7"/>
       <c r="AO38" s="7">
-        <f t="shared" ref="AO38:AZ38" si="157">AO28/AO27</f>
+        <f t="shared" ref="AO38:AZ38" si="158">AO28/AO27</f>
         <v>8.6946951353731011E-2</v>
       </c>
       <c r="AP38" s="7">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.13978104835786268</v>
       </c>
       <c r="AQ38" s="7">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="AR38" s="7">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>6.5518453427065027E-2</v>
       </c>
       <c r="AS38" s="7">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>4.6281851274050961E-2</v>
       </c>
       <c r="AT38" s="7">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.15</v>
       </c>
       <c r="AU38" s="7">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.15</v>
       </c>
       <c r="AV38" s="7">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.15</v>
       </c>
       <c r="AW38" s="7">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.15</v>
       </c>
       <c r="AX38" s="7">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.15</v>
       </c>
       <c r="AY38" s="7">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.15</v>
       </c>
       <c r="AZ38" s="7">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.15</v>
       </c>
     </row>
@@ -6037,59 +6037,59 @@
         <v>69</v>
       </c>
       <c r="N40" s="5">
-        <f t="shared" ref="N40:U40" si="158">N41-N50</f>
+        <f t="shared" ref="N40:U40" si="159">N41-N50</f>
         <v>-53957</v>
       </c>
       <c r="O40" s="5">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="P40" s="5">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>-83569</v>
       </c>
       <c r="Q40" s="5">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>-83042</v>
       </c>
       <c r="R40" s="5">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="S40" s="5">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>-76858</v>
       </c>
       <c r="T40" s="5">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>-80099</v>
       </c>
       <c r="U40" s="5">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>-78076</v>
       </c>
       <c r="V40" s="5">
-        <f>+V41-V50</f>
+        <f t="shared" ref="V40:AA40" si="160">+V41-V50</f>
         <v>-76208</v>
       </c>
       <c r="W40" s="5">
-        <f>+W41-W50</f>
+        <f t="shared" si="160"/>
         <v>-73604</v>
       </c>
       <c r="X40" s="5">
-        <f>+X41-X50</f>
+        <f t="shared" si="160"/>
         <v>-77313</v>
       </c>
       <c r="Y40" s="5">
-        <f>+Y41-Y50</f>
+        <f t="shared" si="160"/>
         <v>-78453</v>
       </c>
       <c r="Z40" s="5">
-        <f>+Z41-Z50</f>
+        <f t="shared" si="160"/>
         <v>-81365</v>
       </c>
       <c r="AA40" s="5">
-        <f>+AA41-AA50</f>
+        <f t="shared" si="160"/>
         <v>-80310</v>
       </c>
       <c r="AB40" s="5"/>
@@ -6111,27 +6111,27 @@
         <v>19543.633500000004</v>
       </c>
       <c r="AU40" s="3">
-        <f t="shared" ref="AU40:AZ40" si="159">AT40+AU29</f>
+        <f t="shared" ref="AU40:AZ40" si="161">AT40+AU29</f>
         <v>42029.955979749997</v>
       </c>
       <c r="AV40" s="3">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>65633.135707727866</v>
       </c>
       <c r="AW40" s="3">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>90393.779899439047</v>
       </c>
       <c r="AX40" s="3">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>116353.82339280621</v>
       </c>
       <c r="AY40" s="3">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>143556.57020964418</v>
       </c>
       <c r="AZ40" s="3">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>172046.73639298487</v>
       </c>
       <c r="BB40" s="1" t="s">
@@ -6704,59 +6704,59 @@
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5">
-        <f t="shared" ref="N48:AA48" si="160">SUM(N41:N47)</f>
+        <f t="shared" ref="N48:AA48" si="162">SUM(N41:N47)</f>
         <v>109297</v>
       </c>
       <c r="O48" s="5">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="P48" s="5">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>128469</v>
       </c>
       <c r="Q48" s="5">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>131620</v>
       </c>
       <c r="R48" s="5">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="S48" s="5">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>136662</v>
       </c>
       <c r="T48" s="5">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>134324</v>
       </c>
       <c r="U48" s="5">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>137082</v>
       </c>
       <c r="V48" s="5">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>140976</v>
       </c>
       <c r="W48" s="5">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>144214</v>
       </c>
       <c r="X48" s="5">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>148483</v>
       </c>
       <c r="Y48" s="5">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>161378</v>
       </c>
       <c r="Z48" s="5">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>168361</v>
       </c>
       <c r="AA48" s="5">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>180449</v>
       </c>
       <c r="AB48" s="5"/>
@@ -7394,39 +7394,39 @@
       </c>
       <c r="R58" s="5"/>
       <c r="S58" s="5">
-        <f>SUM(S50:S57)</f>
+        <f t="shared" ref="S58:AA58" si="163">SUM(S50:S57)</f>
         <v>136662</v>
       </c>
       <c r="T58" s="5">
-        <f>SUM(T50:T57)</f>
+        <f t="shared" si="163"/>
         <v>134324</v>
       </c>
       <c r="U58" s="5">
-        <f>SUM(U50:U57)</f>
+        <f t="shared" si="163"/>
         <v>137082</v>
       </c>
       <c r="V58" s="5">
-        <f>SUM(V50:V57)</f>
+        <f t="shared" si="163"/>
         <v>140976</v>
       </c>
       <c r="W58" s="5">
-        <f>SUM(W50:W57)</f>
+        <f t="shared" si="163"/>
         <v>144214</v>
       </c>
       <c r="X58" s="5">
-        <f>SUM(X50:X57)</f>
+        <f t="shared" si="163"/>
         <v>148483</v>
       </c>
       <c r="Y58" s="5">
-        <f>SUM(Y50:Y57)</f>
+        <f t="shared" si="163"/>
         <v>161378</v>
       </c>
       <c r="Z58" s="5">
-        <f>SUM(Z50:Z57)</f>
+        <f t="shared" si="163"/>
         <v>168361</v>
       </c>
       <c r="AA58" s="5">
-        <f>SUM(AA50:AA57)</f>
+        <f t="shared" si="163"/>
         <v>180449</v>
       </c>
       <c r="AB58" s="5"/>
@@ -7467,19 +7467,19 @@
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
       <c r="S60" s="5">
-        <f t="shared" ref="S60:V60" si="161">+S29</f>
+        <f t="shared" ref="S60:V60" si="164">+S29</f>
         <v>2509</v>
       </c>
       <c r="T60" s="5">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>2733</v>
       </c>
       <c r="U60" s="5">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>2934</v>
       </c>
       <c r="V60" s="5">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>3562</v>
       </c>
       <c r="W60" s="5">
@@ -7487,19 +7487,19 @@
         <v>2957</v>
       </c>
       <c r="X60" s="5">
-        <f t="shared" ref="X60:AA60" si="162">+X29</f>
+        <f t="shared" ref="X60:AA60" si="165">+X29</f>
         <v>3857</v>
       </c>
       <c r="Y60" s="5">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>3575</v>
       </c>
       <c r="Z60" s="5">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>4034</v>
       </c>
       <c r="AA60" s="5">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>3689</v>
       </c>
       <c r="AB60" s="5"/>
@@ -8051,19 +8051,19 @@
       <c r="Q68" s="5"/>
       <c r="R68" s="5"/>
       <c r="S68" s="5">
-        <f t="shared" ref="S68:V68" si="163">SUM(S61:S67)</f>
+        <f t="shared" ref="S68:V68" si="166">SUM(S61:S67)</f>
         <v>6974</v>
       </c>
       <c r="T68" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>143</v>
       </c>
       <c r="U68" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>5475</v>
       </c>
       <c r="V68" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="166"/>
         <v>6081</v>
       </c>
       <c r="W68" s="5">
@@ -8071,19 +8071,19 @@
         <v>7427</v>
       </c>
       <c r="X68" s="5">
-        <f t="shared" ref="X68:AA68" si="164">SUM(X61:X67)</f>
+        <f t="shared" ref="X68:AA68" si="167">SUM(X61:X67)</f>
         <v>1304</v>
       </c>
       <c r="Y68" s="5">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>5933</v>
       </c>
       <c r="Z68" s="5">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>6157</v>
       </c>
       <c r="AA68" s="5">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>8140</v>
       </c>
       <c r="AB68" s="5"/>
@@ -8349,39 +8349,39 @@
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
       <c r="S73" s="5">
-        <f>SUM(S70:S72)</f>
+        <f t="shared" ref="S73:AA73" si="168">SUM(S70:S72)</f>
         <v>-1562</v>
       </c>
       <c r="T73" s="5">
-        <f>SUM(T70:T72)</f>
+        <f t="shared" si="168"/>
         <v>-1249</v>
       </c>
       <c r="U73" s="5">
-        <f>SUM(U70:U72)</f>
+        <f t="shared" si="168"/>
         <v>-1783</v>
       </c>
       <c r="V73" s="5">
-        <f>SUM(V70:V72)</f>
+        <f t="shared" si="168"/>
         <v>-2766</v>
       </c>
       <c r="W73" s="5">
-        <f>SUM(W70:W72)</f>
+        <f t="shared" si="168"/>
         <v>-2765</v>
       </c>
       <c r="X73" s="5">
-        <f>SUM(X70:X72)</f>
+        <f t="shared" si="168"/>
         <v>-3788</v>
       </c>
       <c r="Y73" s="5">
-        <f>SUM(Y70:Y72)</f>
+        <f t="shared" si="168"/>
         <v>-5976</v>
       </c>
       <c r="Z73" s="5">
-        <f>SUM(Z70:Z72)</f>
+        <f t="shared" si="168"/>
         <v>-9182</v>
       </c>
       <c r="AA73" s="5">
-        <f>SUM(AA70:AA72)</f>
+        <f t="shared" si="168"/>
         <v>-8718</v>
       </c>
       <c r="AB73" s="5"/>
@@ -8771,19 +8771,19 @@
         <v>-4585</v>
       </c>
       <c r="X79" s="5">
-        <f t="shared" ref="X79:AA79" si="165">SUM(X75:X78)</f>
+        <f t="shared" ref="X79:AA79" si="169">SUM(X75:X78)</f>
         <v>2938</v>
       </c>
       <c r="Y79" s="5">
-        <f t="shared" si="165"/>
+        <f t="shared" si="169"/>
         <v>6559</v>
       </c>
       <c r="Z79" s="5">
-        <f t="shared" si="165"/>
+        <f t="shared" si="169"/>
         <v>-3814</v>
       </c>
       <c r="AA79" s="5">
-        <f t="shared" si="165"/>
+        <f t="shared" si="169"/>
         <v>210</v>
       </c>
       <c r="AB79" s="5"/>
@@ -8914,19 +8914,19 @@
         <v>162</v>
       </c>
       <c r="X81" s="5">
-        <f t="shared" ref="X81:AA81" si="166">+X79+X80+X73+X68</f>
+        <f t="shared" ref="X81:AA81" si="170">+X79+X80+X73+X68</f>
         <v>325</v>
       </c>
       <c r="Y81" s="5">
-        <f t="shared" si="166"/>
+        <f t="shared" si="170"/>
         <v>6465</v>
       </c>
       <c r="Z81" s="5">
-        <f t="shared" si="166"/>
+        <f t="shared" si="170"/>
         <v>-6620</v>
       </c>
       <c r="AA81" s="5">
-        <f t="shared" si="166"/>
+        <f t="shared" si="170"/>
         <v>-341</v>
       </c>
       <c r="AB81" s="5"/>
